--- a/Project Timeline/Project Timeline.xlsx
+++ b/Project Timeline/Project Timeline.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>PROJECT TIMELINE</t>
   </si>
@@ -351,10 +351,36 @@
     <t>프로젝트 네이밍</t>
   </si>
   <si>
-    <t xml:space="preserve">-프로젝트 로고 제작 및 수정	</t>
-  </si>
-  <si>
-    <t>프로젝트 로고 제작</t>
+    <t>-프로젝트 로고  아이디어 공모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트
+로고 
+아이디어
+공모
+</t>
+  </si>
+  <si>
+    <t>-로고 초안 제작</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로고 초안
+제작 </t>
+  </si>
+  <si>
+    <t>로고 1차 수정</t>
+  </si>
+  <si>
+    <t>로고 1차
+수정</t>
+  </si>
+  <si>
+    <t>-프로젝트 로고 2차 수정및 픽스</t>
+  </si>
+  <si>
+    <t>로고 2차
+수정 및 
+픽스</t>
   </si>
   <si>
     <t>-Use Case</t>
@@ -366,13 +392,30 @@
     <t>-Git Hub 마크업</t>
   </si>
   <si>
+    <t>Git Hub 마크업</t>
+  </si>
+  <si>
     <t>-중간 발표 자료 준비</t>
   </si>
   <si>
+    <t>중간 발표 자료 준비</t>
+  </si>
+  <si>
     <t>-중간 발표  ppt 제작</t>
   </si>
   <si>
+    <t>중간발표
+PPT 제작</t>
+  </si>
+  <si>
     <t>-중간 발표 스크립트 제작</t>
+  </si>
+  <si>
+    <t>-플랫폼 튜토리얼 제작</t>
+  </si>
+  <si>
+    <t>플랫폼 
+튜토리얼 제작</t>
   </si>
   <si>
     <t>-</t>
@@ -738,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="83">
     <border/>
     <border>
       <bottom style="thick">
@@ -1323,11 +1366,6 @@
       </top>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FFB7B7B7"/>
-      </left>
-    </border>
-    <border>
       <bottom style="medium">
         <color rgb="FFC76121"/>
       </bottom>
@@ -1465,17 +1503,6 @@
       </bottom>
     </border>
     <border>
-      <right style="hair">
-        <color rgb="FFEFEFEF"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-    </border>
-    <border>
       <bottom style="medium">
         <color rgb="FF38761D"/>
       </bottom>
@@ -1590,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1933,6 +1960,7 @@
     <xf borderId="46" fillId="7" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="46" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="46" fillId="7" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -2109,9 +2137,6 @@
     <xf borderId="40" fillId="10" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="61" fillId="7" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2151,34 +2176,34 @@
     <xf borderId="19" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="61" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="62" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="61" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="63" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="62" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="64" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="63" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="62" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="65" fillId="2" fontId="47" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="64" fillId="2" fontId="47" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="64" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="41" fillId="11" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="65" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="54" fillId="11" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="66" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="64" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="67" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="65" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="68" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="27" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2217,107 +2242,104 @@
     <xf borderId="34" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="68" fillId="12" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="69" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="70" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="71" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="72" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="73" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="47" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="12" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="44" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="45" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="12" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="69" fillId="12" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="70" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="74" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="75" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="74" fillId="7" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="76" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="69" fillId="12" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="77" fillId="2" fontId="47" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="71" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="72" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="73" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="74" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="47" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="44" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="69" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="70" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="75" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="76" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="77" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="76" fillId="7" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="78" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="79" fillId="2" fontId="47" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="79" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="80" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="77" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="78" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="76" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="77" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="79" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="80" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="81" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="82" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="83" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="84" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -3444,8 +3466,6 @@
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
       <c r="G14" s="63" t="s">
         <v>34</v>
       </c>
@@ -3520,8 +3540,6 @@
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
       <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
       <c r="G15" s="63" t="s">
         <v>36</v>
       </c>
@@ -3596,8 +3614,6 @@
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
       <c r="G16" s="63" t="s">
         <v>38</v>
       </c>
@@ -3672,8 +3688,6 @@
       <c r="B17" s="60"/>
       <c r="C17" s="61"/>
       <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
       <c r="G17" s="63" t="s">
         <v>40</v>
       </c>
@@ -3748,8 +3762,6 @@
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
       <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
       <c r="G18" s="63" t="s">
         <v>42</v>
       </c>
@@ -3824,48 +3836,48 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124" t="s">
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="131" t="s">
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="127"/>
-      <c r="AJ19" s="127"/>
-      <c r="AK19" s="127"/>
-      <c r="AL19" s="127"/>
-      <c r="AM19" s="127"/>
-      <c r="AN19" s="127"/>
-      <c r="AO19" s="132"/>
-      <c r="AP19" s="132"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="128"/>
+      <c r="AK19" s="128"/>
+      <c r="AL19" s="128"/>
+      <c r="AM19" s="128"/>
+      <c r="AN19" s="128"/>
+      <c r="AO19" s="133"/>
+      <c r="AP19" s="133"/>
       <c r="AQ19" s="89"/>
       <c r="AR19" s="114"/>
       <c r="AS19" s="114"/>
@@ -3897,96 +3909,97 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="30"/>
-      <c r="B20" s="133">
+      <c r="B20" s="134">
         <v>2.0</v>
       </c>
       <c r="C20" s="61"/>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="135" t="s">
+      <c r="G20" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="140" t="s">
+      <c r="H20" s="137"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="143"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="144"/>
       <c r="X20" s="80"/>
       <c r="Y20" s="80"/>
       <c r="Z20" s="80"/>
       <c r="AA20" s="80"/>
       <c r="AB20" s="80"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="145"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="145"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="145"/>
-      <c r="AM20" s="145"/>
-      <c r="AN20" s="145"/>
-      <c r="AO20" s="146"/>
-      <c r="AP20" s="146"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="146"/>
+      <c r="AF20" s="146"/>
+      <c r="AG20" s="146"/>
+      <c r="AH20" s="146"/>
+      <c r="AI20" s="146"/>
+      <c r="AJ20" s="146"/>
+      <c r="AK20" s="146"/>
+      <c r="AL20" s="146"/>
+      <c r="AM20" s="146"/>
+      <c r="AN20" s="146"/>
+      <c r="AO20" s="147"/>
+      <c r="AP20" s="147"/>
       <c r="AQ20" s="89"/>
-      <c r="AR20" s="147"/>
-      <c r="AS20" s="147"/>
-      <c r="AT20" s="147"/>
-      <c r="AU20" s="147"/>
-      <c r="AV20" s="147"/>
-      <c r="AW20" s="147"/>
-      <c r="AX20" s="147"/>
-      <c r="AY20" s="147"/>
-      <c r="AZ20" s="147"/>
-      <c r="BA20" s="148"/>
-      <c r="BB20" s="149"/>
-      <c r="BC20" s="147"/>
-      <c r="BD20" s="147"/>
-      <c r="BE20" s="147"/>
-      <c r="BF20" s="147"/>
-      <c r="BG20" s="147"/>
-      <c r="BH20" s="147"/>
-      <c r="BI20" s="147"/>
-      <c r="BJ20" s="147"/>
-      <c r="BK20" s="147"/>
-      <c r="BL20" s="147"/>
-      <c r="BM20" s="147"/>
-      <c r="BN20" s="147"/>
-      <c r="BO20" s="147"/>
-      <c r="BP20" s="148"/>
-      <c r="BQ20" s="150"/>
+      <c r="AR20" s="148"/>
+      <c r="AS20" s="148"/>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="148"/>
+      <c r="AV20" s="148"/>
+      <c r="AW20" s="148"/>
+      <c r="AX20" s="148"/>
+      <c r="AY20" s="148"/>
+      <c r="AZ20" s="148"/>
+      <c r="BA20" s="149"/>
+      <c r="BB20" s="150"/>
+      <c r="BC20" s="148"/>
+      <c r="BD20" s="148"/>
+      <c r="BE20" s="148"/>
+      <c r="BF20" s="148"/>
+      <c r="BG20" s="148"/>
+      <c r="BH20" s="148"/>
+      <c r="BI20" s="148"/>
+      <c r="BJ20" s="148"/>
+      <c r="BK20" s="148"/>
+      <c r="BL20" s="148"/>
+      <c r="BM20" s="148"/>
+      <c r="BN20" s="148"/>
+      <c r="BO20" s="148"/>
+      <c r="BP20" s="149"/>
+      <c r="BQ20" s="151"/>
       <c r="BR20" s="30"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="30"/>
       <c r="C21" s="61"/>
-      <c r="G21" s="135" t="s">
+      <c r="D21" s="135"/>
+      <c r="G21" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="136"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
       <c r="K21" s="107"/>
       <c r="L21" s="107"/>
       <c r="M21" s="107"/>
       <c r="N21" s="107"/>
       <c r="O21" s="107"/>
-      <c r="P21" s="153" t="s">
+      <c r="P21" s="154" t="s">
         <v>50</v>
       </c>
       <c r="Q21" s="109"/>
@@ -3994,13 +4007,13 @@
       <c r="S21" s="99"/>
       <c r="T21" s="99"/>
       <c r="U21" s="107"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="154"/>
-      <c r="AB21" s="154"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="157"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
       <c r="AC21" s="107"/>
       <c r="AD21" s="107"/>
       <c r="AE21" s="99"/>
@@ -4013,46 +4026,47 @@
       <c r="AL21" s="107"/>
       <c r="AM21" s="107"/>
       <c r="AN21" s="107"/>
-      <c r="AO21" s="157"/>
-      <c r="AP21" s="157"/>
+      <c r="AO21" s="158"/>
+      <c r="AP21" s="158"/>
       <c r="AQ21" s="89"/>
-      <c r="AR21" s="158"/>
-      <c r="AS21" s="158"/>
-      <c r="AT21" s="158"/>
-      <c r="AU21" s="158"/>
-      <c r="AV21" s="158"/>
-      <c r="AW21" s="158"/>
-      <c r="AX21" s="158"/>
-      <c r="AY21" s="158"/>
-      <c r="AZ21" s="158"/>
-      <c r="BA21" s="159"/>
-      <c r="BB21" s="160"/>
-      <c r="BC21" s="158"/>
-      <c r="BD21" s="158"/>
-      <c r="BE21" s="158"/>
-      <c r="BF21" s="158"/>
-      <c r="BG21" s="158"/>
-      <c r="BH21" s="158"/>
-      <c r="BI21" s="158"/>
-      <c r="BJ21" s="158"/>
-      <c r="BK21" s="158"/>
-      <c r="BL21" s="158"/>
-      <c r="BM21" s="158"/>
-      <c r="BN21" s="158"/>
-      <c r="BO21" s="158"/>
-      <c r="BP21" s="159"/>
-      <c r="BQ21" s="150"/>
+      <c r="AR21" s="159"/>
+      <c r="AS21" s="159"/>
+      <c r="AT21" s="159"/>
+      <c r="AU21" s="159"/>
+      <c r="AV21" s="159"/>
+      <c r="AW21" s="159"/>
+      <c r="AX21" s="159"/>
+      <c r="AY21" s="159"/>
+      <c r="AZ21" s="159"/>
+      <c r="BA21" s="160"/>
+      <c r="BB21" s="161"/>
+      <c r="BC21" s="159"/>
+      <c r="BD21" s="159"/>
+      <c r="BE21" s="159"/>
+      <c r="BF21" s="159"/>
+      <c r="BG21" s="159"/>
+      <c r="BH21" s="159"/>
+      <c r="BI21" s="159"/>
+      <c r="BJ21" s="159"/>
+      <c r="BK21" s="159"/>
+      <c r="BL21" s="159"/>
+      <c r="BM21" s="159"/>
+      <c r="BN21" s="159"/>
+      <c r="BO21" s="159"/>
+      <c r="BP21" s="160"/>
+      <c r="BQ21" s="151"/>
       <c r="BR21" s="30"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="30"/>
       <c r="C22" s="61"/>
-      <c r="G22" s="135" t="s">
+      <c r="D22" s="135"/>
+      <c r="G22" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="136"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
       <c r="K22" s="107"/>
       <c r="L22" s="107"/>
       <c r="M22" s="107"/>
@@ -4060,19 +4074,19 @@
       <c r="O22" s="107"/>
       <c r="P22" s="107"/>
       <c r="Q22" s="107"/>
-      <c r="R22" s="161" t="s">
+      <c r="R22" s="162" t="s">
         <v>52</v>
       </c>
       <c r="S22" s="120"/>
       <c r="T22" s="107"/>
       <c r="U22" s="107"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="154"/>
-      <c r="AB22" s="154"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
       <c r="AC22" s="107"/>
       <c r="AD22" s="107"/>
       <c r="AE22" s="107"/>
@@ -4085,46 +4099,47 @@
       <c r="AL22" s="107"/>
       <c r="AM22" s="107"/>
       <c r="AN22" s="107"/>
-      <c r="AO22" s="157"/>
-      <c r="AP22" s="157"/>
+      <c r="AO22" s="158"/>
+      <c r="AP22" s="158"/>
       <c r="AQ22" s="89"/>
-      <c r="AR22" s="158"/>
-      <c r="AS22" s="158"/>
-      <c r="AT22" s="158"/>
-      <c r="AU22" s="158"/>
-      <c r="AV22" s="158"/>
-      <c r="AW22" s="158"/>
-      <c r="AX22" s="158"/>
-      <c r="AY22" s="158"/>
-      <c r="AZ22" s="158"/>
-      <c r="BA22" s="159"/>
-      <c r="BB22" s="160"/>
-      <c r="BC22" s="158"/>
-      <c r="BD22" s="158"/>
-      <c r="BE22" s="158"/>
-      <c r="BF22" s="158"/>
-      <c r="BG22" s="158"/>
-      <c r="BH22" s="158"/>
-      <c r="BI22" s="158"/>
-      <c r="BJ22" s="158"/>
-      <c r="BK22" s="158"/>
-      <c r="BL22" s="158"/>
-      <c r="BM22" s="158"/>
-      <c r="BN22" s="158"/>
-      <c r="BO22" s="158"/>
-      <c r="BP22" s="159"/>
-      <c r="BQ22" s="150"/>
+      <c r="AR22" s="159"/>
+      <c r="AS22" s="159"/>
+      <c r="AT22" s="159"/>
+      <c r="AU22" s="159"/>
+      <c r="AV22" s="159"/>
+      <c r="AW22" s="159"/>
+      <c r="AX22" s="159"/>
+      <c r="AY22" s="159"/>
+      <c r="AZ22" s="159"/>
+      <c r="BA22" s="160"/>
+      <c r="BB22" s="161"/>
+      <c r="BC22" s="159"/>
+      <c r="BD22" s="159"/>
+      <c r="BE22" s="159"/>
+      <c r="BF22" s="159"/>
+      <c r="BG22" s="159"/>
+      <c r="BH22" s="159"/>
+      <c r="BI22" s="159"/>
+      <c r="BJ22" s="159"/>
+      <c r="BK22" s="159"/>
+      <c r="BL22" s="159"/>
+      <c r="BM22" s="159"/>
+      <c r="BN22" s="159"/>
+      <c r="BO22" s="159"/>
+      <c r="BP22" s="160"/>
+      <c r="BQ22" s="151"/>
       <c r="BR22" s="30"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="30"/>
       <c r="C23" s="61"/>
-      <c r="G23" s="135" t="s">
+      <c r="D23" s="135"/>
+      <c r="G23" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
       <c r="K23" s="107"/>
       <c r="L23" s="107"/>
       <c r="M23" s="107"/>
@@ -4133,18 +4148,18 @@
       <c r="P23" s="107"/>
       <c r="Q23" s="107"/>
       <c r="R23" s="107"/>
-      <c r="S23" s="161" t="s">
+      <c r="S23" s="162" t="s">
         <v>54</v>
       </c>
       <c r="T23" s="120"/>
       <c r="U23" s="107"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="154"/>
-      <c r="AB23" s="154"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="157"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
       <c r="AC23" s="107"/>
       <c r="AD23" s="107"/>
       <c r="AE23" s="107"/>
@@ -4157,46 +4172,47 @@
       <c r="AL23" s="107"/>
       <c r="AM23" s="107"/>
       <c r="AN23" s="107"/>
-      <c r="AO23" s="157"/>
-      <c r="AP23" s="157"/>
+      <c r="AO23" s="158"/>
+      <c r="AP23" s="158"/>
       <c r="AQ23" s="89"/>
-      <c r="AR23" s="158"/>
-      <c r="AS23" s="158"/>
-      <c r="AT23" s="158"/>
-      <c r="AU23" s="158"/>
-      <c r="AV23" s="158"/>
-      <c r="AW23" s="158"/>
-      <c r="AX23" s="158"/>
-      <c r="AY23" s="158"/>
-      <c r="AZ23" s="158"/>
-      <c r="BA23" s="159"/>
-      <c r="BB23" s="160"/>
-      <c r="BC23" s="158"/>
-      <c r="BD23" s="158"/>
-      <c r="BE23" s="158"/>
-      <c r="BF23" s="158"/>
-      <c r="BG23" s="158"/>
-      <c r="BH23" s="158"/>
-      <c r="BI23" s="158"/>
-      <c r="BJ23" s="158"/>
-      <c r="BK23" s="158"/>
-      <c r="BL23" s="158"/>
-      <c r="BM23" s="158"/>
-      <c r="BN23" s="158"/>
-      <c r="BO23" s="158"/>
-      <c r="BP23" s="159"/>
-      <c r="BQ23" s="150"/>
+      <c r="AR23" s="159"/>
+      <c r="AS23" s="159"/>
+      <c r="AT23" s="159"/>
+      <c r="AU23" s="159"/>
+      <c r="AV23" s="159"/>
+      <c r="AW23" s="159"/>
+      <c r="AX23" s="159"/>
+      <c r="AY23" s="159"/>
+      <c r="AZ23" s="159"/>
+      <c r="BA23" s="160"/>
+      <c r="BB23" s="161"/>
+      <c r="BC23" s="159"/>
+      <c r="BD23" s="159"/>
+      <c r="BE23" s="159"/>
+      <c r="BF23" s="159"/>
+      <c r="BG23" s="159"/>
+      <c r="BH23" s="159"/>
+      <c r="BI23" s="159"/>
+      <c r="BJ23" s="159"/>
+      <c r="BK23" s="159"/>
+      <c r="BL23" s="159"/>
+      <c r="BM23" s="159"/>
+      <c r="BN23" s="159"/>
+      <c r="BO23" s="159"/>
+      <c r="BP23" s="160"/>
+      <c r="BQ23" s="151"/>
       <c r="BR23" s="30"/>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="30"/>
       <c r="C24" s="61"/>
-      <c r="G24" s="135" t="s">
+      <c r="D24" s="135"/>
+      <c r="G24" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="136"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
       <c r="K24" s="107"/>
       <c r="L24" s="107"/>
       <c r="M24" s="107"/>
@@ -4205,18 +4221,18 @@
       <c r="P24" s="95"/>
       <c r="Q24" s="95"/>
       <c r="R24" s="107"/>
-      <c r="S24" s="153" t="s">
+      <c r="S24" s="154" t="s">
         <v>56</v>
       </c>
       <c r="T24" s="120"/>
       <c r="U24" s="95"/>
       <c r="V24" s="95"/>
       <c r="W24" s="96"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
-      <c r="AB24" s="154"/>
+      <c r="X24" s="157"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
       <c r="AC24" s="107"/>
       <c r="AD24" s="107"/>
       <c r="AE24" s="107"/>
@@ -4229,44 +4245,45 @@
       <c r="AL24" s="107"/>
       <c r="AM24" s="107"/>
       <c r="AN24" s="107"/>
-      <c r="AO24" s="157"/>
-      <c r="AP24" s="157"/>
+      <c r="AO24" s="158"/>
+      <c r="AP24" s="158"/>
       <c r="AQ24" s="89"/>
-      <c r="AR24" s="158"/>
-      <c r="AS24" s="158"/>
-      <c r="AT24" s="158"/>
-      <c r="AU24" s="158"/>
-      <c r="AV24" s="158"/>
-      <c r="AW24" s="158"/>
-      <c r="AX24" s="158"/>
-      <c r="AY24" s="158"/>
-      <c r="AZ24" s="158"/>
-      <c r="BA24" s="159"/>
-      <c r="BB24" s="160"/>
-      <c r="BC24" s="158"/>
-      <c r="BD24" s="158"/>
-      <c r="BE24" s="158"/>
-      <c r="BF24" s="158"/>
-      <c r="BG24" s="158"/>
-      <c r="BH24" s="158"/>
-      <c r="BI24" s="158"/>
-      <c r="BJ24" s="158"/>
-      <c r="BK24" s="158"/>
-      <c r="BL24" s="158"/>
-      <c r="BM24" s="158"/>
-      <c r="BN24" s="158"/>
-      <c r="BO24" s="158"/>
-      <c r="BP24" s="159"/>
-      <c r="BQ24" s="150"/>
+      <c r="AR24" s="159"/>
+      <c r="AS24" s="159"/>
+      <c r="AT24" s="159"/>
+      <c r="AU24" s="159"/>
+      <c r="AV24" s="159"/>
+      <c r="AW24" s="159"/>
+      <c r="AX24" s="159"/>
+      <c r="AY24" s="159"/>
+      <c r="AZ24" s="159"/>
+      <c r="BA24" s="160"/>
+      <c r="BB24" s="161"/>
+      <c r="BC24" s="159"/>
+      <c r="BD24" s="159"/>
+      <c r="BE24" s="159"/>
+      <c r="BF24" s="159"/>
+      <c r="BG24" s="159"/>
+      <c r="BH24" s="159"/>
+      <c r="BI24" s="159"/>
+      <c r="BJ24" s="159"/>
+      <c r="BK24" s="159"/>
+      <c r="BL24" s="159"/>
+      <c r="BM24" s="159"/>
+      <c r="BN24" s="159"/>
+      <c r="BO24" s="159"/>
+      <c r="BP24" s="160"/>
+      <c r="BQ24" s="151"/>
       <c r="BR24" s="30"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="30"/>
       <c r="C25" s="61"/>
-      <c r="G25" s="135" t="s">
+      <c r="D25" s="135"/>
+      <c r="G25" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="136"/>
+      <c r="H25" s="137"/>
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
       <c r="K25" s="107"/>
@@ -4278,13 +4295,13 @@
       <c r="Q25" s="107"/>
       <c r="R25" s="107"/>
       <c r="S25" s="107"/>
-      <c r="T25" s="153" t="s">
+      <c r="T25" s="154" t="s">
         <v>58</v>
       </c>
       <c r="U25" s="120"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="164"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="164"/>
+      <c r="X25" s="165"/>
       <c r="Y25" s="107"/>
       <c r="Z25" s="107"/>
       <c r="AA25" s="107"/>
@@ -4301,48 +4318,46 @@
       <c r="AL25" s="107"/>
       <c r="AM25" s="107"/>
       <c r="AN25" s="107"/>
-      <c r="AO25" s="157"/>
-      <c r="AP25" s="157"/>
+      <c r="AO25" s="158"/>
+      <c r="AP25" s="158"/>
       <c r="AQ25" s="89"/>
-      <c r="AR25" s="165"/>
-      <c r="AS25" s="165"/>
-      <c r="AT25" s="165"/>
-      <c r="AU25" s="165"/>
-      <c r="AV25" s="165"/>
-      <c r="AW25" s="165"/>
-      <c r="AX25" s="165"/>
-      <c r="AY25" s="165"/>
-      <c r="AZ25" s="165"/>
-      <c r="BA25" s="166"/>
-      <c r="BB25" s="167"/>
-      <c r="BC25" s="165"/>
-      <c r="BD25" s="165"/>
-      <c r="BE25" s="165"/>
-      <c r="BF25" s="165"/>
-      <c r="BG25" s="165"/>
-      <c r="BH25" s="165"/>
-      <c r="BI25" s="165"/>
-      <c r="BJ25" s="165"/>
-      <c r="BK25" s="165"/>
-      <c r="BL25" s="165"/>
-      <c r="BM25" s="165"/>
-      <c r="BN25" s="165"/>
-      <c r="BO25" s="165"/>
-      <c r="BP25" s="166"/>
-      <c r="BQ25" s="150"/>
+      <c r="AR25" s="166"/>
+      <c r="AS25" s="166"/>
+      <c r="AT25" s="166"/>
+      <c r="AU25" s="166"/>
+      <c r="AV25" s="166"/>
+      <c r="AW25" s="166"/>
+      <c r="AX25" s="166"/>
+      <c r="AY25" s="166"/>
+      <c r="AZ25" s="166"/>
+      <c r="BA25" s="167"/>
+      <c r="BB25" s="168"/>
+      <c r="BC25" s="166"/>
+      <c r="BD25" s="166"/>
+      <c r="BE25" s="166"/>
+      <c r="BF25" s="166"/>
+      <c r="BG25" s="166"/>
+      <c r="BH25" s="166"/>
+      <c r="BI25" s="166"/>
+      <c r="BJ25" s="166"/>
+      <c r="BK25" s="166"/>
+      <c r="BL25" s="166"/>
+      <c r="BM25" s="166"/>
+      <c r="BN25" s="166"/>
+      <c r="BO25" s="166"/>
+      <c r="BP25" s="167"/>
+      <c r="BQ25" s="151"/>
       <c r="BR25" s="30"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="30"/>
-      <c r="B26" s="133"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="135" t="s">
+      <c r="D26" s="135"/>
+      <c r="G26" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="136"/>
+      <c r="H26" s="137"/>
       <c r="I26" s="107"/>
       <c r="J26" s="107"/>
       <c r="K26" s="107"/>
@@ -4355,7 +4370,7 @@
       <c r="R26" s="107"/>
       <c r="S26" s="107"/>
       <c r="T26" s="107"/>
-      <c r="U26" s="168" t="s">
+      <c r="U26" s="169" t="s">
         <v>60</v>
       </c>
       <c r="V26" s="107"/>
@@ -4377,48 +4392,46 @@
       <c r="AL26" s="107"/>
       <c r="AM26" s="107"/>
       <c r="AN26" s="107"/>
-      <c r="AO26" s="157"/>
-      <c r="AP26" s="157"/>
+      <c r="AO26" s="158"/>
+      <c r="AP26" s="158"/>
       <c r="AQ26" s="89"/>
-      <c r="AR26" s="169"/>
-      <c r="AS26" s="169"/>
-      <c r="AT26" s="169"/>
-      <c r="AU26" s="169"/>
-      <c r="AV26" s="169"/>
-      <c r="AW26" s="169"/>
-      <c r="AX26" s="169"/>
-      <c r="AY26" s="169"/>
-      <c r="AZ26" s="169"/>
-      <c r="BA26" s="170"/>
-      <c r="BB26" s="171"/>
-      <c r="BC26" s="169"/>
-      <c r="BD26" s="169"/>
-      <c r="BE26" s="169"/>
-      <c r="BF26" s="169"/>
-      <c r="BG26" s="169"/>
-      <c r="BH26" s="169"/>
-      <c r="BI26" s="169"/>
-      <c r="BJ26" s="169"/>
-      <c r="BK26" s="169"/>
-      <c r="BL26" s="169"/>
-      <c r="BM26" s="169"/>
-      <c r="BN26" s="169"/>
-      <c r="BO26" s="169"/>
-      <c r="BP26" s="170"/>
-      <c r="BQ26" s="150"/>
+      <c r="AR26" s="170"/>
+      <c r="AS26" s="170"/>
+      <c r="AT26" s="170"/>
+      <c r="AU26" s="170"/>
+      <c r="AV26" s="170"/>
+      <c r="AW26" s="170"/>
+      <c r="AX26" s="170"/>
+      <c r="AY26" s="170"/>
+      <c r="AZ26" s="170"/>
+      <c r="BA26" s="171"/>
+      <c r="BB26" s="172"/>
+      <c r="BC26" s="170"/>
+      <c r="BD26" s="170"/>
+      <c r="BE26" s="170"/>
+      <c r="BF26" s="170"/>
+      <c r="BG26" s="170"/>
+      <c r="BH26" s="170"/>
+      <c r="BI26" s="170"/>
+      <c r="BJ26" s="170"/>
+      <c r="BK26" s="170"/>
+      <c r="BL26" s="170"/>
+      <c r="BM26" s="170"/>
+      <c r="BN26" s="170"/>
+      <c r="BO26" s="170"/>
+      <c r="BP26" s="171"/>
+      <c r="BQ26" s="151"/>
       <c r="BR26" s="30"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="30"/>
-      <c r="B27" s="133"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="61"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135" t="s">
+      <c r="D27" s="135"/>
+      <c r="G27" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="136"/>
+      <c r="H27" s="137"/>
       <c r="I27" s="107"/>
       <c r="J27" s="107"/>
       <c r="K27" s="107"/>
@@ -4431,13 +4444,13 @@
       <c r="R27" s="107"/>
       <c r="S27" s="107"/>
       <c r="T27" s="107"/>
-      <c r="U27" s="161" t="s">
+      <c r="U27" s="162" t="s">
         <v>62</v>
       </c>
       <c r="V27" s="109"/>
       <c r="W27" s="110"/>
-      <c r="X27" s="172"/>
-      <c r="Y27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="174"/>
       <c r="Z27" s="95"/>
       <c r="AA27" s="107"/>
       <c r="AB27" s="107"/>
@@ -4453,48 +4466,46 @@
       <c r="AL27" s="107"/>
       <c r="AM27" s="107"/>
       <c r="AN27" s="107"/>
-      <c r="AO27" s="157"/>
-      <c r="AP27" s="157"/>
+      <c r="AO27" s="158"/>
+      <c r="AP27" s="158"/>
       <c r="AQ27" s="89"/>
-      <c r="AR27" s="169"/>
-      <c r="AS27" s="169"/>
-      <c r="AT27" s="169"/>
-      <c r="AU27" s="169"/>
-      <c r="AV27" s="169"/>
-      <c r="AW27" s="169"/>
-      <c r="AX27" s="169"/>
-      <c r="AY27" s="169"/>
-      <c r="AZ27" s="169"/>
-      <c r="BA27" s="170"/>
-      <c r="BB27" s="171"/>
-      <c r="BC27" s="169"/>
-      <c r="BD27" s="169"/>
-      <c r="BE27" s="169"/>
-      <c r="BF27" s="169"/>
-      <c r="BG27" s="169"/>
-      <c r="BH27" s="169"/>
-      <c r="BI27" s="169"/>
-      <c r="BJ27" s="169"/>
-      <c r="BK27" s="169"/>
-      <c r="BL27" s="169"/>
-      <c r="BM27" s="169"/>
-      <c r="BN27" s="169"/>
-      <c r="BO27" s="169"/>
-      <c r="BP27" s="170"/>
-      <c r="BQ27" s="150"/>
+      <c r="AR27" s="170"/>
+      <c r="AS27" s="170"/>
+      <c r="AT27" s="170"/>
+      <c r="AU27" s="170"/>
+      <c r="AV27" s="170"/>
+      <c r="AW27" s="170"/>
+      <c r="AX27" s="170"/>
+      <c r="AY27" s="170"/>
+      <c r="AZ27" s="170"/>
+      <c r="BA27" s="171"/>
+      <c r="BB27" s="172"/>
+      <c r="BC27" s="170"/>
+      <c r="BD27" s="170"/>
+      <c r="BE27" s="170"/>
+      <c r="BF27" s="170"/>
+      <c r="BG27" s="170"/>
+      <c r="BH27" s="170"/>
+      <c r="BI27" s="170"/>
+      <c r="BJ27" s="170"/>
+      <c r="BK27" s="170"/>
+      <c r="BL27" s="170"/>
+      <c r="BM27" s="170"/>
+      <c r="BN27" s="170"/>
+      <c r="BO27" s="170"/>
+      <c r="BP27" s="171"/>
+      <c r="BQ27" s="151"/>
       <c r="BR27" s="30"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="30"/>
-      <c r="B28" s="133"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="61"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="135" t="s">
+      <c r="D28" s="135"/>
+      <c r="G28" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="136"/>
+      <c r="H28" s="137"/>
       <c r="I28" s="107"/>
       <c r="J28" s="107"/>
       <c r="K28" s="107"/>
@@ -4508,13 +4519,13 @@
       <c r="S28" s="107"/>
       <c r="T28" s="107"/>
       <c r="U28" s="107"/>
-      <c r="V28" s="174" t="s">
+      <c r="V28" s="175" t="s">
         <v>64</v>
       </c>
       <c r="W28" s="110"/>
-      <c r="X28" s="175"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="164"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="165"/>
       <c r="AA28" s="95"/>
       <c r="AB28" s="95"/>
       <c r="AC28" s="107"/>
@@ -4529,72 +4540,70 @@
       <c r="AL28" s="107"/>
       <c r="AM28" s="107"/>
       <c r="AN28" s="107"/>
-      <c r="AO28" s="157"/>
-      <c r="AP28" s="157"/>
+      <c r="AO28" s="158"/>
+      <c r="AP28" s="158"/>
       <c r="AQ28" s="89"/>
-      <c r="AR28" s="169"/>
-      <c r="AS28" s="169"/>
-      <c r="AT28" s="169"/>
-      <c r="AU28" s="169"/>
-      <c r="AV28" s="169"/>
-      <c r="AW28" s="169"/>
-      <c r="AX28" s="169"/>
-      <c r="AY28" s="169"/>
-      <c r="AZ28" s="169"/>
-      <c r="BA28" s="170"/>
-      <c r="BB28" s="171"/>
-      <c r="BC28" s="169"/>
-      <c r="BD28" s="169"/>
-      <c r="BE28" s="169"/>
-      <c r="BF28" s="169"/>
-      <c r="BG28" s="169"/>
-      <c r="BH28" s="169"/>
-      <c r="BI28" s="169"/>
-      <c r="BJ28" s="169"/>
-      <c r="BK28" s="169"/>
-      <c r="BL28" s="169"/>
-      <c r="BM28" s="169"/>
-      <c r="BN28" s="169"/>
-      <c r="BO28" s="169"/>
-      <c r="BP28" s="170"/>
-      <c r="BQ28" s="150"/>
+      <c r="AR28" s="170"/>
+      <c r="AS28" s="170"/>
+      <c r="AT28" s="170"/>
+      <c r="AU28" s="170"/>
+      <c r="AV28" s="170"/>
+      <c r="AW28" s="170"/>
+      <c r="AX28" s="170"/>
+      <c r="AY28" s="170"/>
+      <c r="AZ28" s="170"/>
+      <c r="BA28" s="171"/>
+      <c r="BB28" s="172"/>
+      <c r="BC28" s="170"/>
+      <c r="BD28" s="170"/>
+      <c r="BE28" s="170"/>
+      <c r="BF28" s="170"/>
+      <c r="BG28" s="170"/>
+      <c r="BH28" s="170"/>
+      <c r="BI28" s="170"/>
+      <c r="BJ28" s="170"/>
+      <c r="BK28" s="170"/>
+      <c r="BL28" s="170"/>
+      <c r="BM28" s="170"/>
+      <c r="BN28" s="170"/>
+      <c r="BO28" s="170"/>
+      <c r="BP28" s="171"/>
+      <c r="BQ28" s="151"/>
       <c r="BR28" s="30"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="30"/>
-      <c r="B29" s="133"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="61"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="177" t="s">
+      <c r="D29" s="135"/>
+      <c r="G29" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="136"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="154"/>
-      <c r="W29" s="178" t="s">
+      <c r="H29" s="137"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="179" t="s">
         <v>66</v>
       </c>
       <c r="X29" s="120"/>
-      <c r="Y29" s="179"/>
-      <c r="Z29" s="180"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="156"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="157"/>
+      <c r="AB29" s="157"/>
+      <c r="AC29" s="157"/>
+      <c r="AD29" s="157"/>
       <c r="AE29" s="107"/>
       <c r="AF29" s="107"/>
       <c r="AG29" s="107"/>
@@ -4605,48 +4614,46 @@
       <c r="AL29" s="107"/>
       <c r="AM29" s="107"/>
       <c r="AN29" s="107"/>
-      <c r="AO29" s="157"/>
-      <c r="AP29" s="157"/>
+      <c r="AO29" s="158"/>
+      <c r="AP29" s="158"/>
       <c r="AQ29" s="89"/>
-      <c r="AR29" s="169"/>
-      <c r="AS29" s="169"/>
-      <c r="AT29" s="169"/>
-      <c r="AU29" s="169"/>
-      <c r="AV29" s="169"/>
-      <c r="AW29" s="169"/>
-      <c r="AX29" s="169"/>
-      <c r="AY29" s="169"/>
-      <c r="AZ29" s="169"/>
-      <c r="BA29" s="170"/>
-      <c r="BB29" s="171"/>
-      <c r="BC29" s="169"/>
-      <c r="BD29" s="169"/>
-      <c r="BE29" s="169"/>
-      <c r="BF29" s="169"/>
-      <c r="BG29" s="169"/>
-      <c r="BH29" s="169"/>
-      <c r="BI29" s="169"/>
-      <c r="BJ29" s="169"/>
-      <c r="BK29" s="169"/>
-      <c r="BL29" s="169"/>
-      <c r="BM29" s="169"/>
-      <c r="BN29" s="169"/>
-      <c r="BO29" s="169"/>
-      <c r="BP29" s="170"/>
-      <c r="BQ29" s="150"/>
+      <c r="AR29" s="170"/>
+      <c r="AS29" s="170"/>
+      <c r="AT29" s="170"/>
+      <c r="AU29" s="170"/>
+      <c r="AV29" s="170"/>
+      <c r="AW29" s="170"/>
+      <c r="AX29" s="170"/>
+      <c r="AY29" s="170"/>
+      <c r="AZ29" s="170"/>
+      <c r="BA29" s="171"/>
+      <c r="BB29" s="172"/>
+      <c r="BC29" s="170"/>
+      <c r="BD29" s="170"/>
+      <c r="BE29" s="170"/>
+      <c r="BF29" s="170"/>
+      <c r="BG29" s="170"/>
+      <c r="BH29" s="170"/>
+      <c r="BI29" s="170"/>
+      <c r="BJ29" s="170"/>
+      <c r="BK29" s="170"/>
+      <c r="BL29" s="170"/>
+      <c r="BM29" s="170"/>
+      <c r="BN29" s="170"/>
+      <c r="BO29" s="170"/>
+      <c r="BP29" s="171"/>
+      <c r="BQ29" s="151"/>
       <c r="BR29" s="30"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="30"/>
-      <c r="B30" s="133"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="61"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="135" t="s">
+      <c r="D30" s="135"/>
+      <c r="G30" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="136"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="107"/>
       <c r="J30" s="107"/>
       <c r="K30" s="107"/>
@@ -4662,10 +4669,10 @@
       <c r="U30" s="107"/>
       <c r="V30" s="107"/>
       <c r="W30" s="96"/>
-      <c r="X30" s="181" t="s">
+      <c r="X30" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="Y30" s="145"/>
+      <c r="Y30" s="146"/>
       <c r="Z30" s="107"/>
       <c r="AA30" s="107"/>
       <c r="AB30" s="107"/>
@@ -4681,48 +4688,46 @@
       <c r="AL30" s="107"/>
       <c r="AM30" s="107"/>
       <c r="AN30" s="107"/>
-      <c r="AO30" s="157"/>
-      <c r="AP30" s="157"/>
+      <c r="AO30" s="158"/>
+      <c r="AP30" s="158"/>
       <c r="AQ30" s="89"/>
-      <c r="AR30" s="169"/>
-      <c r="AS30" s="169"/>
-      <c r="AT30" s="169"/>
-      <c r="AU30" s="169"/>
-      <c r="AV30" s="169"/>
-      <c r="AW30" s="169"/>
-      <c r="AX30" s="169"/>
-      <c r="AY30" s="169"/>
-      <c r="AZ30" s="169"/>
-      <c r="BA30" s="170"/>
-      <c r="BB30" s="171"/>
-      <c r="BC30" s="169"/>
-      <c r="BD30" s="169"/>
-      <c r="BE30" s="169"/>
-      <c r="BF30" s="169"/>
-      <c r="BG30" s="169"/>
-      <c r="BH30" s="169"/>
-      <c r="BI30" s="169"/>
-      <c r="BJ30" s="169"/>
-      <c r="BK30" s="169"/>
-      <c r="BL30" s="169"/>
-      <c r="BM30" s="169"/>
-      <c r="BN30" s="169"/>
-      <c r="BO30" s="169"/>
-      <c r="BP30" s="170"/>
-      <c r="BQ30" s="150"/>
+      <c r="AR30" s="170"/>
+      <c r="AS30" s="170"/>
+      <c r="AT30" s="170"/>
+      <c r="AU30" s="170"/>
+      <c r="AV30" s="170"/>
+      <c r="AW30" s="170"/>
+      <c r="AX30" s="170"/>
+      <c r="AY30" s="170"/>
+      <c r="AZ30" s="170"/>
+      <c r="BA30" s="171"/>
+      <c r="BB30" s="172"/>
+      <c r="BC30" s="170"/>
+      <c r="BD30" s="170"/>
+      <c r="BE30" s="170"/>
+      <c r="BF30" s="170"/>
+      <c r="BG30" s="170"/>
+      <c r="BH30" s="170"/>
+      <c r="BI30" s="170"/>
+      <c r="BJ30" s="170"/>
+      <c r="BK30" s="170"/>
+      <c r="BL30" s="170"/>
+      <c r="BM30" s="170"/>
+      <c r="BN30" s="170"/>
+      <c r="BO30" s="170"/>
+      <c r="BP30" s="171"/>
+      <c r="BQ30" s="151"/>
       <c r="BR30" s="30"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="30"/>
-      <c r="B31" s="133"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="135" t="s">
+      <c r="D31" s="135"/>
+      <c r="G31" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="136"/>
+      <c r="H31" s="137"/>
       <c r="I31" s="107"/>
       <c r="J31" s="107"/>
       <c r="K31" s="107"/>
@@ -4738,7 +4743,7 @@
       <c r="U31" s="107"/>
       <c r="V31" s="107"/>
       <c r="W31" s="96"/>
-      <c r="X31" s="182" t="s">
+      <c r="X31" s="183" t="s">
         <v>70</v>
       </c>
       <c r="Y31" s="120"/>
@@ -4757,48 +4762,46 @@
       <c r="AL31" s="107"/>
       <c r="AM31" s="107"/>
       <c r="AN31" s="107"/>
-      <c r="AO31" s="157"/>
-      <c r="AP31" s="157"/>
+      <c r="AO31" s="158"/>
+      <c r="AP31" s="158"/>
       <c r="AQ31" s="89"/>
-      <c r="AR31" s="169"/>
-      <c r="AS31" s="169"/>
-      <c r="AT31" s="169"/>
-      <c r="AU31" s="169"/>
-      <c r="AV31" s="169"/>
-      <c r="AW31" s="169"/>
-      <c r="AX31" s="169"/>
-      <c r="AY31" s="169"/>
-      <c r="AZ31" s="169"/>
-      <c r="BA31" s="170"/>
-      <c r="BB31" s="171"/>
-      <c r="BC31" s="169"/>
-      <c r="BD31" s="169"/>
-      <c r="BE31" s="169"/>
-      <c r="BF31" s="169"/>
-      <c r="BG31" s="169"/>
-      <c r="BH31" s="169"/>
-      <c r="BI31" s="169"/>
-      <c r="BJ31" s="169"/>
-      <c r="BK31" s="169"/>
-      <c r="BL31" s="169"/>
-      <c r="BM31" s="169"/>
-      <c r="BN31" s="169"/>
-      <c r="BO31" s="169"/>
-      <c r="BP31" s="170"/>
-      <c r="BQ31" s="150"/>
+      <c r="AR31" s="170"/>
+      <c r="AS31" s="170"/>
+      <c r="AT31" s="170"/>
+      <c r="AU31" s="170"/>
+      <c r="AV31" s="170"/>
+      <c r="AW31" s="170"/>
+      <c r="AX31" s="170"/>
+      <c r="AY31" s="170"/>
+      <c r="AZ31" s="170"/>
+      <c r="BA31" s="171"/>
+      <c r="BB31" s="172"/>
+      <c r="BC31" s="170"/>
+      <c r="BD31" s="170"/>
+      <c r="BE31" s="170"/>
+      <c r="BF31" s="170"/>
+      <c r="BG31" s="170"/>
+      <c r="BH31" s="170"/>
+      <c r="BI31" s="170"/>
+      <c r="BJ31" s="170"/>
+      <c r="BK31" s="170"/>
+      <c r="BL31" s="170"/>
+      <c r="BM31" s="170"/>
+      <c r="BN31" s="170"/>
+      <c r="BO31" s="170"/>
+      <c r="BP31" s="171"/>
+      <c r="BQ31" s="151"/>
       <c r="BR31" s="30"/>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="30"/>
-      <c r="B32" s="133"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="61"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="135" t="s">
+      <c r="D32" s="135"/>
+      <c r="G32" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="136"/>
+      <c r="H32" s="137"/>
       <c r="I32" s="107"/>
       <c r="J32" s="107"/>
       <c r="K32" s="107"/>
@@ -4814,7 +4817,7 @@
       <c r="U32" s="107"/>
       <c r="V32" s="107"/>
       <c r="W32" s="96"/>
-      <c r="X32" s="182" t="s">
+      <c r="X32" s="183" t="s">
         <v>72</v>
       </c>
       <c r="Y32" s="120"/>
@@ -4833,48 +4836,46 @@
       <c r="AL32" s="107"/>
       <c r="AM32" s="107"/>
       <c r="AN32" s="107"/>
-      <c r="AO32" s="157"/>
-      <c r="AP32" s="157"/>
+      <c r="AO32" s="158"/>
+      <c r="AP32" s="158"/>
       <c r="AQ32" s="89"/>
-      <c r="AR32" s="169"/>
-      <c r="AS32" s="169"/>
-      <c r="AT32" s="169"/>
-      <c r="AU32" s="169"/>
-      <c r="AV32" s="169"/>
-      <c r="AW32" s="169"/>
-      <c r="AX32" s="169"/>
-      <c r="AY32" s="169"/>
-      <c r="AZ32" s="169"/>
-      <c r="BA32" s="170"/>
-      <c r="BB32" s="171"/>
-      <c r="BC32" s="169"/>
-      <c r="BD32" s="169"/>
-      <c r="BE32" s="169"/>
-      <c r="BF32" s="169"/>
-      <c r="BG32" s="169"/>
-      <c r="BH32" s="169"/>
-      <c r="BI32" s="169"/>
-      <c r="BJ32" s="169"/>
-      <c r="BK32" s="169"/>
-      <c r="BL32" s="169"/>
-      <c r="BM32" s="169"/>
-      <c r="BN32" s="169"/>
-      <c r="BO32" s="169"/>
-      <c r="BP32" s="170"/>
-      <c r="BQ32" s="150"/>
+      <c r="AR32" s="170"/>
+      <c r="AS32" s="170"/>
+      <c r="AT32" s="170"/>
+      <c r="AU32" s="170"/>
+      <c r="AV32" s="170"/>
+      <c r="AW32" s="170"/>
+      <c r="AX32" s="170"/>
+      <c r="AY32" s="170"/>
+      <c r="AZ32" s="170"/>
+      <c r="BA32" s="171"/>
+      <c r="BB32" s="172"/>
+      <c r="BC32" s="170"/>
+      <c r="BD32" s="170"/>
+      <c r="BE32" s="170"/>
+      <c r="BF32" s="170"/>
+      <c r="BG32" s="170"/>
+      <c r="BH32" s="170"/>
+      <c r="BI32" s="170"/>
+      <c r="BJ32" s="170"/>
+      <c r="BK32" s="170"/>
+      <c r="BL32" s="170"/>
+      <c r="BM32" s="170"/>
+      <c r="BN32" s="170"/>
+      <c r="BO32" s="170"/>
+      <c r="BP32" s="171"/>
+      <c r="BQ32" s="151"/>
       <c r="BR32" s="30"/>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="30"/>
-      <c r="B33" s="133"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="135" t="s">
+      <c r="D33" s="135"/>
+      <c r="G33" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="136"/>
+      <c r="H33" s="137"/>
       <c r="I33" s="107"/>
       <c r="J33" s="107"/>
       <c r="K33" s="107"/>
@@ -4890,11 +4891,11 @@
       <c r="U33" s="107"/>
       <c r="V33" s="107"/>
       <c r="W33" s="96"/>
-      <c r="X33" s="164"/>
-      <c r="Y33" s="183" t="s">
+      <c r="X33" s="165"/>
+      <c r="Y33" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="Z33" s="184"/>
+      <c r="Z33" s="185"/>
       <c r="AA33" s="107"/>
       <c r="AB33" s="107"/>
       <c r="AC33" s="107"/>
@@ -4909,48 +4910,46 @@
       <c r="AL33" s="107"/>
       <c r="AM33" s="107"/>
       <c r="AN33" s="107"/>
-      <c r="AO33" s="157"/>
-      <c r="AP33" s="157"/>
+      <c r="AO33" s="158"/>
+      <c r="AP33" s="158"/>
       <c r="AQ33" s="89"/>
-      <c r="AR33" s="169"/>
-      <c r="AS33" s="169"/>
-      <c r="AT33" s="169"/>
-      <c r="AU33" s="169"/>
-      <c r="AV33" s="169"/>
-      <c r="AW33" s="169"/>
-      <c r="AX33" s="169"/>
-      <c r="AY33" s="169"/>
-      <c r="AZ33" s="169"/>
-      <c r="BA33" s="170"/>
-      <c r="BB33" s="171"/>
-      <c r="BC33" s="169"/>
-      <c r="BD33" s="169"/>
-      <c r="BE33" s="169"/>
-      <c r="BF33" s="169"/>
-      <c r="BG33" s="169"/>
-      <c r="BH33" s="169"/>
-      <c r="BI33" s="169"/>
-      <c r="BJ33" s="169"/>
-      <c r="BK33" s="169"/>
-      <c r="BL33" s="169"/>
-      <c r="BM33" s="169"/>
-      <c r="BN33" s="169"/>
-      <c r="BO33" s="169"/>
-      <c r="BP33" s="170"/>
-      <c r="BQ33" s="150"/>
+      <c r="AR33" s="170"/>
+      <c r="AS33" s="170"/>
+      <c r="AT33" s="170"/>
+      <c r="AU33" s="170"/>
+      <c r="AV33" s="170"/>
+      <c r="AW33" s="170"/>
+      <c r="AX33" s="170"/>
+      <c r="AY33" s="170"/>
+      <c r="AZ33" s="170"/>
+      <c r="BA33" s="171"/>
+      <c r="BB33" s="172"/>
+      <c r="BC33" s="170"/>
+      <c r="BD33" s="170"/>
+      <c r="BE33" s="170"/>
+      <c r="BF33" s="170"/>
+      <c r="BG33" s="170"/>
+      <c r="BH33" s="170"/>
+      <c r="BI33" s="170"/>
+      <c r="BJ33" s="170"/>
+      <c r="BK33" s="170"/>
+      <c r="BL33" s="170"/>
+      <c r="BM33" s="170"/>
+      <c r="BN33" s="170"/>
+      <c r="BO33" s="170"/>
+      <c r="BP33" s="171"/>
+      <c r="BQ33" s="151"/>
       <c r="BR33" s="30"/>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="30"/>
-      <c r="B34" s="133"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="61"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="135" t="s">
+      <c r="D34" s="135"/>
+      <c r="G34" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="136"/>
+      <c r="H34" s="137"/>
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
       <c r="K34" s="107"/>
@@ -4966,9 +4965,9 @@
       <c r="U34" s="107"/>
       <c r="V34" s="107"/>
       <c r="W34" s="96"/>
-      <c r="X34" s="164"/>
-      <c r="Y34" s="185"/>
-      <c r="Z34" s="186" t="s">
+      <c r="X34" s="165"/>
+      <c r="Y34" s="186"/>
+      <c r="Z34" s="187" t="s">
         <v>76</v>
       </c>
       <c r="AA34" s="107"/>
@@ -4985,48 +4984,46 @@
       <c r="AL34" s="107"/>
       <c r="AM34" s="107"/>
       <c r="AN34" s="107"/>
-      <c r="AO34" s="157"/>
-      <c r="AP34" s="157"/>
+      <c r="AO34" s="158"/>
+      <c r="AP34" s="158"/>
       <c r="AQ34" s="89"/>
-      <c r="AR34" s="169"/>
-      <c r="AS34" s="169"/>
-      <c r="AT34" s="169"/>
-      <c r="AU34" s="169"/>
-      <c r="AV34" s="169"/>
-      <c r="AW34" s="169"/>
-      <c r="AX34" s="169"/>
-      <c r="AY34" s="169"/>
-      <c r="AZ34" s="169"/>
-      <c r="BA34" s="170"/>
-      <c r="BB34" s="171"/>
-      <c r="BC34" s="169"/>
-      <c r="BD34" s="169"/>
-      <c r="BE34" s="169"/>
-      <c r="BF34" s="169"/>
-      <c r="BG34" s="169"/>
-      <c r="BH34" s="169"/>
-      <c r="BI34" s="169"/>
-      <c r="BJ34" s="169"/>
-      <c r="BK34" s="169"/>
-      <c r="BL34" s="169"/>
-      <c r="BM34" s="169"/>
-      <c r="BN34" s="169"/>
-      <c r="BO34" s="169"/>
-      <c r="BP34" s="170"/>
-      <c r="BQ34" s="150"/>
+      <c r="AR34" s="170"/>
+      <c r="AS34" s="170"/>
+      <c r="AT34" s="170"/>
+      <c r="AU34" s="170"/>
+      <c r="AV34" s="170"/>
+      <c r="AW34" s="170"/>
+      <c r="AX34" s="170"/>
+      <c r="AY34" s="170"/>
+      <c r="AZ34" s="170"/>
+      <c r="BA34" s="171"/>
+      <c r="BB34" s="172"/>
+      <c r="BC34" s="170"/>
+      <c r="BD34" s="170"/>
+      <c r="BE34" s="170"/>
+      <c r="BF34" s="170"/>
+      <c r="BG34" s="170"/>
+      <c r="BH34" s="170"/>
+      <c r="BI34" s="170"/>
+      <c r="BJ34" s="170"/>
+      <c r="BK34" s="170"/>
+      <c r="BL34" s="170"/>
+      <c r="BM34" s="170"/>
+      <c r="BN34" s="170"/>
+      <c r="BO34" s="170"/>
+      <c r="BP34" s="171"/>
+      <c r="BQ34" s="151"/>
       <c r="BR34" s="30"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="30"/>
-      <c r="B35" s="133"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="61"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135" t="s">
+      <c r="D35" s="135"/>
+      <c r="G35" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="136"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="107"/>
       <c r="J35" s="107"/>
       <c r="K35" s="107"/>
@@ -5042,9 +5039,9 @@
       <c r="U35" s="107"/>
       <c r="V35" s="107"/>
       <c r="W35" s="96"/>
-      <c r="X35" s="164"/>
+      <c r="X35" s="165"/>
       <c r="Y35" s="107"/>
-      <c r="Z35" s="161" t="s">
+      <c r="Z35" s="162" t="s">
         <v>74</v>
       </c>
       <c r="AA35" s="120"/>
@@ -5061,48 +5058,46 @@
       <c r="AL35" s="107"/>
       <c r="AM35" s="107"/>
       <c r="AN35" s="107"/>
-      <c r="AO35" s="157"/>
-      <c r="AP35" s="157"/>
+      <c r="AO35" s="158"/>
+      <c r="AP35" s="158"/>
       <c r="AQ35" s="89"/>
-      <c r="AR35" s="169"/>
-      <c r="AS35" s="169"/>
-      <c r="AT35" s="169"/>
-      <c r="AU35" s="169"/>
-      <c r="AV35" s="169"/>
-      <c r="AW35" s="169"/>
-      <c r="AX35" s="169"/>
-      <c r="AY35" s="169"/>
-      <c r="AZ35" s="169"/>
-      <c r="BA35" s="170"/>
-      <c r="BB35" s="171"/>
-      <c r="BC35" s="169"/>
-      <c r="BD35" s="169"/>
-      <c r="BE35" s="169"/>
-      <c r="BF35" s="169"/>
-      <c r="BG35" s="169"/>
-      <c r="BH35" s="169"/>
-      <c r="BI35" s="169"/>
-      <c r="BJ35" s="169"/>
-      <c r="BK35" s="169"/>
-      <c r="BL35" s="169"/>
-      <c r="BM35" s="169"/>
-      <c r="BN35" s="169"/>
-      <c r="BO35" s="169"/>
-      <c r="BP35" s="170"/>
-      <c r="BQ35" s="150"/>
+      <c r="AR35" s="170"/>
+      <c r="AS35" s="170"/>
+      <c r="AT35" s="170"/>
+      <c r="AU35" s="170"/>
+      <c r="AV35" s="170"/>
+      <c r="AW35" s="170"/>
+      <c r="AX35" s="170"/>
+      <c r="AY35" s="170"/>
+      <c r="AZ35" s="170"/>
+      <c r="BA35" s="171"/>
+      <c r="BB35" s="172"/>
+      <c r="BC35" s="170"/>
+      <c r="BD35" s="170"/>
+      <c r="BE35" s="170"/>
+      <c r="BF35" s="170"/>
+      <c r="BG35" s="170"/>
+      <c r="BH35" s="170"/>
+      <c r="BI35" s="170"/>
+      <c r="BJ35" s="170"/>
+      <c r="BK35" s="170"/>
+      <c r="BL35" s="170"/>
+      <c r="BM35" s="170"/>
+      <c r="BN35" s="170"/>
+      <c r="BO35" s="170"/>
+      <c r="BP35" s="171"/>
+      <c r="BQ35" s="151"/>
       <c r="BR35" s="30"/>
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="30"/>
-      <c r="B36" s="133"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="61"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="135" t="s">
+      <c r="D36" s="135"/>
+      <c r="G36" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="136"/>
+      <c r="H36" s="137"/>
       <c r="I36" s="107"/>
       <c r="J36" s="107"/>
       <c r="K36" s="107"/>
@@ -5118,10 +5113,10 @@
       <c r="U36" s="107"/>
       <c r="V36" s="107"/>
       <c r="W36" s="96"/>
-      <c r="X36" s="164"/>
+      <c r="X36" s="165"/>
       <c r="Y36" s="107"/>
       <c r="Z36" s="107"/>
-      <c r="AA36" s="153" t="s">
+      <c r="AA36" s="154" t="s">
         <v>79</v>
       </c>
       <c r="AB36" s="120"/>
@@ -5137,48 +5132,46 @@
       <c r="AL36" s="107"/>
       <c r="AM36" s="107"/>
       <c r="AN36" s="107"/>
-      <c r="AO36" s="157"/>
-      <c r="AP36" s="157"/>
+      <c r="AO36" s="158"/>
+      <c r="AP36" s="158"/>
       <c r="AQ36" s="89"/>
-      <c r="AR36" s="169"/>
-      <c r="AS36" s="169"/>
-      <c r="AT36" s="169"/>
-      <c r="AU36" s="169"/>
-      <c r="AV36" s="169"/>
-      <c r="AW36" s="169"/>
-      <c r="AX36" s="169"/>
-      <c r="AY36" s="169"/>
-      <c r="AZ36" s="169"/>
-      <c r="BA36" s="170"/>
-      <c r="BB36" s="171"/>
-      <c r="BC36" s="169"/>
-      <c r="BD36" s="169"/>
-      <c r="BE36" s="169"/>
-      <c r="BF36" s="169"/>
-      <c r="BG36" s="169"/>
-      <c r="BH36" s="169"/>
-      <c r="BI36" s="169"/>
-      <c r="BJ36" s="169"/>
-      <c r="BK36" s="169"/>
-      <c r="BL36" s="169"/>
-      <c r="BM36" s="169"/>
-      <c r="BN36" s="169"/>
-      <c r="BO36" s="169"/>
-      <c r="BP36" s="170"/>
-      <c r="BQ36" s="150"/>
+      <c r="AR36" s="170"/>
+      <c r="AS36" s="170"/>
+      <c r="AT36" s="170"/>
+      <c r="AU36" s="170"/>
+      <c r="AV36" s="170"/>
+      <c r="AW36" s="170"/>
+      <c r="AX36" s="170"/>
+      <c r="AY36" s="170"/>
+      <c r="AZ36" s="170"/>
+      <c r="BA36" s="171"/>
+      <c r="BB36" s="172"/>
+      <c r="BC36" s="170"/>
+      <c r="BD36" s="170"/>
+      <c r="BE36" s="170"/>
+      <c r="BF36" s="170"/>
+      <c r="BG36" s="170"/>
+      <c r="BH36" s="170"/>
+      <c r="BI36" s="170"/>
+      <c r="BJ36" s="170"/>
+      <c r="BK36" s="170"/>
+      <c r="BL36" s="170"/>
+      <c r="BM36" s="170"/>
+      <c r="BN36" s="170"/>
+      <c r="BO36" s="170"/>
+      <c r="BP36" s="171"/>
+      <c r="BQ36" s="151"/>
       <c r="BR36" s="30"/>
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="30"/>
-      <c r="B37" s="133"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="61"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="135" t="s">
+      <c r="D37" s="135"/>
+      <c r="G37" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="136"/>
+      <c r="H37" s="137"/>
       <c r="I37" s="107"/>
       <c r="J37" s="107"/>
       <c r="K37" s="107"/>
@@ -5194,11 +5187,11 @@
       <c r="U37" s="107"/>
       <c r="V37" s="107"/>
       <c r="W37" s="96"/>
-      <c r="X37" s="164"/>
+      <c r="X37" s="165"/>
       <c r="Y37" s="107"/>
       <c r="Z37" s="107"/>
       <c r="AA37" s="107"/>
-      <c r="AB37" s="187" t="s">
+      <c r="AB37" s="188" t="s">
         <v>81</v>
       </c>
       <c r="AC37" s="120"/>
@@ -5213,46 +5206,46 @@
       <c r="AL37" s="107"/>
       <c r="AM37" s="107"/>
       <c r="AN37" s="107"/>
-      <c r="AO37" s="157"/>
-      <c r="AP37" s="157"/>
+      <c r="AO37" s="158"/>
+      <c r="AP37" s="158"/>
       <c r="AQ37" s="89"/>
-      <c r="AR37" s="169"/>
-      <c r="AS37" s="169"/>
-      <c r="AT37" s="169"/>
-      <c r="AU37" s="169"/>
-      <c r="AV37" s="169"/>
-      <c r="AW37" s="169"/>
-      <c r="AX37" s="169"/>
-      <c r="AY37" s="169"/>
-      <c r="AZ37" s="169"/>
-      <c r="BA37" s="170"/>
-      <c r="BB37" s="171"/>
-      <c r="BC37" s="169"/>
-      <c r="BD37" s="169"/>
-      <c r="BE37" s="169"/>
-      <c r="BF37" s="169"/>
-      <c r="BG37" s="169"/>
-      <c r="BH37" s="169"/>
-      <c r="BI37" s="169"/>
-      <c r="BJ37" s="169"/>
-      <c r="BK37" s="169"/>
-      <c r="BL37" s="169"/>
-      <c r="BM37" s="169"/>
-      <c r="BN37" s="169"/>
-      <c r="BO37" s="169"/>
-      <c r="BP37" s="170"/>
-      <c r="BQ37" s="150"/>
+      <c r="AR37" s="170"/>
+      <c r="AS37" s="170"/>
+      <c r="AT37" s="170"/>
+      <c r="AU37" s="170"/>
+      <c r="AV37" s="170"/>
+      <c r="AW37" s="170"/>
+      <c r="AX37" s="170"/>
+      <c r="AY37" s="170"/>
+      <c r="AZ37" s="170"/>
+      <c r="BA37" s="171"/>
+      <c r="BB37" s="172"/>
+      <c r="BC37" s="170"/>
+      <c r="BD37" s="170"/>
+      <c r="BE37" s="170"/>
+      <c r="BF37" s="170"/>
+      <c r="BG37" s="170"/>
+      <c r="BH37" s="170"/>
+      <c r="BI37" s="170"/>
+      <c r="BJ37" s="170"/>
+      <c r="BK37" s="170"/>
+      <c r="BL37" s="170"/>
+      <c r="BM37" s="170"/>
+      <c r="BN37" s="170"/>
+      <c r="BO37" s="170"/>
+      <c r="BP37" s="171"/>
+      <c r="BQ37" s="151"/>
       <c r="BR37" s="30"/>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="30"/>
-      <c r="B38" s="133"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="61"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="64"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="124"/>
       <c r="I38" s="107"/>
       <c r="J38" s="107"/>
       <c r="K38" s="107"/>
@@ -5268,7 +5261,7 @@
       <c r="U38" s="107"/>
       <c r="V38" s="107"/>
       <c r="W38" s="96"/>
-      <c r="X38" s="164"/>
+      <c r="X38" s="165"/>
       <c r="Y38" s="107"/>
       <c r="Z38" s="107"/>
       <c r="AA38" s="107"/>
@@ -5285,35 +5278,35 @@
       <c r="AL38" s="107"/>
       <c r="AM38" s="107"/>
       <c r="AN38" s="107"/>
-      <c r="AO38" s="157"/>
-      <c r="AP38" s="157"/>
+      <c r="AO38" s="158"/>
+      <c r="AP38" s="158"/>
       <c r="AQ38" s="89"/>
-      <c r="AR38" s="169"/>
-      <c r="AS38" s="169"/>
-      <c r="AT38" s="169"/>
-      <c r="AU38" s="169"/>
-      <c r="AV38" s="169"/>
-      <c r="AW38" s="169"/>
-      <c r="AX38" s="169"/>
-      <c r="AY38" s="169"/>
-      <c r="AZ38" s="169"/>
-      <c r="BA38" s="170"/>
-      <c r="BB38" s="171"/>
-      <c r="BC38" s="169"/>
-      <c r="BD38" s="169"/>
-      <c r="BE38" s="169"/>
-      <c r="BF38" s="169"/>
-      <c r="BG38" s="169"/>
-      <c r="BH38" s="169"/>
-      <c r="BI38" s="169"/>
-      <c r="BJ38" s="169"/>
-      <c r="BK38" s="169"/>
-      <c r="BL38" s="169"/>
-      <c r="BM38" s="169"/>
-      <c r="BN38" s="169"/>
-      <c r="BO38" s="169"/>
-      <c r="BP38" s="170"/>
-      <c r="BQ38" s="150"/>
+      <c r="AR38" s="170"/>
+      <c r="AS38" s="170"/>
+      <c r="AT38" s="170"/>
+      <c r="AU38" s="170"/>
+      <c r="AV38" s="170"/>
+      <c r="AW38" s="170"/>
+      <c r="AX38" s="170"/>
+      <c r="AY38" s="170"/>
+      <c r="AZ38" s="170"/>
+      <c r="BA38" s="171"/>
+      <c r="BB38" s="172"/>
+      <c r="BC38" s="170"/>
+      <c r="BD38" s="170"/>
+      <c r="BE38" s="170"/>
+      <c r="BF38" s="170"/>
+      <c r="BG38" s="170"/>
+      <c r="BH38" s="170"/>
+      <c r="BI38" s="170"/>
+      <c r="BJ38" s="170"/>
+      <c r="BK38" s="170"/>
+      <c r="BL38" s="170"/>
+      <c r="BM38" s="170"/>
+      <c r="BN38" s="170"/>
+      <c r="BO38" s="170"/>
+      <c r="BP38" s="171"/>
+      <c r="BQ38" s="151"/>
       <c r="BR38" s="30"/>
     </row>
     <row r="39" ht="21.0" customHeight="1">
@@ -5325,7 +5318,7 @@
       <c r="D39" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="141"/>
+      <c r="F39" s="142"/>
       <c r="G39" s="191" t="s">
         <v>83</v>
       </c>
@@ -5395,432 +5388,447 @@
       <c r="BQ39" s="30"/>
       <c r="BR39" s="30"/>
     </row>
-    <row r="40" ht="21.0" customHeight="1">
+    <row r="40" ht="41.25" customHeight="1">
       <c r="A40" s="30"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="204" t="s">
+      <c r="F40" s="142"/>
+      <c r="G40" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="205"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="208"/>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="208"/>
-      <c r="P40" s="208"/>
-      <c r="Q40" s="208"/>
-      <c r="R40" s="208"/>
-      <c r="S40" s="208"/>
-      <c r="T40" s="209" t="s">
+      <c r="H40" s="64"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="195" t="s">
         <v>86</v>
       </c>
-      <c r="Y40" s="141"/>
-      <c r="Z40" s="208"/>
-      <c r="AA40" s="208"/>
-      <c r="AB40" s="208"/>
-      <c r="AC40" s="208"/>
-      <c r="AD40" s="208"/>
-      <c r="AE40" s="208"/>
-      <c r="AF40" s="208"/>
-      <c r="AG40" s="208"/>
-      <c r="AH40" s="208"/>
-      <c r="AI40" s="208"/>
-      <c r="AJ40" s="208"/>
-      <c r="AK40" s="208"/>
-      <c r="AL40" s="210"/>
-      <c r="AM40" s="211"/>
-      <c r="AN40" s="208"/>
-      <c r="AO40" s="212"/>
-      <c r="AP40" s="213"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="96"/>
+      <c r="X40" s="165"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="107"/>
+      <c r="AK40" s="107"/>
+      <c r="AL40" s="107"/>
+      <c r="AM40" s="107"/>
+      <c r="AN40" s="107"/>
+      <c r="AO40" s="158"/>
+      <c r="AP40" s="158"/>
       <c r="AQ40" s="89"/>
-      <c r="AR40" s="214"/>
-      <c r="AS40" s="214"/>
-      <c r="AT40" s="214"/>
-      <c r="AU40" s="214"/>
-      <c r="AV40" s="214"/>
-      <c r="AW40" s="214"/>
-      <c r="AX40" s="214"/>
-      <c r="AY40" s="214"/>
-      <c r="AZ40" s="214"/>
-      <c r="BA40" s="215"/>
-      <c r="BB40" s="216"/>
-      <c r="BC40" s="214"/>
-      <c r="BD40" s="214"/>
-      <c r="BE40" s="214"/>
-      <c r="BF40" s="214"/>
-      <c r="BG40" s="214"/>
-      <c r="BH40" s="214"/>
-      <c r="BI40" s="214"/>
-      <c r="BJ40" s="214"/>
-      <c r="BK40" s="214"/>
-      <c r="BL40" s="214"/>
-      <c r="BM40" s="214"/>
-      <c r="BN40" s="214"/>
-      <c r="BO40" s="214"/>
-      <c r="BP40" s="215"/>
+      <c r="AR40" s="199"/>
+      <c r="AS40" s="199"/>
+      <c r="AT40" s="199"/>
+      <c r="AU40" s="199"/>
+      <c r="AV40" s="199"/>
+      <c r="AW40" s="199"/>
+      <c r="AX40" s="199"/>
+      <c r="AY40" s="199"/>
+      <c r="AZ40" s="199"/>
+      <c r="BA40" s="200"/>
+      <c r="BB40" s="201"/>
+      <c r="BC40" s="199"/>
+      <c r="BD40" s="199"/>
+      <c r="BE40" s="199"/>
+      <c r="BF40" s="199"/>
+      <c r="BG40" s="199"/>
+      <c r="BH40" s="199"/>
+      <c r="BI40" s="199"/>
+      <c r="BJ40" s="199"/>
+      <c r="BK40" s="199"/>
+      <c r="BL40" s="199"/>
+      <c r="BM40" s="199"/>
+      <c r="BN40" s="199"/>
+      <c r="BO40" s="199"/>
+      <c r="BP40" s="200"/>
       <c r="BQ40" s="30"/>
       <c r="BR40" s="30"/>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="30"/>
-      <c r="B41" s="217">
-        <v>4.0</v>
-      </c>
       <c r="C41" s="61"/>
-      <c r="D41" s="218"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="218" t="s">
+      <c r="F41" s="142"/>
+      <c r="G41" s="191" t="s">
         <v>87</v>
       </c>
       <c r="H41" s="64"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="220"/>
-      <c r="K41" s="221"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="221"/>
-      <c r="O41" s="221"/>
-      <c r="P41" s="221"/>
-      <c r="Q41" s="221"/>
-      <c r="R41" s="221"/>
-      <c r="S41" s="221"/>
-      <c r="T41" s="223"/>
-      <c r="U41" s="97"/>
-      <c r="V41" s="97"/>
-      <c r="W41" s="224"/>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="225"/>
-      <c r="Z41" s="221"/>
-      <c r="AA41" s="226" t="s">
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="AB41" s="227"/>
-      <c r="AC41" s="227"/>
-      <c r="AD41" s="227"/>
-      <c r="AE41" s="227"/>
-      <c r="AF41" s="227"/>
-      <c r="AG41" s="227"/>
-      <c r="AH41" s="227"/>
-      <c r="AI41" s="227"/>
-      <c r="AJ41" s="227"/>
-      <c r="AK41" s="227"/>
-      <c r="AL41" s="227"/>
-      <c r="AM41" s="228"/>
-      <c r="AN41" s="221"/>
-      <c r="AO41" s="229"/>
-      <c r="AP41" s="230"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="165"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="107"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="107"/>
+      <c r="AK41" s="107"/>
+      <c r="AL41" s="107"/>
+      <c r="AM41" s="107"/>
+      <c r="AN41" s="107"/>
+      <c r="AO41" s="158"/>
+      <c r="AP41" s="158"/>
       <c r="AQ41" s="89"/>
-      <c r="AR41" s="214"/>
-      <c r="AS41" s="214"/>
-      <c r="AT41" s="214"/>
-      <c r="AU41" s="214"/>
-      <c r="AV41" s="214"/>
-      <c r="AW41" s="214"/>
-      <c r="AX41" s="214"/>
-      <c r="AY41" s="214"/>
-      <c r="AZ41" s="214"/>
-      <c r="BA41" s="215"/>
-      <c r="BB41" s="216"/>
-      <c r="BC41" s="214"/>
-      <c r="BD41" s="214"/>
-      <c r="BE41" s="214"/>
-      <c r="BF41" s="214"/>
-      <c r="BG41" s="214"/>
-      <c r="BH41" s="214"/>
-      <c r="BI41" s="214"/>
-      <c r="BJ41" s="214"/>
-      <c r="BK41" s="214"/>
-      <c r="BL41" s="214"/>
-      <c r="BM41" s="214"/>
-      <c r="BN41" s="214"/>
-      <c r="BO41" s="214"/>
-      <c r="BP41" s="215"/>
+      <c r="AR41" s="199"/>
+      <c r="AS41" s="199"/>
+      <c r="AT41" s="199"/>
+      <c r="AU41" s="199"/>
+      <c r="AV41" s="199"/>
+      <c r="AW41" s="199"/>
+      <c r="AX41" s="199"/>
+      <c r="AY41" s="199"/>
+      <c r="AZ41" s="199"/>
+      <c r="BA41" s="200"/>
+      <c r="BB41" s="201"/>
+      <c r="BC41" s="199"/>
+      <c r="BD41" s="199"/>
+      <c r="BE41" s="199"/>
+      <c r="BF41" s="199"/>
+      <c r="BG41" s="199"/>
+      <c r="BH41" s="199"/>
+      <c r="BI41" s="199"/>
+      <c r="BJ41" s="199"/>
+      <c r="BK41" s="199"/>
+      <c r="BL41" s="199"/>
+      <c r="BM41" s="199"/>
+      <c r="BN41" s="199"/>
+      <c r="BO41" s="199"/>
+      <c r="BP41" s="200"/>
       <c r="BQ41" s="30"/>
       <c r="BR41" s="30"/>
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="30"/>
       <c r="C42" s="61"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="218" t="s">
+      <c r="F42" s="142"/>
+      <c r="G42" s="191" t="s">
         <v>89</v>
       </c>
       <c r="H42" s="64"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="221"/>
-      <c r="O42" s="221"/>
-      <c r="P42" s="220"/>
-      <c r="Q42" s="220"/>
-      <c r="R42" s="220"/>
-      <c r="S42" s="221"/>
-      <c r="T42" s="221"/>
-      <c r="U42" s="221"/>
-      <c r="V42" s="221"/>
-      <c r="W42" s="224"/>
-      <c r="X42" s="221"/>
-      <c r="Y42" s="221"/>
-      <c r="Z42" s="221"/>
-      <c r="AA42" s="221"/>
-      <c r="AB42" s="231"/>
-      <c r="AC42" s="227"/>
-      <c r="AD42" s="232"/>
-      <c r="AE42" s="220"/>
-      <c r="AF42" s="221"/>
-      <c r="AG42" s="221"/>
-      <c r="AH42" s="221"/>
-      <c r="AI42" s="221"/>
-      <c r="AJ42" s="221"/>
-      <c r="AK42" s="221"/>
-      <c r="AL42" s="233"/>
-      <c r="AM42" s="221"/>
-      <c r="AN42" s="221"/>
-      <c r="AO42" s="221"/>
-      <c r="AP42" s="221"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="195" t="s">
+        <v>90</v>
+      </c>
+      <c r="X42" s="120"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="107"/>
+      <c r="AK42" s="107"/>
+      <c r="AL42" s="107"/>
+      <c r="AM42" s="107"/>
+      <c r="AN42" s="107"/>
+      <c r="AO42" s="158"/>
+      <c r="AP42" s="158"/>
       <c r="AQ42" s="89"/>
-      <c r="AR42" s="234"/>
-      <c r="AS42" s="234"/>
-      <c r="AT42" s="234"/>
-      <c r="AU42" s="234"/>
-      <c r="AV42" s="234"/>
-      <c r="AW42" s="234"/>
-      <c r="AX42" s="234"/>
-      <c r="AY42" s="234"/>
-      <c r="AZ42" s="234"/>
-      <c r="BA42" s="235"/>
-      <c r="BB42" s="236"/>
-      <c r="BC42" s="234"/>
-      <c r="BD42" s="234"/>
-      <c r="BE42" s="234"/>
-      <c r="BF42" s="234"/>
-      <c r="BG42" s="234"/>
-      <c r="BH42" s="234"/>
-      <c r="BI42" s="234"/>
-      <c r="BJ42" s="234"/>
-      <c r="BK42" s="234"/>
-      <c r="BL42" s="234"/>
-      <c r="BM42" s="234"/>
-      <c r="BN42" s="234"/>
-      <c r="BO42" s="234"/>
-      <c r="BP42" s="235"/>
+      <c r="AR42" s="199"/>
+      <c r="AS42" s="199"/>
+      <c r="AT42" s="199"/>
+      <c r="AU42" s="199"/>
+      <c r="AV42" s="199"/>
+      <c r="AW42" s="199"/>
+      <c r="AX42" s="199"/>
+      <c r="AY42" s="199"/>
+      <c r="AZ42" s="199"/>
+      <c r="BA42" s="200"/>
+      <c r="BB42" s="201"/>
+      <c r="BC42" s="199"/>
+      <c r="BD42" s="199"/>
+      <c r="BE42" s="199"/>
+      <c r="BF42" s="199"/>
+      <c r="BG42" s="199"/>
+      <c r="BH42" s="199"/>
+      <c r="BI42" s="199"/>
+      <c r="BJ42" s="199"/>
+      <c r="BK42" s="199"/>
+      <c r="BL42" s="199"/>
+      <c r="BM42" s="199"/>
+      <c r="BN42" s="199"/>
+      <c r="BO42" s="199"/>
+      <c r="BP42" s="200"/>
       <c r="BQ42" s="30"/>
       <c r="BR42" s="30"/>
     </row>
-    <row r="43" ht="21.0" customHeight="1">
+    <row r="43" ht="29.25" customHeight="1">
       <c r="A43" s="30"/>
       <c r="C43" s="61"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="218" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="237"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="222"/>
-      <c r="N43" s="222"/>
-      <c r="O43" s="222"/>
-      <c r="P43" s="222"/>
-      <c r="Q43" s="222"/>
-      <c r="R43" s="222"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="222"/>
-      <c r="U43" s="222"/>
-      <c r="V43" s="222"/>
-      <c r="W43" s="224"/>
-      <c r="X43" s="238"/>
-      <c r="Y43" s="222"/>
-      <c r="Z43" s="222"/>
-      <c r="AA43" s="222"/>
-      <c r="AB43" s="222"/>
-      <c r="AC43" s="222"/>
-      <c r="AD43" s="222"/>
-      <c r="AE43" s="222"/>
-      <c r="AF43" s="222"/>
-      <c r="AG43" s="222"/>
-      <c r="AH43" s="222"/>
-      <c r="AI43" s="222"/>
-      <c r="AJ43" s="222"/>
-      <c r="AK43" s="222"/>
-      <c r="AL43" s="224"/>
-      <c r="AM43" s="238"/>
-      <c r="AN43" s="222"/>
-      <c r="AO43" s="239"/>
-      <c r="AP43" s="240"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="204" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="205"/>
+      <c r="I43" s="206"/>
+      <c r="J43" s="207"/>
+      <c r="K43" s="208"/>
+      <c r="L43" s="208"/>
+      <c r="M43" s="208"/>
+      <c r="N43" s="208"/>
+      <c r="O43" s="208"/>
+      <c r="P43" s="208"/>
+      <c r="Q43" s="208"/>
+      <c r="R43" s="208"/>
+      <c r="S43" s="208"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="209" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="208"/>
+      <c r="AB43" s="208"/>
+      <c r="AC43" s="208"/>
+      <c r="AD43" s="208"/>
+      <c r="AE43" s="208"/>
+      <c r="AF43" s="208"/>
+      <c r="AG43" s="208"/>
+      <c r="AH43" s="208"/>
+      <c r="AI43" s="208"/>
+      <c r="AJ43" s="208"/>
+      <c r="AK43" s="208"/>
+      <c r="AL43" s="210"/>
+      <c r="AM43" s="211"/>
+      <c r="AN43" s="208"/>
+      <c r="AO43" s="212"/>
+      <c r="AP43" s="213"/>
       <c r="AQ43" s="89"/>
-      <c r="AR43" s="241"/>
-      <c r="AS43" s="241"/>
-      <c r="AT43" s="241"/>
-      <c r="AU43" s="241"/>
-      <c r="AV43" s="241"/>
-      <c r="AW43" s="241"/>
-      <c r="AX43" s="241"/>
-      <c r="AY43" s="241"/>
-      <c r="AZ43" s="241"/>
-      <c r="BA43" s="242"/>
-      <c r="BB43" s="243"/>
-      <c r="BC43" s="241"/>
-      <c r="BD43" s="241"/>
-      <c r="BE43" s="241"/>
-      <c r="BF43" s="241"/>
-      <c r="BG43" s="241"/>
-      <c r="BH43" s="241"/>
-      <c r="BI43" s="241"/>
-      <c r="BJ43" s="241"/>
-      <c r="BK43" s="241"/>
-      <c r="BL43" s="241"/>
-      <c r="BM43" s="241"/>
-      <c r="BN43" s="241"/>
-      <c r="BO43" s="241"/>
-      <c r="BP43" s="242"/>
+      <c r="AR43" s="214"/>
+      <c r="AS43" s="214"/>
+      <c r="AT43" s="214"/>
+      <c r="AU43" s="214"/>
+      <c r="AV43" s="214"/>
+      <c r="AW43" s="214"/>
+      <c r="AX43" s="214"/>
+      <c r="AY43" s="214"/>
+      <c r="AZ43" s="214"/>
+      <c r="BA43" s="215"/>
+      <c r="BB43" s="216"/>
+      <c r="BC43" s="214"/>
+      <c r="BD43" s="214"/>
+      <c r="BE43" s="214"/>
+      <c r="BF43" s="214"/>
+      <c r="BG43" s="214"/>
+      <c r="BH43" s="214"/>
+      <c r="BI43" s="214"/>
+      <c r="BJ43" s="214"/>
+      <c r="BK43" s="214"/>
+      <c r="BL43" s="214"/>
+      <c r="BM43" s="214"/>
+      <c r="BN43" s="214"/>
+      <c r="BO43" s="214"/>
+      <c r="BP43" s="215"/>
       <c r="BQ43" s="30"/>
       <c r="BR43" s="30"/>
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="30"/>
+      <c r="B44" s="217">
+        <v>4.0</v>
+      </c>
       <c r="C44" s="61"/>
+      <c r="D44" s="218"/>
       <c r="F44" s="64"/>
       <c r="G44" s="218" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H44" s="64"/>
       <c r="I44" s="219"/>
-      <c r="J44" s="237"/>
-      <c r="K44" s="222"/>
+      <c r="J44" s="220"/>
+      <c r="K44" s="221"/>
       <c r="L44" s="222"/>
-      <c r="N44" s="222"/>
-      <c r="O44" s="222"/>
-      <c r="P44" s="222"/>
-      <c r="Q44" s="222"/>
-      <c r="R44" s="222"/>
-      <c r="S44" s="222"/>
-      <c r="T44" s="222"/>
-      <c r="U44" s="222"/>
-      <c r="V44" s="222"/>
+      <c r="M44" s="221"/>
+      <c r="N44" s="221"/>
+      <c r="O44" s="221"/>
+      <c r="P44" s="221"/>
+      <c r="Q44" s="221"/>
+      <c r="R44" s="221"/>
+      <c r="S44" s="221"/>
+      <c r="T44" s="223"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
       <c r="W44" s="224"/>
-      <c r="X44" s="238"/>
-      <c r="Y44" s="222"/>
-      <c r="Z44" s="222"/>
-      <c r="AA44" s="222"/>
-      <c r="AB44" s="222"/>
-      <c r="AC44" s="222"/>
-      <c r="AD44" s="222"/>
-      <c r="AE44" s="222"/>
-      <c r="AF44" s="222"/>
-      <c r="AG44" s="222"/>
-      <c r="AH44" s="222"/>
-      <c r="AI44" s="222"/>
-      <c r="AJ44" s="222"/>
-      <c r="AK44" s="222"/>
-      <c r="AL44" s="224"/>
-      <c r="AM44" s="238"/>
-      <c r="AN44" s="222"/>
-      <c r="AO44" s="239"/>
-      <c r="AP44" s="240"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="225"/>
+      <c r="Z44" s="221"/>
+      <c r="AA44" s="226" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB44" s="227"/>
+      <c r="AC44" s="227"/>
+      <c r="AD44" s="227"/>
+      <c r="AE44" s="227"/>
+      <c r="AF44" s="227"/>
+      <c r="AG44" s="227"/>
+      <c r="AH44" s="227"/>
+      <c r="AI44" s="227"/>
+      <c r="AJ44" s="227"/>
+      <c r="AK44" s="227"/>
+      <c r="AL44" s="227"/>
+      <c r="AM44" s="228"/>
+      <c r="AN44" s="221"/>
+      <c r="AO44" s="229"/>
+      <c r="AP44" s="230"/>
       <c r="AQ44" s="89"/>
-      <c r="AR44" s="241"/>
-      <c r="AS44" s="241"/>
-      <c r="AT44" s="241"/>
-      <c r="AU44" s="241"/>
-      <c r="AV44" s="241"/>
-      <c r="AW44" s="241"/>
-      <c r="AX44" s="241"/>
-      <c r="AY44" s="241"/>
-      <c r="AZ44" s="241"/>
-      <c r="BA44" s="242"/>
-      <c r="BB44" s="243"/>
-      <c r="BC44" s="241"/>
-      <c r="BD44" s="241"/>
-      <c r="BE44" s="241"/>
-      <c r="BF44" s="241"/>
-      <c r="BG44" s="241"/>
-      <c r="BH44" s="241"/>
-      <c r="BI44" s="241"/>
-      <c r="BJ44" s="241"/>
-      <c r="BK44" s="241"/>
-      <c r="BL44" s="241"/>
-      <c r="BM44" s="241"/>
-      <c r="BN44" s="241"/>
-      <c r="BO44" s="241"/>
-      <c r="BP44" s="242"/>
+      <c r="AR44" s="214"/>
+      <c r="AS44" s="214"/>
+      <c r="AT44" s="214"/>
+      <c r="AU44" s="214"/>
+      <c r="AV44" s="214"/>
+      <c r="AW44" s="214"/>
+      <c r="AX44" s="214"/>
+      <c r="AY44" s="214"/>
+      <c r="AZ44" s="214"/>
+      <c r="BA44" s="215"/>
+      <c r="BB44" s="216"/>
+      <c r="BC44" s="214"/>
+      <c r="BD44" s="214"/>
+      <c r="BE44" s="214"/>
+      <c r="BF44" s="214"/>
+      <c r="BG44" s="214"/>
+      <c r="BH44" s="214"/>
+      <c r="BI44" s="214"/>
+      <c r="BJ44" s="214"/>
+      <c r="BK44" s="214"/>
+      <c r="BL44" s="214"/>
+      <c r="BM44" s="214"/>
+      <c r="BN44" s="214"/>
+      <c r="BO44" s="214"/>
+      <c r="BP44" s="215"/>
       <c r="BQ44" s="30"/>
       <c r="BR44" s="30"/>
     </row>
-    <row r="45" ht="21.0" customHeight="1">
+    <row r="45" ht="25.5" customHeight="1">
       <c r="A45" s="30"/>
       <c r="C45" s="61"/>
       <c r="F45" s="64"/>
       <c r="G45" s="218" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H45" s="64"/>
       <c r="I45" s="219"/>
-      <c r="J45" s="237"/>
-      <c r="K45" s="222"/>
-      <c r="L45" s="222"/>
-      <c r="N45" s="222"/>
-      <c r="O45" s="222"/>
-      <c r="P45" s="222"/>
-      <c r="Q45" s="222"/>
-      <c r="R45" s="222"/>
-      <c r="S45" s="222"/>
-      <c r="T45" s="222"/>
-      <c r="U45" s="222"/>
-      <c r="V45" s="222"/>
+      <c r="J45" s="221"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="221"/>
+      <c r="O45" s="221"/>
+      <c r="P45" s="220"/>
+      <c r="Q45" s="220"/>
+      <c r="R45" s="220"/>
+      <c r="S45" s="221"/>
+      <c r="T45" s="221"/>
+      <c r="U45" s="221"/>
+      <c r="V45" s="221"/>
       <c r="W45" s="224"/>
-      <c r="X45" s="244"/>
-      <c r="Y45" s="222"/>
-      <c r="Z45" s="222"/>
-      <c r="AA45" s="222"/>
-      <c r="AB45" s="222"/>
-      <c r="AC45" s="222"/>
-      <c r="AD45" s="222"/>
-      <c r="AE45" s="222"/>
-      <c r="AF45" s="222"/>
-      <c r="AG45" s="222"/>
-      <c r="AH45" s="222"/>
-      <c r="AI45" s="222"/>
-      <c r="AJ45" s="222"/>
-      <c r="AK45" s="222"/>
-      <c r="AL45" s="224"/>
-      <c r="AM45" s="244"/>
-      <c r="AN45" s="222"/>
-      <c r="AO45" s="239"/>
-      <c r="AP45" s="245"/>
+      <c r="X45" s="221"/>
+      <c r="Y45" s="221"/>
+      <c r="Z45" s="221"/>
+      <c r="AA45" s="221"/>
+      <c r="AB45" s="226" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC45" s="227"/>
+      <c r="AD45" s="231"/>
+      <c r="AE45" s="220"/>
+      <c r="AF45" s="221"/>
+      <c r="AG45" s="221"/>
+      <c r="AH45" s="221"/>
+      <c r="AI45" s="221"/>
+      <c r="AJ45" s="221"/>
+      <c r="AK45" s="221"/>
+      <c r="AL45" s="232"/>
+      <c r="AM45" s="221"/>
+      <c r="AN45" s="221"/>
+      <c r="AO45" s="221"/>
+      <c r="AP45" s="221"/>
       <c r="AQ45" s="89"/>
-      <c r="AR45" s="199"/>
-      <c r="AS45" s="199"/>
-      <c r="AT45" s="199"/>
-      <c r="AU45" s="199"/>
-      <c r="AV45" s="199"/>
-      <c r="AW45" s="199"/>
-      <c r="AX45" s="199"/>
-      <c r="AY45" s="199"/>
-      <c r="AZ45" s="199"/>
-      <c r="BA45" s="200"/>
-      <c r="BB45" s="201"/>
-      <c r="BC45" s="199"/>
-      <c r="BD45" s="199"/>
-      <c r="BE45" s="199"/>
-      <c r="BF45" s="199"/>
-      <c r="BG45" s="199"/>
-      <c r="BH45" s="199"/>
-      <c r="BI45" s="199"/>
-      <c r="BJ45" s="199"/>
-      <c r="BK45" s="199"/>
-      <c r="BL45" s="199"/>
-      <c r="BM45" s="199"/>
-      <c r="BN45" s="199"/>
-      <c r="BO45" s="199"/>
-      <c r="BP45" s="200"/>
+      <c r="AR45" s="233"/>
+      <c r="AS45" s="233"/>
+      <c r="AT45" s="233"/>
+      <c r="AU45" s="233"/>
+      <c r="AV45" s="233"/>
+      <c r="AW45" s="233"/>
+      <c r="AX45" s="233"/>
+      <c r="AY45" s="233"/>
+      <c r="AZ45" s="233"/>
+      <c r="BA45" s="234"/>
+      <c r="BB45" s="235"/>
+      <c r="BC45" s="233"/>
+      <c r="BD45" s="233"/>
+      <c r="BE45" s="233"/>
+      <c r="BF45" s="233"/>
+      <c r="BG45" s="233"/>
+      <c r="BH45" s="233"/>
+      <c r="BI45" s="233"/>
+      <c r="BJ45" s="233"/>
+      <c r="BK45" s="233"/>
+      <c r="BL45" s="233"/>
+      <c r="BM45" s="233"/>
+      <c r="BN45" s="233"/>
+      <c r="BO45" s="233"/>
+      <c r="BP45" s="234"/>
       <c r="BQ45" s="30"/>
       <c r="BR45" s="30"/>
     </row>
@@ -5828,245 +5836,247 @@
       <c r="A46" s="30"/>
       <c r="C46" s="61"/>
       <c r="F46" s="64"/>
-      <c r="G46" s="218"/>
+      <c r="G46" s="218" t="s">
+        <v>97</v>
+      </c>
       <c r="H46" s="64"/>
-      <c r="I46" s="246"/>
-      <c r="J46" s="220"/>
-      <c r="K46" s="221"/>
-      <c r="L46" s="221"/>
-      <c r="M46" s="221"/>
-      <c r="N46" s="221"/>
-      <c r="O46" s="221"/>
-      <c r="P46" s="221"/>
-      <c r="Q46" s="221"/>
-      <c r="R46" s="221"/>
-      <c r="S46" s="221"/>
-      <c r="T46" s="221"/>
-      <c r="U46" s="221"/>
-      <c r="V46" s="221"/>
-      <c r="W46" s="233"/>
-      <c r="X46" s="228"/>
-      <c r="Y46" s="221"/>
-      <c r="Z46" s="221"/>
-      <c r="AA46" s="247"/>
-      <c r="AB46" s="248"/>
-      <c r="AC46" s="248"/>
-      <c r="AD46" s="248"/>
-      <c r="AE46" s="248"/>
-      <c r="AF46" s="248"/>
-      <c r="AG46" s="248"/>
-      <c r="AH46" s="248"/>
-      <c r="AI46" s="248"/>
-      <c r="AJ46" s="248"/>
-      <c r="AK46" s="248"/>
-      <c r="AL46" s="233"/>
-      <c r="AM46" s="248"/>
-      <c r="AN46" s="248"/>
-      <c r="AO46" s="248"/>
-      <c r="AP46" s="249"/>
+      <c r="I46" s="219"/>
+      <c r="J46" s="236"/>
+      <c r="K46" s="222"/>
+      <c r="L46" s="222"/>
+      <c r="N46" s="222"/>
+      <c r="O46" s="222"/>
+      <c r="P46" s="222"/>
+      <c r="Q46" s="222"/>
+      <c r="R46" s="222"/>
+      <c r="S46" s="222"/>
+      <c r="T46" s="222"/>
+      <c r="U46" s="222"/>
+      <c r="V46" s="222"/>
+      <c r="W46" s="224"/>
+      <c r="X46" s="237" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="66"/>
+      <c r="AC46" s="222"/>
+      <c r="AD46" s="222"/>
+      <c r="AE46" s="222"/>
+      <c r="AF46" s="222"/>
+      <c r="AG46" s="222"/>
+      <c r="AH46" s="222"/>
+      <c r="AI46" s="222"/>
+      <c r="AJ46" s="222"/>
+      <c r="AK46" s="222"/>
+      <c r="AL46" s="224"/>
+      <c r="AM46" s="238"/>
+      <c r="AN46" s="222"/>
+      <c r="AO46" s="239"/>
+      <c r="AP46" s="240"/>
       <c r="AQ46" s="89"/>
-      <c r="AR46" s="214"/>
-      <c r="AS46" s="214"/>
-      <c r="AT46" s="214"/>
-      <c r="AU46" s="214"/>
-      <c r="AV46" s="214"/>
-      <c r="AW46" s="214"/>
-      <c r="AX46" s="214"/>
-      <c r="AY46" s="214"/>
-      <c r="AZ46" s="214"/>
-      <c r="BA46" s="215"/>
-      <c r="BB46" s="216"/>
-      <c r="BC46" s="214"/>
-      <c r="BD46" s="214"/>
-      <c r="BE46" s="214"/>
-      <c r="BF46" s="214"/>
-      <c r="BG46" s="214"/>
-      <c r="BH46" s="214"/>
-      <c r="BI46" s="214"/>
-      <c r="BJ46" s="214"/>
-      <c r="BK46" s="214"/>
-      <c r="BL46" s="214"/>
-      <c r="BM46" s="214"/>
-      <c r="BN46" s="214"/>
-      <c r="BO46" s="214"/>
-      <c r="BP46" s="215"/>
+      <c r="AR46" s="241"/>
+      <c r="AS46" s="241"/>
+      <c r="AT46" s="241"/>
+      <c r="AU46" s="241"/>
+      <c r="AV46" s="241"/>
+      <c r="AW46" s="241"/>
+      <c r="AX46" s="241"/>
+      <c r="AY46" s="241"/>
+      <c r="AZ46" s="241"/>
+      <c r="BA46" s="242"/>
+      <c r="BB46" s="243"/>
+      <c r="BC46" s="241"/>
+      <c r="BD46" s="241"/>
+      <c r="BE46" s="241"/>
+      <c r="BF46" s="241"/>
+      <c r="BG46" s="241"/>
+      <c r="BH46" s="241"/>
+      <c r="BI46" s="241"/>
+      <c r="BJ46" s="241"/>
+      <c r="BK46" s="241"/>
+      <c r="BL46" s="241"/>
+      <c r="BM46" s="241"/>
+      <c r="BN46" s="241"/>
+      <c r="BO46" s="241"/>
+      <c r="BP46" s="242"/>
       <c r="BQ46" s="30"/>
       <c r="BR46" s="30"/>
     </row>
-    <row r="47" ht="21.0" customHeight="1">
+    <row r="47" ht="27.75" customHeight="1">
       <c r="A47" s="30"/>
       <c r="C47" s="61"/>
       <c r="F47" s="64"/>
       <c r="G47" s="218" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H47" s="64"/>
-      <c r="I47" s="246"/>
-      <c r="J47" s="220"/>
-      <c r="K47" s="221"/>
-      <c r="L47" s="221"/>
-      <c r="M47" s="221"/>
-      <c r="N47" s="221"/>
-      <c r="O47" s="221"/>
-      <c r="P47" s="221"/>
-      <c r="Q47" s="221"/>
-      <c r="R47" s="221"/>
-      <c r="S47" s="221"/>
-      <c r="T47" s="221"/>
-      <c r="U47" s="221"/>
-      <c r="V47" s="221"/>
-      <c r="W47" s="233"/>
-      <c r="X47" s="228"/>
-      <c r="Y47" s="221"/>
-      <c r="Z47" s="221"/>
-      <c r="AA47" s="221"/>
-      <c r="AB47" s="221"/>
-      <c r="AC47" s="221"/>
-      <c r="AD47" s="221"/>
-      <c r="AE47" s="221"/>
-      <c r="AF47" s="221"/>
-      <c r="AG47" s="221"/>
-      <c r="AH47" s="221"/>
-      <c r="AI47" s="221"/>
-      <c r="AJ47" s="221"/>
-      <c r="AK47" s="221"/>
-      <c r="AL47" s="233"/>
-      <c r="AM47" s="228"/>
-      <c r="AN47" s="221"/>
-      <c r="AO47" s="229"/>
-      <c r="AP47" s="230"/>
+      <c r="I47" s="219"/>
+      <c r="J47" s="236"/>
+      <c r="K47" s="222"/>
+      <c r="L47" s="222"/>
+      <c r="N47" s="222"/>
+      <c r="O47" s="222"/>
+      <c r="P47" s="222"/>
+      <c r="Q47" s="222"/>
+      <c r="R47" s="222"/>
+      <c r="S47" s="222"/>
+      <c r="T47" s="222"/>
+      <c r="U47" s="222"/>
+      <c r="V47" s="222"/>
+      <c r="W47" s="224"/>
+      <c r="X47" s="238"/>
+      <c r="Y47" s="222"/>
+      <c r="Z47" s="222"/>
+      <c r="AA47" s="222"/>
+      <c r="AB47" s="244" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC47" s="66"/>
+      <c r="AD47" s="222"/>
+      <c r="AE47" s="222"/>
+      <c r="AF47" s="222"/>
+      <c r="AG47" s="222"/>
+      <c r="AH47" s="222"/>
+      <c r="AI47" s="222"/>
+      <c r="AJ47" s="222"/>
+      <c r="AK47" s="222"/>
+      <c r="AL47" s="224"/>
+      <c r="AM47" s="238"/>
+      <c r="AN47" s="222"/>
+      <c r="AO47" s="239"/>
+      <c r="AP47" s="240"/>
       <c r="AQ47" s="89"/>
-      <c r="AR47" s="214"/>
-      <c r="AS47" s="214"/>
-      <c r="AT47" s="214"/>
-      <c r="AU47" s="214"/>
-      <c r="AV47" s="214"/>
-      <c r="AW47" s="214"/>
-      <c r="AX47" s="214"/>
-      <c r="AY47" s="214"/>
-      <c r="AZ47" s="214"/>
-      <c r="BA47" s="215"/>
-      <c r="BB47" s="216"/>
-      <c r="BC47" s="214"/>
-      <c r="BD47" s="214"/>
-      <c r="BE47" s="214"/>
-      <c r="BF47" s="214"/>
-      <c r="BG47" s="214"/>
-      <c r="BH47" s="214"/>
-      <c r="BI47" s="214"/>
-      <c r="BJ47" s="214"/>
-      <c r="BK47" s="214"/>
-      <c r="BL47" s="214"/>
-      <c r="BM47" s="214"/>
-      <c r="BN47" s="214"/>
-      <c r="BO47" s="214"/>
-      <c r="BP47" s="215"/>
+      <c r="AR47" s="241"/>
+      <c r="AS47" s="241"/>
+      <c r="AT47" s="241"/>
+      <c r="AU47" s="241"/>
+      <c r="AV47" s="241"/>
+      <c r="AW47" s="241"/>
+      <c r="AX47" s="241"/>
+      <c r="AY47" s="241"/>
+      <c r="AZ47" s="241"/>
+      <c r="BA47" s="242"/>
+      <c r="BB47" s="243"/>
+      <c r="BC47" s="241"/>
+      <c r="BD47" s="241"/>
+      <c r="BE47" s="241"/>
+      <c r="BF47" s="241"/>
+      <c r="BG47" s="241"/>
+      <c r="BH47" s="241"/>
+      <c r="BI47" s="241"/>
+      <c r="BJ47" s="241"/>
+      <c r="BK47" s="241"/>
+      <c r="BL47" s="241"/>
+      <c r="BM47" s="241"/>
+      <c r="BN47" s="241"/>
+      <c r="BO47" s="241"/>
+      <c r="BP47" s="242"/>
       <c r="BQ47" s="30"/>
       <c r="BR47" s="30"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="30"/>
       <c r="C48" s="61"/>
-      <c r="D48" s="250"/>
-      <c r="E48" s="250"/>
-      <c r="F48" s="251"/>
-      <c r="G48" s="252"/>
-      <c r="H48" s="251"/>
-      <c r="I48" s="253"/>
-      <c r="J48" s="254"/>
-      <c r="K48" s="255"/>
-      <c r="L48" s="255"/>
-      <c r="M48" s="255"/>
-      <c r="N48" s="255"/>
-      <c r="O48" s="255"/>
-      <c r="P48" s="255"/>
-      <c r="Q48" s="255"/>
-      <c r="R48" s="255"/>
-      <c r="S48" s="255"/>
-      <c r="T48" s="255"/>
-      <c r="U48" s="255"/>
-      <c r="V48" s="255"/>
-      <c r="W48" s="256"/>
-      <c r="X48" s="257"/>
-      <c r="Y48" s="255"/>
-      <c r="Z48" s="255"/>
-      <c r="AA48" s="255"/>
-      <c r="AB48" s="255"/>
-      <c r="AC48" s="255"/>
-      <c r="AD48" s="255"/>
-      <c r="AE48" s="255"/>
-      <c r="AF48" s="255"/>
-      <c r="AG48" s="255"/>
-      <c r="AH48" s="255"/>
-      <c r="AI48" s="255"/>
-      <c r="AJ48" s="255"/>
-      <c r="AK48" s="255"/>
-      <c r="AL48" s="256"/>
-      <c r="AM48" s="257"/>
-      <c r="AN48" s="255"/>
-      <c r="AO48" s="258"/>
-      <c r="AP48" s="259"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="218" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="64"/>
+      <c r="I48" s="219"/>
+      <c r="J48" s="236"/>
+      <c r="K48" s="222"/>
+      <c r="L48" s="222"/>
+      <c r="N48" s="222"/>
+      <c r="O48" s="222"/>
+      <c r="P48" s="222"/>
+      <c r="Q48" s="222"/>
+      <c r="R48" s="222"/>
+      <c r="S48" s="222"/>
+      <c r="T48" s="222"/>
+      <c r="U48" s="222"/>
+      <c r="V48" s="222"/>
+      <c r="W48" s="224"/>
+      <c r="X48" s="245"/>
+      <c r="Y48" s="222"/>
+      <c r="Z48" s="222"/>
+      <c r="AA48" s="222"/>
+      <c r="AB48" s="222"/>
+      <c r="AC48" s="222"/>
+      <c r="AD48" s="222"/>
+      <c r="AE48" s="222"/>
+      <c r="AF48" s="222"/>
+      <c r="AG48" s="222"/>
+      <c r="AH48" s="222"/>
+      <c r="AI48" s="222"/>
+      <c r="AJ48" s="222"/>
+      <c r="AK48" s="222"/>
+      <c r="AL48" s="224"/>
+      <c r="AM48" s="245"/>
+      <c r="AN48" s="222"/>
+      <c r="AO48" s="239"/>
+      <c r="AP48" s="246"/>
       <c r="AQ48" s="89"/>
-      <c r="AR48" s="260"/>
-      <c r="AS48" s="260"/>
-      <c r="AT48" s="260"/>
-      <c r="AU48" s="260"/>
-      <c r="AV48" s="260"/>
-      <c r="AW48" s="260"/>
-      <c r="AX48" s="260"/>
-      <c r="AY48" s="260"/>
-      <c r="AZ48" s="260"/>
-      <c r="BA48" s="261"/>
-      <c r="BB48" s="262"/>
-      <c r="BC48" s="260"/>
-      <c r="BD48" s="260"/>
-      <c r="BE48" s="260"/>
-      <c r="BF48" s="260"/>
-      <c r="BG48" s="260"/>
-      <c r="BH48" s="260"/>
-      <c r="BI48" s="260"/>
-      <c r="BJ48" s="260"/>
-      <c r="BK48" s="260"/>
-      <c r="BL48" s="260"/>
-      <c r="BM48" s="260"/>
-      <c r="BN48" s="260"/>
-      <c r="BO48" s="260"/>
-      <c r="BP48" s="261"/>
+      <c r="AR48" s="199"/>
+      <c r="AS48" s="199"/>
+      <c r="AT48" s="199"/>
+      <c r="AU48" s="199"/>
+      <c r="AV48" s="199"/>
+      <c r="AW48" s="199"/>
+      <c r="AX48" s="199"/>
+      <c r="AY48" s="199"/>
+      <c r="AZ48" s="199"/>
+      <c r="BA48" s="200"/>
+      <c r="BB48" s="201"/>
+      <c r="BC48" s="199"/>
+      <c r="BD48" s="199"/>
+      <c r="BE48" s="199"/>
+      <c r="BF48" s="199"/>
+      <c r="BG48" s="199"/>
+      <c r="BH48" s="199"/>
+      <c r="BI48" s="199"/>
+      <c r="BJ48" s="199"/>
+      <c r="BK48" s="199"/>
+      <c r="BL48" s="199"/>
+      <c r="BM48" s="199"/>
+      <c r="BN48" s="199"/>
+      <c r="BO48" s="199"/>
+      <c r="BP48" s="200"/>
       <c r="BQ48" s="30"/>
       <c r="BR48" s="30"/>
     </row>
-    <row r="49" ht="21.0" customHeight="1">
+    <row r="49" ht="31.5" customHeight="1">
       <c r="A49" s="30"/>
-      <c r="B49" s="263">
-        <v>5.0</v>
-      </c>
       <c r="C49" s="61"/>
-      <c r="D49" s="264" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="265"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="218" t="s">
+        <v>102</v>
+      </c>
       <c r="H49" s="64"/>
-      <c r="I49" s="219"/>
-      <c r="J49" s="237"/>
-      <c r="K49" s="222"/>
-      <c r="L49" s="222"/>
-      <c r="M49" s="222"/>
-      <c r="N49" s="222"/>
-      <c r="O49" s="222"/>
-      <c r="P49" s="222"/>
-      <c r="Q49" s="222"/>
-      <c r="R49" s="222"/>
-      <c r="S49" s="222"/>
-      <c r="T49" s="222"/>
-      <c r="U49" s="222"/>
-      <c r="V49" s="222"/>
-      <c r="W49" s="224"/>
-      <c r="X49" s="244"/>
-      <c r="Y49" s="222"/>
-      <c r="Z49" s="222"/>
-      <c r="AA49" s="222"/>
-      <c r="AB49" s="222"/>
-      <c r="AC49" s="222"/>
+      <c r="I49" s="247"/>
+      <c r="J49" s="220"/>
+      <c r="K49" s="221"/>
+      <c r="L49" s="221"/>
+      <c r="M49" s="221"/>
+      <c r="N49" s="221"/>
+      <c r="O49" s="221"/>
+      <c r="P49" s="221"/>
+      <c r="Q49" s="221"/>
+      <c r="R49" s="221"/>
+      <c r="S49" s="221"/>
+      <c r="T49" s="221"/>
+      <c r="U49" s="221"/>
+      <c r="V49" s="221"/>
+      <c r="W49" s="232"/>
+      <c r="X49" s="228"/>
+      <c r="Y49" s="221"/>
+      <c r="Z49" s="221"/>
+      <c r="AA49" s="248" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB49" s="227"/>
+      <c r="AC49" s="227"/>
       <c r="AD49" s="222"/>
       <c r="AE49" s="222"/>
       <c r="AF49" s="222"/>
@@ -6076,45 +6086,48 @@
       <c r="AJ49" s="222"/>
       <c r="AK49" s="222"/>
       <c r="AL49" s="224"/>
-      <c r="AM49" s="244"/>
+      <c r="AM49" s="245"/>
       <c r="AN49" s="222"/>
       <c r="AO49" s="239"/>
-      <c r="AP49" s="245"/>
+      <c r="AP49" s="246"/>
       <c r="AQ49" s="89"/>
-      <c r="AR49" s="199"/>
-      <c r="AS49" s="199"/>
-      <c r="AT49" s="199"/>
-      <c r="AU49" s="199"/>
-      <c r="AV49" s="199"/>
-      <c r="AW49" s="199"/>
-      <c r="AX49" s="199"/>
-      <c r="AY49" s="199"/>
-      <c r="AZ49" s="199"/>
-      <c r="BA49" s="200"/>
-      <c r="BB49" s="201"/>
-      <c r="BC49" s="199"/>
-      <c r="BD49" s="199"/>
-      <c r="BE49" s="199"/>
-      <c r="BF49" s="199"/>
-      <c r="BG49" s="199"/>
-      <c r="BH49" s="199"/>
-      <c r="BI49" s="199"/>
-      <c r="BJ49" s="199"/>
-      <c r="BK49" s="199"/>
-      <c r="BL49" s="199"/>
-      <c r="BM49" s="199"/>
-      <c r="BN49" s="199"/>
-      <c r="BO49" s="199"/>
-      <c r="BP49" s="200"/>
+      <c r="AR49" s="214"/>
+      <c r="AS49" s="214"/>
+      <c r="AT49" s="214"/>
+      <c r="AU49" s="214"/>
+      <c r="AV49" s="214"/>
+      <c r="AW49" s="214"/>
+      <c r="AX49" s="214"/>
+      <c r="AY49" s="214"/>
+      <c r="AZ49" s="214"/>
+      <c r="BA49" s="215"/>
+      <c r="BB49" s="216"/>
+      <c r="BC49" s="214"/>
+      <c r="BD49" s="214"/>
+      <c r="BE49" s="214"/>
+      <c r="BF49" s="214"/>
+      <c r="BG49" s="214"/>
+      <c r="BH49" s="214"/>
+      <c r="BI49" s="214"/>
+      <c r="BJ49" s="214"/>
+      <c r="BK49" s="214"/>
+      <c r="BL49" s="214"/>
+      <c r="BM49" s="214"/>
+      <c r="BN49" s="214"/>
+      <c r="BO49" s="214"/>
+      <c r="BP49" s="215"/>
       <c r="BQ49" s="30"/>
       <c r="BR49" s="30"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="30"/>
       <c r="C50" s="61"/>
-      <c r="G50" s="265"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="218" t="s">
+        <v>104</v>
+      </c>
       <c r="H50" s="64"/>
-      <c r="I50" s="246"/>
+      <c r="I50" s="247"/>
       <c r="J50" s="220"/>
       <c r="K50" s="221"/>
       <c r="L50" s="221"/>
@@ -6128,7 +6141,7 @@
       <c r="T50" s="221"/>
       <c r="U50" s="221"/>
       <c r="V50" s="221"/>
-      <c r="W50" s="233"/>
+      <c r="W50" s="232"/>
       <c r="X50" s="228"/>
       <c r="Y50" s="221"/>
       <c r="Z50" s="221"/>
@@ -6143,7 +6156,7 @@
       <c r="AI50" s="221"/>
       <c r="AJ50" s="221"/>
       <c r="AK50" s="221"/>
-      <c r="AL50" s="233"/>
+      <c r="AL50" s="232"/>
       <c r="AM50" s="228"/>
       <c r="AN50" s="221"/>
       <c r="AO50" s="229"/>
@@ -6180,561 +6193,807 @@
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="30"/>
       <c r="C51" s="61"/>
-      <c r="G51" s="265"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="266"/>
-      <c r="J51" s="267"/>
-      <c r="K51" s="229"/>
-      <c r="L51" s="229"/>
-      <c r="M51" s="229"/>
-      <c r="N51" s="229"/>
-      <c r="O51" s="229"/>
-      <c r="P51" s="229"/>
-      <c r="Q51" s="229"/>
-      <c r="R51" s="229"/>
-      <c r="S51" s="229"/>
-      <c r="T51" s="229"/>
-      <c r="U51" s="229"/>
-      <c r="V51" s="229"/>
-      <c r="W51" s="268"/>
-      <c r="X51" s="269"/>
-      <c r="Y51" s="229"/>
-      <c r="Z51" s="229"/>
-      <c r="AA51" s="229"/>
-      <c r="AB51" s="229"/>
-      <c r="AC51" s="229"/>
-      <c r="AD51" s="229"/>
-      <c r="AE51" s="229"/>
-      <c r="AF51" s="229"/>
-      <c r="AG51" s="229"/>
-      <c r="AH51" s="229"/>
-      <c r="AI51" s="229"/>
-      <c r="AJ51" s="229"/>
-      <c r="AK51" s="229"/>
-      <c r="AL51" s="268"/>
-      <c r="AM51" s="269"/>
-      <c r="AN51" s="229"/>
-      <c r="AO51" s="229"/>
-      <c r="AP51" s="230"/>
+      <c r="D51" s="249"/>
+      <c r="E51" s="249"/>
+      <c r="F51" s="250"/>
+      <c r="G51" s="251"/>
+      <c r="H51" s="250"/>
+      <c r="I51" s="252"/>
+      <c r="J51" s="253"/>
+      <c r="K51" s="254"/>
+      <c r="L51" s="254"/>
+      <c r="M51" s="254"/>
+      <c r="N51" s="254"/>
+      <c r="O51" s="254"/>
+      <c r="P51" s="254"/>
+      <c r="Q51" s="254"/>
+      <c r="R51" s="254"/>
+      <c r="S51" s="254"/>
+      <c r="T51" s="254"/>
+      <c r="U51" s="254"/>
+      <c r="V51" s="254"/>
+      <c r="W51" s="255"/>
+      <c r="X51" s="256"/>
+      <c r="Y51" s="254"/>
+      <c r="Z51" s="254"/>
+      <c r="AA51" s="254"/>
+      <c r="AB51" s="254"/>
+      <c r="AC51" s="254"/>
+      <c r="AD51" s="254"/>
+      <c r="AE51" s="254"/>
+      <c r="AF51" s="254"/>
+      <c r="AG51" s="254"/>
+      <c r="AH51" s="254"/>
+      <c r="AI51" s="254"/>
+      <c r="AJ51" s="254"/>
+      <c r="AK51" s="254"/>
+      <c r="AL51" s="255"/>
+      <c r="AM51" s="256"/>
+      <c r="AN51" s="254"/>
+      <c r="AO51" s="257"/>
+      <c r="AP51" s="258"/>
       <c r="AQ51" s="89"/>
-      <c r="AR51" s="214"/>
-      <c r="AS51" s="214"/>
-      <c r="AT51" s="214"/>
-      <c r="AU51" s="214"/>
-      <c r="AV51" s="214"/>
-      <c r="AW51" s="214"/>
-      <c r="AX51" s="214"/>
-      <c r="AY51" s="214"/>
-      <c r="AZ51" s="214"/>
-      <c r="BA51" s="215"/>
-      <c r="BB51" s="216"/>
-      <c r="BC51" s="214"/>
-      <c r="BD51" s="214"/>
-      <c r="BE51" s="214"/>
-      <c r="BF51" s="214"/>
-      <c r="BG51" s="214"/>
-      <c r="BH51" s="214"/>
-      <c r="BI51" s="214"/>
-      <c r="BJ51" s="214"/>
-      <c r="BK51" s="214"/>
-      <c r="BL51" s="214"/>
-      <c r="BM51" s="214"/>
-      <c r="BN51" s="214"/>
-      <c r="BO51" s="214"/>
-      <c r="BP51" s="215"/>
+      <c r="AR51" s="259"/>
+      <c r="AS51" s="259"/>
+      <c r="AT51" s="259"/>
+      <c r="AU51" s="259"/>
+      <c r="AV51" s="259"/>
+      <c r="AW51" s="259"/>
+      <c r="AX51" s="259"/>
+      <c r="AY51" s="259"/>
+      <c r="AZ51" s="259"/>
+      <c r="BA51" s="260"/>
+      <c r="BB51" s="261"/>
+      <c r="BC51" s="259"/>
+      <c r="BD51" s="259"/>
+      <c r="BE51" s="259"/>
+      <c r="BF51" s="259"/>
+      <c r="BG51" s="259"/>
+      <c r="BH51" s="259"/>
+      <c r="BI51" s="259"/>
+      <c r="BJ51" s="259"/>
+      <c r="BK51" s="259"/>
+      <c r="BL51" s="259"/>
+      <c r="BM51" s="259"/>
+      <c r="BN51" s="259"/>
+      <c r="BO51" s="259"/>
+      <c r="BP51" s="260"/>
       <c r="BQ51" s="30"/>
       <c r="BR51" s="30"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="30"/>
-      <c r="B52" s="270"/>
-      <c r="C52" s="270"/>
-      <c r="D52" s="271"/>
-      <c r="E52" s="271"/>
-      <c r="F52" s="272"/>
-      <c r="G52" s="272"/>
-      <c r="H52" s="273"/>
-      <c r="I52" s="274"/>
-      <c r="J52" s="275"/>
-      <c r="K52" s="276"/>
-      <c r="L52" s="276"/>
-      <c r="M52" s="276"/>
-      <c r="N52" s="276"/>
-      <c r="O52" s="276"/>
-      <c r="P52" s="276"/>
-      <c r="Q52" s="276"/>
-      <c r="R52" s="276"/>
-      <c r="S52" s="276"/>
-      <c r="T52" s="276"/>
-      <c r="U52" s="276"/>
-      <c r="V52" s="276"/>
-      <c r="W52" s="276"/>
-      <c r="X52" s="276"/>
-      <c r="Y52" s="276"/>
-      <c r="Z52" s="276"/>
-      <c r="AA52" s="276"/>
-      <c r="AB52" s="276"/>
-      <c r="AC52" s="276"/>
-      <c r="AD52" s="276"/>
-      <c r="AE52" s="276"/>
-      <c r="AF52" s="276"/>
-      <c r="AG52" s="276"/>
-      <c r="AH52" s="276"/>
-      <c r="AI52" s="276"/>
-      <c r="AJ52" s="276"/>
-      <c r="AK52" s="276"/>
-      <c r="AL52" s="276"/>
-      <c r="AM52" s="276"/>
-      <c r="AN52" s="276"/>
-      <c r="AO52" s="276"/>
-      <c r="AP52" s="276"/>
-      <c r="AQ52" s="276"/>
-      <c r="AR52" s="276"/>
-      <c r="AS52" s="276"/>
-      <c r="AT52" s="276"/>
-      <c r="AU52" s="276"/>
-      <c r="AV52" s="276"/>
-      <c r="AW52" s="276"/>
-      <c r="AX52" s="276"/>
-      <c r="AY52" s="276"/>
-      <c r="AZ52" s="276"/>
-      <c r="BA52" s="276"/>
-      <c r="BB52" s="276"/>
-      <c r="BC52" s="276"/>
-      <c r="BD52" s="276"/>
-      <c r="BE52" s="276"/>
-      <c r="BF52" s="276"/>
-      <c r="BG52" s="276"/>
-      <c r="BH52" s="276"/>
-      <c r="BI52" s="276"/>
-      <c r="BJ52" s="276"/>
-      <c r="BK52" s="276"/>
-      <c r="BL52" s="276"/>
-      <c r="BM52" s="276"/>
-      <c r="BN52" s="276"/>
-      <c r="BO52" s="276"/>
-      <c r="BP52" s="276"/>
+      <c r="B52" s="262">
+        <v>5.0</v>
+      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="263" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="264"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="219"/>
+      <c r="J52" s="236"/>
+      <c r="K52" s="222"/>
+      <c r="L52" s="222"/>
+      <c r="M52" s="222"/>
+      <c r="N52" s="222"/>
+      <c r="O52" s="222"/>
+      <c r="P52" s="222"/>
+      <c r="Q52" s="222"/>
+      <c r="R52" s="222"/>
+      <c r="S52" s="222"/>
+      <c r="T52" s="222"/>
+      <c r="U52" s="222"/>
+      <c r="V52" s="222"/>
+      <c r="W52" s="224"/>
+      <c r="X52" s="245"/>
+      <c r="Y52" s="222"/>
+      <c r="Z52" s="222"/>
+      <c r="AA52" s="222"/>
+      <c r="AB52" s="222"/>
+      <c r="AC52" s="222"/>
+      <c r="AD52" s="222"/>
+      <c r="AE52" s="222"/>
+      <c r="AF52" s="222"/>
+      <c r="AG52" s="222"/>
+      <c r="AH52" s="222"/>
+      <c r="AI52" s="222"/>
+      <c r="AJ52" s="222"/>
+      <c r="AK52" s="222"/>
+      <c r="AL52" s="224"/>
+      <c r="AM52" s="245"/>
+      <c r="AN52" s="222"/>
+      <c r="AO52" s="239"/>
+      <c r="AP52" s="246"/>
+      <c r="AQ52" s="89"/>
+      <c r="AR52" s="199"/>
+      <c r="AS52" s="199"/>
+      <c r="AT52" s="199"/>
+      <c r="AU52" s="199"/>
+      <c r="AV52" s="199"/>
+      <c r="AW52" s="199"/>
+      <c r="AX52" s="199"/>
+      <c r="AY52" s="199"/>
+      <c r="AZ52" s="199"/>
+      <c r="BA52" s="200"/>
+      <c r="BB52" s="201"/>
+      <c r="BC52" s="199"/>
+      <c r="BD52" s="199"/>
+      <c r="BE52" s="199"/>
+      <c r="BF52" s="199"/>
+      <c r="BG52" s="199"/>
+      <c r="BH52" s="199"/>
+      <c r="BI52" s="199"/>
+      <c r="BJ52" s="199"/>
+      <c r="BK52" s="199"/>
+      <c r="BL52" s="199"/>
+      <c r="BM52" s="199"/>
+      <c r="BN52" s="199"/>
+      <c r="BO52" s="199"/>
+      <c r="BP52" s="200"/>
       <c r="BQ52" s="30"/>
       <c r="BR52" s="30"/>
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="30"/>
-      <c r="B53" s="270"/>
-      <c r="C53" s="270"/>
-      <c r="D53" s="271"/>
-      <c r="E53" s="271"/>
-      <c r="F53" s="272"/>
-      <c r="G53" s="272"/>
-      <c r="H53" s="273"/>
-      <c r="I53" s="274"/>
-      <c r="J53" s="275"/>
-      <c r="K53" s="276"/>
-      <c r="L53" s="276"/>
-      <c r="M53" s="276"/>
-      <c r="N53" s="276"/>
-      <c r="O53" s="276"/>
-      <c r="P53" s="276"/>
-      <c r="Q53" s="276"/>
-      <c r="R53" s="276"/>
-      <c r="S53" s="276"/>
-      <c r="T53" s="276"/>
-      <c r="U53" s="276"/>
-      <c r="V53" s="276"/>
-      <c r="W53" s="276"/>
-      <c r="X53" s="276"/>
-      <c r="Y53" s="276"/>
-      <c r="Z53" s="276"/>
-      <c r="AA53" s="276"/>
-      <c r="AB53" s="276"/>
-      <c r="AC53" s="276"/>
-      <c r="AD53" s="276"/>
-      <c r="AE53" s="276"/>
-      <c r="AF53" s="276"/>
-      <c r="AG53" s="276"/>
-      <c r="AH53" s="276"/>
-      <c r="AI53" s="276"/>
-      <c r="AJ53" s="276"/>
-      <c r="AK53" s="276"/>
-      <c r="AL53" s="276"/>
-      <c r="AM53" s="276"/>
-      <c r="AN53" s="276"/>
-      <c r="AO53" s="276"/>
-      <c r="AP53" s="276"/>
-      <c r="AQ53" s="276"/>
-      <c r="AR53" s="276"/>
-      <c r="AS53" s="276"/>
-      <c r="AT53" s="276"/>
-      <c r="AU53" s="276"/>
-      <c r="AV53" s="276"/>
-      <c r="AW53" s="276"/>
-      <c r="AX53" s="276"/>
-      <c r="AY53" s="276"/>
-      <c r="AZ53" s="276"/>
-      <c r="BA53" s="276"/>
-      <c r="BB53" s="276"/>
-      <c r="BC53" s="276"/>
-      <c r="BD53" s="276"/>
-      <c r="BE53" s="276"/>
-      <c r="BF53" s="276"/>
-      <c r="BG53" s="276"/>
-      <c r="BH53" s="276"/>
-      <c r="BI53" s="276"/>
-      <c r="BJ53" s="276"/>
-      <c r="BK53" s="276"/>
-      <c r="BL53" s="276"/>
-      <c r="BM53" s="276"/>
-      <c r="BN53" s="276"/>
-      <c r="BO53" s="276"/>
-      <c r="BP53" s="276"/>
+      <c r="C53" s="61"/>
+      <c r="G53" s="264"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="247"/>
+      <c r="J53" s="220"/>
+      <c r="K53" s="221"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="221"/>
+      <c r="N53" s="221"/>
+      <c r="O53" s="221"/>
+      <c r="P53" s="221"/>
+      <c r="Q53" s="221"/>
+      <c r="R53" s="221"/>
+      <c r="S53" s="221"/>
+      <c r="T53" s="221"/>
+      <c r="U53" s="221"/>
+      <c r="V53" s="221"/>
+      <c r="W53" s="232"/>
+      <c r="X53" s="228"/>
+      <c r="Y53" s="221"/>
+      <c r="Z53" s="221"/>
+      <c r="AA53" s="221"/>
+      <c r="AB53" s="221"/>
+      <c r="AC53" s="221"/>
+      <c r="AD53" s="221"/>
+      <c r="AE53" s="221"/>
+      <c r="AF53" s="221"/>
+      <c r="AG53" s="221"/>
+      <c r="AH53" s="221"/>
+      <c r="AI53" s="221"/>
+      <c r="AJ53" s="221"/>
+      <c r="AK53" s="221"/>
+      <c r="AL53" s="232"/>
+      <c r="AM53" s="228"/>
+      <c r="AN53" s="221"/>
+      <c r="AO53" s="229"/>
+      <c r="AP53" s="230"/>
+      <c r="AQ53" s="89"/>
+      <c r="AR53" s="214"/>
+      <c r="AS53" s="214"/>
+      <c r="AT53" s="214"/>
+      <c r="AU53" s="214"/>
+      <c r="AV53" s="214"/>
+      <c r="AW53" s="214"/>
+      <c r="AX53" s="214"/>
+      <c r="AY53" s="214"/>
+      <c r="AZ53" s="214"/>
+      <c r="BA53" s="215"/>
+      <c r="BB53" s="216"/>
+      <c r="BC53" s="214"/>
+      <c r="BD53" s="214"/>
+      <c r="BE53" s="214"/>
+      <c r="BF53" s="214"/>
+      <c r="BG53" s="214"/>
+      <c r="BH53" s="214"/>
+      <c r="BI53" s="214"/>
+      <c r="BJ53" s="214"/>
+      <c r="BK53" s="214"/>
+      <c r="BL53" s="214"/>
+      <c r="BM53" s="214"/>
+      <c r="BN53" s="214"/>
+      <c r="BO53" s="214"/>
+      <c r="BP53" s="215"/>
       <c r="BQ53" s="30"/>
       <c r="BR53" s="30"/>
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="30"/>
-      <c r="B54" s="270"/>
-      <c r="C54" s="270"/>
-      <c r="D54" s="271"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="272"/>
-      <c r="G54" s="272"/>
-      <c r="H54" s="273"/>
-      <c r="I54" s="274"/>
-      <c r="J54" s="275"/>
-      <c r="K54" s="276"/>
-      <c r="L54" s="276"/>
-      <c r="M54" s="276"/>
-      <c r="N54" s="276"/>
-      <c r="O54" s="276"/>
-      <c r="P54" s="276"/>
-      <c r="Q54" s="276"/>
-      <c r="R54" s="276"/>
-      <c r="S54" s="276"/>
-      <c r="T54" s="276"/>
-      <c r="U54" s="276"/>
-      <c r="V54" s="276"/>
-      <c r="W54" s="276"/>
-      <c r="X54" s="276"/>
-      <c r="Y54" s="276"/>
-      <c r="Z54" s="276"/>
-      <c r="AA54" s="276"/>
-      <c r="AB54" s="276"/>
-      <c r="AC54" s="276"/>
-      <c r="AD54" s="276"/>
-      <c r="AE54" s="276"/>
-      <c r="AF54" s="276"/>
-      <c r="AG54" s="276"/>
-      <c r="AH54" s="276"/>
-      <c r="AI54" s="276"/>
-      <c r="AJ54" s="276"/>
-      <c r="AK54" s="276"/>
-      <c r="AL54" s="276"/>
-      <c r="AM54" s="276"/>
-      <c r="AN54" s="276"/>
-      <c r="AO54" s="276"/>
-      <c r="AP54" s="276"/>
-      <c r="AQ54" s="276"/>
-      <c r="AR54" s="276"/>
-      <c r="AS54" s="276"/>
-      <c r="AT54" s="276"/>
-      <c r="AU54" s="276"/>
-      <c r="AV54" s="276"/>
-      <c r="AW54" s="276"/>
-      <c r="AX54" s="276"/>
-      <c r="AY54" s="276"/>
-      <c r="AZ54" s="276"/>
-      <c r="BA54" s="276"/>
-      <c r="BB54" s="276"/>
-      <c r="BC54" s="276"/>
-      <c r="BD54" s="276"/>
-      <c r="BE54" s="276"/>
-      <c r="BF54" s="276"/>
-      <c r="BG54" s="276"/>
-      <c r="BH54" s="276"/>
-      <c r="BI54" s="276"/>
-      <c r="BJ54" s="276"/>
-      <c r="BK54" s="276"/>
-      <c r="BL54" s="276"/>
-      <c r="BM54" s="276"/>
-      <c r="BN54" s="276"/>
-      <c r="BO54" s="276"/>
-      <c r="BP54" s="276"/>
+      <c r="C54" s="61"/>
+      <c r="G54" s="264"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="265"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="229"/>
+      <c r="L54" s="229"/>
+      <c r="M54" s="229"/>
+      <c r="N54" s="229"/>
+      <c r="O54" s="229"/>
+      <c r="P54" s="229"/>
+      <c r="Q54" s="229"/>
+      <c r="R54" s="229"/>
+      <c r="S54" s="229"/>
+      <c r="T54" s="229"/>
+      <c r="U54" s="229"/>
+      <c r="V54" s="229"/>
+      <c r="W54" s="267"/>
+      <c r="X54" s="268"/>
+      <c r="Y54" s="229"/>
+      <c r="Z54" s="229"/>
+      <c r="AA54" s="229"/>
+      <c r="AB54" s="229"/>
+      <c r="AC54" s="229"/>
+      <c r="AD54" s="229"/>
+      <c r="AE54" s="229"/>
+      <c r="AF54" s="229"/>
+      <c r="AG54" s="229"/>
+      <c r="AH54" s="229"/>
+      <c r="AI54" s="229"/>
+      <c r="AJ54" s="229"/>
+      <c r="AK54" s="229"/>
+      <c r="AL54" s="267"/>
+      <c r="AM54" s="268"/>
+      <c r="AN54" s="229"/>
+      <c r="AO54" s="229"/>
+      <c r="AP54" s="230"/>
+      <c r="AQ54" s="89"/>
+      <c r="AR54" s="214"/>
+      <c r="AS54" s="214"/>
+      <c r="AT54" s="214"/>
+      <c r="AU54" s="214"/>
+      <c r="AV54" s="214"/>
+      <c r="AW54" s="214"/>
+      <c r="AX54" s="214"/>
+      <c r="AY54" s="214"/>
+      <c r="AZ54" s="214"/>
+      <c r="BA54" s="215"/>
+      <c r="BB54" s="216"/>
+      <c r="BC54" s="214"/>
+      <c r="BD54" s="214"/>
+      <c r="BE54" s="214"/>
+      <c r="BF54" s="214"/>
+      <c r="BG54" s="214"/>
+      <c r="BH54" s="214"/>
+      <c r="BI54" s="214"/>
+      <c r="BJ54" s="214"/>
+      <c r="BK54" s="214"/>
+      <c r="BL54" s="214"/>
+      <c r="BM54" s="214"/>
+      <c r="BN54" s="214"/>
+      <c r="BO54" s="214"/>
+      <c r="BP54" s="215"/>
       <c r="BQ54" s="30"/>
       <c r="BR54" s="30"/>
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="277"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
-      <c r="AI55" s="30"/>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
-      <c r="AR55" s="30"/>
-      <c r="AS55" s="30"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="30"/>
-      <c r="AV55" s="30"/>
-      <c r="AW55" s="30"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="30"/>
-      <c r="AZ55" s="30"/>
-      <c r="BA55" s="30"/>
-      <c r="BB55" s="30"/>
-      <c r="BC55" s="30"/>
-      <c r="BD55" s="30"/>
-      <c r="BE55" s="30"/>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="30"/>
-      <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
-      <c r="BJ55" s="30"/>
-      <c r="BK55" s="30"/>
-      <c r="BL55" s="30"/>
-      <c r="BM55" s="30"/>
-      <c r="BN55" s="30"/>
-      <c r="BO55" s="30"/>
-      <c r="BP55" s="30"/>
+      <c r="B55" s="269"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="270"/>
+      <c r="F55" s="271"/>
+      <c r="G55" s="271"/>
+      <c r="H55" s="272"/>
+      <c r="I55" s="273"/>
+      <c r="J55" s="274"/>
+      <c r="K55" s="275"/>
+      <c r="L55" s="275"/>
+      <c r="M55" s="275"/>
+      <c r="N55" s="275"/>
+      <c r="O55" s="275"/>
+      <c r="P55" s="275"/>
+      <c r="Q55" s="275"/>
+      <c r="R55" s="275"/>
+      <c r="S55" s="275"/>
+      <c r="T55" s="275"/>
+      <c r="U55" s="275"/>
+      <c r="V55" s="275"/>
+      <c r="W55" s="275"/>
+      <c r="X55" s="275"/>
+      <c r="Y55" s="275"/>
+      <c r="Z55" s="275"/>
+      <c r="AA55" s="275"/>
+      <c r="AB55" s="275"/>
+      <c r="AC55" s="275"/>
+      <c r="AD55" s="275"/>
+      <c r="AE55" s="275"/>
+      <c r="AF55" s="275"/>
+      <c r="AG55" s="275"/>
+      <c r="AH55" s="275"/>
+      <c r="AI55" s="275"/>
+      <c r="AJ55" s="275"/>
+      <c r="AK55" s="275"/>
+      <c r="AL55" s="275"/>
+      <c r="AM55" s="275"/>
+      <c r="AN55" s="275"/>
+      <c r="AO55" s="275"/>
+      <c r="AP55" s="275"/>
+      <c r="AQ55" s="275"/>
+      <c r="AR55" s="275"/>
+      <c r="AS55" s="275"/>
+      <c r="AT55" s="275"/>
+      <c r="AU55" s="275"/>
+      <c r="AV55" s="275"/>
+      <c r="AW55" s="275"/>
+      <c r="AX55" s="275"/>
+      <c r="AY55" s="275"/>
+      <c r="AZ55" s="275"/>
+      <c r="BA55" s="275"/>
+      <c r="BB55" s="275"/>
+      <c r="BC55" s="275"/>
+      <c r="BD55" s="275"/>
+      <c r="BE55" s="275"/>
+      <c r="BF55" s="275"/>
+      <c r="BG55" s="275"/>
+      <c r="BH55" s="275"/>
+      <c r="BI55" s="275"/>
+      <c r="BJ55" s="275"/>
+      <c r="BK55" s="275"/>
+      <c r="BL55" s="275"/>
+      <c r="BM55" s="275"/>
+      <c r="BN55" s="275"/>
+      <c r="BO55" s="275"/>
+      <c r="BP55" s="275"/>
       <c r="BQ55" s="30"/>
       <c r="BR55" s="30"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="277"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
-      <c r="AG56" s="30"/>
-      <c r="AH56" s="30"/>
-      <c r="AI56" s="30"/>
-      <c r="AJ56" s="30"/>
-      <c r="AK56" s="30"/>
-      <c r="AL56" s="30"/>
-      <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-      <c r="AO56" s="30"/>
-      <c r="AP56" s="30"/>
-      <c r="AQ56" s="30"/>
-      <c r="AR56" s="30"/>
-      <c r="AS56" s="30"/>
-      <c r="AT56" s="30"/>
-      <c r="AU56" s="30"/>
-      <c r="AV56" s="30"/>
-      <c r="AW56" s="30"/>
-      <c r="AX56" s="30"/>
-      <c r="AY56" s="30"/>
-      <c r="AZ56" s="30"/>
-      <c r="BA56" s="30"/>
-      <c r="BB56" s="30"/>
-      <c r="BC56" s="30"/>
-      <c r="BD56" s="30"/>
-      <c r="BE56" s="30"/>
-      <c r="BF56" s="30"/>
-      <c r="BG56" s="30"/>
-      <c r="BH56" s="30"/>
-      <c r="BI56" s="30"/>
-      <c r="BJ56" s="30"/>
-      <c r="BK56" s="30"/>
-      <c r="BL56" s="30"/>
-      <c r="BM56" s="30"/>
-      <c r="BN56" s="30"/>
-      <c r="BO56" s="30"/>
-      <c r="BP56" s="30"/>
+      <c r="B56" s="269"/>
+      <c r="C56" s="269"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="270"/>
+      <c r="F56" s="271"/>
+      <c r="G56" s="271"/>
+      <c r="H56" s="272"/>
+      <c r="I56" s="273"/>
+      <c r="J56" s="274"/>
+      <c r="K56" s="275"/>
+      <c r="L56" s="275"/>
+      <c r="M56" s="275"/>
+      <c r="N56" s="275"/>
+      <c r="O56" s="275"/>
+      <c r="P56" s="275"/>
+      <c r="Q56" s="275"/>
+      <c r="R56" s="275"/>
+      <c r="S56" s="275"/>
+      <c r="T56" s="275"/>
+      <c r="U56" s="275"/>
+      <c r="V56" s="275"/>
+      <c r="W56" s="275"/>
+      <c r="X56" s="275"/>
+      <c r="Y56" s="275"/>
+      <c r="Z56" s="275"/>
+      <c r="AA56" s="275"/>
+      <c r="AB56" s="275"/>
+      <c r="AC56" s="275"/>
+      <c r="AD56" s="275"/>
+      <c r="AE56" s="275"/>
+      <c r="AF56" s="275"/>
+      <c r="AG56" s="275"/>
+      <c r="AH56" s="275"/>
+      <c r="AI56" s="275"/>
+      <c r="AJ56" s="275"/>
+      <c r="AK56" s="275"/>
+      <c r="AL56" s="275"/>
+      <c r="AM56" s="275"/>
+      <c r="AN56" s="275"/>
+      <c r="AO56" s="275"/>
+      <c r="AP56" s="275"/>
+      <c r="AQ56" s="275"/>
+      <c r="AR56" s="275"/>
+      <c r="AS56" s="275"/>
+      <c r="AT56" s="275"/>
+      <c r="AU56" s="275"/>
+      <c r="AV56" s="275"/>
+      <c r="AW56" s="275"/>
+      <c r="AX56" s="275"/>
+      <c r="AY56" s="275"/>
+      <c r="AZ56" s="275"/>
+      <c r="BA56" s="275"/>
+      <c r="BB56" s="275"/>
+      <c r="BC56" s="275"/>
+      <c r="BD56" s="275"/>
+      <c r="BE56" s="275"/>
+      <c r="BF56" s="275"/>
+      <c r="BG56" s="275"/>
+      <c r="BH56" s="275"/>
+      <c r="BI56" s="275"/>
+      <c r="BJ56" s="275"/>
+      <c r="BK56" s="275"/>
+      <c r="BL56" s="275"/>
+      <c r="BM56" s="275"/>
+      <c r="BN56" s="275"/>
+      <c r="BO56" s="275"/>
+      <c r="BP56" s="275"/>
       <c r="BQ56" s="30"/>
       <c r="BR56" s="30"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="277"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30"/>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30"/>
-      <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="30"/>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30"/>
-      <c r="AS57" s="30"/>
-      <c r="AT57" s="30"/>
-      <c r="AU57" s="30"/>
-      <c r="AV57" s="30"/>
-      <c r="AW57" s="30"/>
-      <c r="AX57" s="30"/>
-      <c r="AY57" s="30"/>
-      <c r="AZ57" s="30"/>
-      <c r="BA57" s="30"/>
-      <c r="BB57" s="30"/>
-      <c r="BC57" s="30"/>
-      <c r="BD57" s="30"/>
-      <c r="BE57" s="30"/>
-      <c r="BF57" s="30"/>
-      <c r="BG57" s="30"/>
-      <c r="BH57" s="30"/>
-      <c r="BI57" s="30"/>
-      <c r="BJ57" s="30"/>
-      <c r="BK57" s="30"/>
-      <c r="BL57" s="30"/>
-      <c r="BM57" s="30"/>
-      <c r="BN57" s="30"/>
-      <c r="BO57" s="30"/>
-      <c r="BP57" s="30"/>
+      <c r="B57" s="269"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="270"/>
+      <c r="F57" s="271"/>
+      <c r="G57" s="271"/>
+      <c r="H57" s="272"/>
+      <c r="I57" s="273"/>
+      <c r="J57" s="274"/>
+      <c r="K57" s="275"/>
+      <c r="L57" s="275"/>
+      <c r="M57" s="275"/>
+      <c r="N57" s="275"/>
+      <c r="O57" s="275"/>
+      <c r="P57" s="275"/>
+      <c r="Q57" s="275"/>
+      <c r="R57" s="275"/>
+      <c r="S57" s="275"/>
+      <c r="T57" s="275"/>
+      <c r="U57" s="275"/>
+      <c r="V57" s="275"/>
+      <c r="W57" s="275"/>
+      <c r="X57" s="275"/>
+      <c r="Y57" s="275"/>
+      <c r="Z57" s="275"/>
+      <c r="AA57" s="275"/>
+      <c r="AB57" s="275"/>
+      <c r="AC57" s="275"/>
+      <c r="AD57" s="275"/>
+      <c r="AE57" s="275"/>
+      <c r="AF57" s="275"/>
+      <c r="AG57" s="275"/>
+      <c r="AH57" s="275"/>
+      <c r="AI57" s="275"/>
+      <c r="AJ57" s="275"/>
+      <c r="AK57" s="275"/>
+      <c r="AL57" s="275"/>
+      <c r="AM57" s="275"/>
+      <c r="AN57" s="275"/>
+      <c r="AO57" s="275"/>
+      <c r="AP57" s="275"/>
+      <c r="AQ57" s="275"/>
+      <c r="AR57" s="275"/>
+      <c r="AS57" s="275"/>
+      <c r="AT57" s="275"/>
+      <c r="AU57" s="275"/>
+      <c r="AV57" s="275"/>
+      <c r="AW57" s="275"/>
+      <c r="AX57" s="275"/>
+      <c r="AY57" s="275"/>
+      <c r="AZ57" s="275"/>
+      <c r="BA57" s="275"/>
+      <c r="BB57" s="275"/>
+      <c r="BC57" s="275"/>
+      <c r="BD57" s="275"/>
+      <c r="BE57" s="275"/>
+      <c r="BF57" s="275"/>
+      <c r="BG57" s="275"/>
+      <c r="BH57" s="275"/>
+      <c r="BI57" s="275"/>
+      <c r="BJ57" s="275"/>
+      <c r="BK57" s="275"/>
+      <c r="BL57" s="275"/>
+      <c r="BM57" s="275"/>
+      <c r="BN57" s="275"/>
+      <c r="BO57" s="275"/>
+      <c r="BP57" s="275"/>
       <c r="BQ57" s="30"/>
       <c r="BR57" s="30"/>
     </row>
+    <row r="58" ht="21.0" customHeight="1">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="276"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+      <c r="AG58" s="30"/>
+      <c r="AH58" s="30"/>
+      <c r="AI58" s="30"/>
+      <c r="AJ58" s="30"/>
+      <c r="AK58" s="30"/>
+      <c r="AL58" s="30"/>
+      <c r="AM58" s="30"/>
+      <c r="AN58" s="30"/>
+      <c r="AO58" s="30"/>
+      <c r="AP58" s="30"/>
+      <c r="AQ58" s="30"/>
+      <c r="AR58" s="30"/>
+      <c r="AS58" s="30"/>
+      <c r="AT58" s="30"/>
+      <c r="AU58" s="30"/>
+      <c r="AV58" s="30"/>
+      <c r="AW58" s="30"/>
+      <c r="AX58" s="30"/>
+      <c r="AY58" s="30"/>
+      <c r="AZ58" s="30"/>
+      <c r="BA58" s="30"/>
+      <c r="BB58" s="30"/>
+      <c r="BC58" s="30"/>
+      <c r="BD58" s="30"/>
+      <c r="BE58" s="30"/>
+      <c r="BF58" s="30"/>
+      <c r="BG58" s="30"/>
+      <c r="BH58" s="30"/>
+      <c r="BI58" s="30"/>
+      <c r="BJ58" s="30"/>
+      <c r="BK58" s="30"/>
+      <c r="BL58" s="30"/>
+      <c r="BM58" s="30"/>
+      <c r="BN58" s="30"/>
+      <c r="BO58" s="30"/>
+      <c r="BP58" s="30"/>
+      <c r="BQ58" s="30"/>
+      <c r="BR58" s="30"/>
+    </row>
+    <row r="59" ht="21.0" customHeight="1">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="276"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="30"/>
+      <c r="AG59" s="30"/>
+      <c r="AH59" s="30"/>
+      <c r="AI59" s="30"/>
+      <c r="AJ59" s="30"/>
+      <c r="AK59" s="30"/>
+      <c r="AL59" s="30"/>
+      <c r="AM59" s="30"/>
+      <c r="AN59" s="30"/>
+      <c r="AO59" s="30"/>
+      <c r="AP59" s="30"/>
+      <c r="AQ59" s="30"/>
+      <c r="AR59" s="30"/>
+      <c r="AS59" s="30"/>
+      <c r="AT59" s="30"/>
+      <c r="AU59" s="30"/>
+      <c r="AV59" s="30"/>
+      <c r="AW59" s="30"/>
+      <c r="AX59" s="30"/>
+      <c r="AY59" s="30"/>
+      <c r="AZ59" s="30"/>
+      <c r="BA59" s="30"/>
+      <c r="BB59" s="30"/>
+      <c r="BC59" s="30"/>
+      <c r="BD59" s="30"/>
+      <c r="BE59" s="30"/>
+      <c r="BF59" s="30"/>
+      <c r="BG59" s="30"/>
+      <c r="BH59" s="30"/>
+      <c r="BI59" s="30"/>
+      <c r="BJ59" s="30"/>
+      <c r="BK59" s="30"/>
+      <c r="BL59" s="30"/>
+      <c r="BM59" s="30"/>
+      <c r="BN59" s="30"/>
+      <c r="BO59" s="30"/>
+      <c r="BP59" s="30"/>
+      <c r="BQ59" s="30"/>
+      <c r="BR59" s="30"/>
+    </row>
+    <row r="60" ht="21.0" customHeight="1">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="276"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="30"/>
+      <c r="AG60" s="30"/>
+      <c r="AH60" s="30"/>
+      <c r="AI60" s="30"/>
+      <c r="AJ60" s="30"/>
+      <c r="AK60" s="30"/>
+      <c r="AL60" s="30"/>
+      <c r="AM60" s="30"/>
+      <c r="AN60" s="30"/>
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="30"/>
+      <c r="AQ60" s="30"/>
+      <c r="AR60" s="30"/>
+      <c r="AS60" s="30"/>
+      <c r="AT60" s="30"/>
+      <c r="AU60" s="30"/>
+      <c r="AV60" s="30"/>
+      <c r="AW60" s="30"/>
+      <c r="AX60" s="30"/>
+      <c r="AY60" s="30"/>
+      <c r="AZ60" s="30"/>
+      <c r="BA60" s="30"/>
+      <c r="BB60" s="30"/>
+      <c r="BC60" s="30"/>
+      <c r="BD60" s="30"/>
+      <c r="BE60" s="30"/>
+      <c r="BF60" s="30"/>
+      <c r="BG60" s="30"/>
+      <c r="BH60" s="30"/>
+      <c r="BI60" s="30"/>
+      <c r="BJ60" s="30"/>
+      <c r="BK60" s="30"/>
+      <c r="BL60" s="30"/>
+      <c r="BM60" s="30"/>
+      <c r="BN60" s="30"/>
+      <c r="BO60" s="30"/>
+      <c r="BP60" s="30"/>
+      <c r="BQ60" s="30"/>
+      <c r="BR60" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="125">
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B20:B25"/>
-    <mergeCell ref="D20:F25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="P21:R21"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="S24:T24"/>
     <mergeCell ref="T25:U25"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="O39:T39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="D41:F48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="AA41:AL41"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="Y33:Z33"/>
     <mergeCell ref="Z35:AA35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:F43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D44:F51"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="O39:T39"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="AA44:AL44"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="X46:AB46"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AA49:AC49"/>
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="AQ11:AQ51"/>
+    <mergeCell ref="AQ11:AQ54"/>
     <mergeCell ref="BB9:BF9"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="AM8:BA8"/>
@@ -6745,6 +7004,11 @@
     <mergeCell ref="X9:AB9"/>
     <mergeCell ref="AC9:AG9"/>
     <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Z18"/>
     <mergeCell ref="AH9:AL9"/>
     <mergeCell ref="AM9:AQ9"/>
     <mergeCell ref="B11:B13"/>
@@ -6752,25 +7016,20 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:O12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:F51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Project Timeline/Project Timeline.xlsx
+++ b/Project Timeline/Project Timeline.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>PROJECT TIMELINE</t>
   </si>
@@ -342,7 +342,7 @@
 design issue</t>
   </si>
   <si>
-    <t>프로젝트 문서화, 디자인</t>
+    <t>프로젝트 디자인</t>
   </si>
   <si>
     <t>-프로젝트 네이밍</t>
@@ -383,6 +383,9 @@
 픽스</t>
   </si>
   <si>
+    <t>프로젝트 문서화</t>
+  </si>
+  <si>
     <t>-Use Case</t>
   </si>
   <si>
@@ -401,14 +404,47 @@
     <t>중간 발표 자료 준비</t>
   </si>
   <si>
-    <t>-중간 발표  ppt 제작</t>
+    <t>-중간 보고 동영상 콘티 제작</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중간보고
+동영상
+콘티 제작
+</t>
+  </si>
+  <si>
+    <t>-중간 보고 동영상 발표 자료 준비</t>
+  </si>
+  <si>
+    <t>동영상
+발표
+자료 준비</t>
+  </si>
+  <si>
+    <t>-중간 보고 동영상 제작</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중간 보고
+동영상 
+제작
+</t>
+  </si>
+  <si>
+    <t>-중간 발표 ppt 초안 제작</t>
+  </si>
+  <si>
+    <t>-중간 발표  ppt 수정 및 완성</t>
   </si>
   <si>
     <t>중간발표
-PPT 제작</t>
+PPT 픽스</t>
   </si>
   <si>
     <t>-중간 발표 스크립트 제작</t>
+  </si>
+  <si>
+    <t>스크립트
+제작</t>
   </si>
   <si>
     <t>-플랫폼 튜토리얼 제작</t>
@@ -416,9 +452,6 @@
   <si>
     <t>플랫폼 
 튜토리얼 제작</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>프로젝트 마무리</t>
@@ -432,7 +465,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -680,6 +713,12 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FF38761D"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF38761D"/>
       <name val="Roboto"/>
@@ -1617,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="283">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2137,6 +2176,12 @@
     <xf borderId="40" fillId="10" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2221,6 +2266,9 @@
     <xf borderId="0" fillId="7" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2292,24 +2340,31 @@
     <xf borderId="45" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="24" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="33" fillId="12" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="12" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="12" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="69" fillId="12" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="74" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="75" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="74" fillId="7" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="74" fillId="7" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="76" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2345,12 +2400,12 @@
     <xf borderId="0" fillId="13" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="50" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="51" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="24" fillId="2" fontId="47" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2375,13 +2430,13 @@
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="51" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="52" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="51" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="52" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5241,11 +5296,10 @@
       <c r="A38" s="30"/>
       <c r="B38" s="134"/>
       <c r="C38" s="61"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="189"/>
       <c r="I38" s="107"/>
       <c r="J38" s="107"/>
       <c r="K38" s="107"/>
@@ -5265,8 +5319,8 @@
       <c r="Y38" s="107"/>
       <c r="Z38" s="107"/>
       <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="107"/>
+      <c r="AB38" s="190"/>
+      <c r="AC38" s="190"/>
       <c r="AD38" s="107"/>
       <c r="AE38" s="107"/>
       <c r="AF38" s="107"/>
@@ -5311,162 +5365,161 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="30"/>
-      <c r="B39" s="189">
-        <v>3.0</v>
-      </c>
+      <c r="B39" s="134"/>
       <c r="C39" s="61"/>
-      <c r="D39" s="190" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="142"/>
-      <c r="G39" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="64"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="194"/>
-      <c r="N39" s="194"/>
-      <c r="O39" s="195" t="s">
-        <v>84</v>
-      </c>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="120"/>
-      <c r="U39" s="194"/>
-      <c r="V39" s="194"/>
-      <c r="W39" s="196"/>
-      <c r="X39" s="197"/>
-      <c r="Y39" s="194"/>
-      <c r="Z39" s="194"/>
-      <c r="AA39" s="194"/>
-      <c r="AB39" s="194"/>
-      <c r="AC39" s="194"/>
-      <c r="AD39" s="194"/>
-      <c r="AE39" s="194"/>
-      <c r="AF39" s="194"/>
-      <c r="AG39" s="194"/>
-      <c r="AH39" s="194"/>
-      <c r="AI39" s="194"/>
-      <c r="AJ39" s="194"/>
-      <c r="AK39" s="194"/>
-      <c r="AL39" s="194"/>
-      <c r="AM39" s="194"/>
-      <c r="AN39" s="194"/>
-      <c r="AO39" s="198"/>
-      <c r="AP39" s="198"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="96"/>
+      <c r="X39" s="165"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="107"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="107"/>
+      <c r="AH39" s="107"/>
+      <c r="AI39" s="107"/>
+      <c r="AJ39" s="107"/>
+      <c r="AK39" s="107"/>
+      <c r="AL39" s="107"/>
+      <c r="AM39" s="107"/>
+      <c r="AN39" s="107"/>
+      <c r="AO39" s="158"/>
+      <c r="AP39" s="158"/>
       <c r="AQ39" s="89"/>
-      <c r="AR39" s="199"/>
-      <c r="AS39" s="199"/>
-      <c r="AT39" s="199"/>
-      <c r="AU39" s="199"/>
-      <c r="AV39" s="199"/>
-      <c r="AW39" s="199"/>
-      <c r="AX39" s="199"/>
-      <c r="AY39" s="199"/>
-      <c r="AZ39" s="199"/>
-      <c r="BA39" s="200"/>
-      <c r="BB39" s="201"/>
-      <c r="BC39" s="199"/>
-      <c r="BD39" s="199"/>
-      <c r="BE39" s="199"/>
-      <c r="BF39" s="199"/>
-      <c r="BG39" s="199"/>
-      <c r="BH39" s="199"/>
-      <c r="BI39" s="199"/>
-      <c r="BJ39" s="199"/>
-      <c r="BK39" s="199"/>
-      <c r="BL39" s="199"/>
-      <c r="BM39" s="199"/>
-      <c r="BN39" s="199"/>
-      <c r="BO39" s="199"/>
-      <c r="BP39" s="200"/>
-      <c r="BQ39" s="30"/>
+      <c r="AR39" s="170"/>
+      <c r="AS39" s="170"/>
+      <c r="AT39" s="170"/>
+      <c r="AU39" s="170"/>
+      <c r="AV39" s="170"/>
+      <c r="AW39" s="170"/>
+      <c r="AX39" s="170"/>
+      <c r="AY39" s="170"/>
+      <c r="AZ39" s="170"/>
+      <c r="BA39" s="171"/>
+      <c r="BB39" s="172"/>
+      <c r="BC39" s="170"/>
+      <c r="BD39" s="170"/>
+      <c r="BE39" s="170"/>
+      <c r="BF39" s="170"/>
+      <c r="BG39" s="170"/>
+      <c r="BH39" s="170"/>
+      <c r="BI39" s="170"/>
+      <c r="BJ39" s="170"/>
+      <c r="BK39" s="170"/>
+      <c r="BL39" s="170"/>
+      <c r="BM39" s="170"/>
+      <c r="BN39" s="170"/>
+      <c r="BO39" s="170"/>
+      <c r="BP39" s="171"/>
+      <c r="BQ39" s="151"/>
       <c r="BR39" s="30"/>
     </row>
-    <row r="40" ht="41.25" customHeight="1">
+    <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="30"/>
+      <c r="B40" s="191">
+        <v>3.0</v>
+      </c>
       <c r="C40" s="61"/>
+      <c r="D40" s="192" t="s">
+        <v>82</v>
+      </c>
       <c r="F40" s="142"/>
-      <c r="G40" s="191" t="s">
-        <v>85</v>
+      <c r="G40" s="193" t="s">
+        <v>83</v>
       </c>
       <c r="H40" s="64"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="195" t="s">
-        <v>86</v>
-      </c>
-      <c r="U40" s="120"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="165"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="107"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="107"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="107"/>
-      <c r="AG40" s="107"/>
-      <c r="AH40" s="107"/>
-      <c r="AI40" s="107"/>
-      <c r="AJ40" s="107"/>
-      <c r="AK40" s="107"/>
-      <c r="AL40" s="107"/>
-      <c r="AM40" s="107"/>
-      <c r="AN40" s="107"/>
-      <c r="AO40" s="158"/>
-      <c r="AP40" s="158"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="196"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="196"/>
+      <c r="N40" s="196"/>
+      <c r="O40" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="196"/>
+      <c r="V40" s="196"/>
+      <c r="W40" s="198"/>
+      <c r="X40" s="199"/>
+      <c r="Y40" s="196"/>
+      <c r="Z40" s="196"/>
+      <c r="AA40" s="196"/>
+      <c r="AB40" s="196"/>
+      <c r="AC40" s="196"/>
+      <c r="AD40" s="196"/>
+      <c r="AE40" s="196"/>
+      <c r="AF40" s="196"/>
+      <c r="AG40" s="196"/>
+      <c r="AH40" s="196"/>
+      <c r="AI40" s="196"/>
+      <c r="AJ40" s="196"/>
+      <c r="AK40" s="196"/>
+      <c r="AL40" s="196"/>
+      <c r="AM40" s="196"/>
+      <c r="AN40" s="196"/>
+      <c r="AO40" s="200"/>
+      <c r="AP40" s="200"/>
       <c r="AQ40" s="89"/>
-      <c r="AR40" s="199"/>
-      <c r="AS40" s="199"/>
-      <c r="AT40" s="199"/>
-      <c r="AU40" s="199"/>
-      <c r="AV40" s="199"/>
-      <c r="AW40" s="199"/>
-      <c r="AX40" s="199"/>
-      <c r="AY40" s="199"/>
-      <c r="AZ40" s="199"/>
-      <c r="BA40" s="200"/>
-      <c r="BB40" s="201"/>
-      <c r="BC40" s="199"/>
-      <c r="BD40" s="199"/>
-      <c r="BE40" s="199"/>
-      <c r="BF40" s="199"/>
-      <c r="BG40" s="199"/>
-      <c r="BH40" s="199"/>
-      <c r="BI40" s="199"/>
-      <c r="BJ40" s="199"/>
-      <c r="BK40" s="199"/>
-      <c r="BL40" s="199"/>
-      <c r="BM40" s="199"/>
-      <c r="BN40" s="199"/>
-      <c r="BO40" s="199"/>
-      <c r="BP40" s="200"/>
+      <c r="AR40" s="201"/>
+      <c r="AS40" s="201"/>
+      <c r="AT40" s="201"/>
+      <c r="AU40" s="201"/>
+      <c r="AV40" s="201"/>
+      <c r="AW40" s="201"/>
+      <c r="AX40" s="201"/>
+      <c r="AY40" s="201"/>
+      <c r="AZ40" s="201"/>
+      <c r="BA40" s="202"/>
+      <c r="BB40" s="203"/>
+      <c r="BC40" s="201"/>
+      <c r="BD40" s="201"/>
+      <c r="BE40" s="201"/>
+      <c r="BF40" s="201"/>
+      <c r="BG40" s="201"/>
+      <c r="BH40" s="201"/>
+      <c r="BI40" s="201"/>
+      <c r="BJ40" s="201"/>
+      <c r="BK40" s="201"/>
+      <c r="BL40" s="201"/>
+      <c r="BM40" s="201"/>
+      <c r="BN40" s="201"/>
+      <c r="BO40" s="201"/>
+      <c r="BP40" s="202"/>
       <c r="BQ40" s="30"/>
       <c r="BR40" s="30"/>
     </row>
-    <row r="41" ht="21.0" customHeight="1">
+    <row r="41" ht="41.25" customHeight="1">
       <c r="A41" s="30"/>
       <c r="C41" s="61"/>
       <c r="F41" s="142"/>
-      <c r="G41" s="191" t="s">
-        <v>87</v>
+      <c r="G41" s="193" t="s">
+        <v>85</v>
       </c>
       <c r="H41" s="64"/>
       <c r="I41" s="107"/>
@@ -5480,12 +5533,12 @@
       <c r="Q41" s="107"/>
       <c r="R41" s="107"/>
       <c r="S41" s="107"/>
-      <c r="T41" s="107"/>
-      <c r="U41" s="107"/>
-      <c r="V41" s="195" t="s">
-        <v>88</v>
-      </c>
-      <c r="W41" s="110"/>
+      <c r="T41" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="U41" s="120"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="96"/>
       <c r="X41" s="165"/>
       <c r="Y41" s="107"/>
       <c r="Z41" s="107"/>
@@ -5506,31 +5559,31 @@
       <c r="AO41" s="158"/>
       <c r="AP41" s="158"/>
       <c r="AQ41" s="89"/>
-      <c r="AR41" s="199"/>
-      <c r="AS41" s="199"/>
-      <c r="AT41" s="199"/>
-      <c r="AU41" s="199"/>
-      <c r="AV41" s="199"/>
-      <c r="AW41" s="199"/>
-      <c r="AX41" s="199"/>
-      <c r="AY41" s="199"/>
-      <c r="AZ41" s="199"/>
-      <c r="BA41" s="200"/>
-      <c r="BB41" s="201"/>
-      <c r="BC41" s="199"/>
-      <c r="BD41" s="199"/>
-      <c r="BE41" s="199"/>
-      <c r="BF41" s="199"/>
-      <c r="BG41" s="199"/>
-      <c r="BH41" s="199"/>
-      <c r="BI41" s="199"/>
-      <c r="BJ41" s="199"/>
-      <c r="BK41" s="199"/>
-      <c r="BL41" s="199"/>
-      <c r="BM41" s="199"/>
-      <c r="BN41" s="199"/>
-      <c r="BO41" s="199"/>
-      <c r="BP41" s="200"/>
+      <c r="AR41" s="201"/>
+      <c r="AS41" s="201"/>
+      <c r="AT41" s="201"/>
+      <c r="AU41" s="201"/>
+      <c r="AV41" s="201"/>
+      <c r="AW41" s="201"/>
+      <c r="AX41" s="201"/>
+      <c r="AY41" s="201"/>
+      <c r="AZ41" s="201"/>
+      <c r="BA41" s="202"/>
+      <c r="BB41" s="203"/>
+      <c r="BC41" s="201"/>
+      <c r="BD41" s="201"/>
+      <c r="BE41" s="201"/>
+      <c r="BF41" s="201"/>
+      <c r="BG41" s="201"/>
+      <c r="BH41" s="201"/>
+      <c r="BI41" s="201"/>
+      <c r="BJ41" s="201"/>
+      <c r="BK41" s="201"/>
+      <c r="BL41" s="201"/>
+      <c r="BM41" s="201"/>
+      <c r="BN41" s="201"/>
+      <c r="BO41" s="201"/>
+      <c r="BP41" s="202"/>
       <c r="BQ41" s="30"/>
       <c r="BR41" s="30"/>
     </row>
@@ -5538,8 +5591,8 @@
       <c r="A42" s="30"/>
       <c r="C42" s="61"/>
       <c r="F42" s="142"/>
-      <c r="G42" s="191" t="s">
-        <v>89</v>
+      <c r="G42" s="193" t="s">
+        <v>87</v>
       </c>
       <c r="H42" s="64"/>
       <c r="I42" s="107"/>
@@ -5555,11 +5608,11 @@
       <c r="S42" s="107"/>
       <c r="T42" s="107"/>
       <c r="U42" s="107"/>
-      <c r="V42" s="107"/>
-      <c r="W42" s="195" t="s">
-        <v>90</v>
-      </c>
-      <c r="X42" s="120"/>
+      <c r="V42" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="W42" s="110"/>
+      <c r="X42" s="165"/>
       <c r="Y42" s="107"/>
       <c r="Z42" s="107"/>
       <c r="AA42" s="107"/>
@@ -5579,1332 +5632,1766 @@
       <c r="AO42" s="158"/>
       <c r="AP42" s="158"/>
       <c r="AQ42" s="89"/>
-      <c r="AR42" s="199"/>
-      <c r="AS42" s="199"/>
-      <c r="AT42" s="199"/>
-      <c r="AU42" s="199"/>
-      <c r="AV42" s="199"/>
-      <c r="AW42" s="199"/>
-      <c r="AX42" s="199"/>
-      <c r="AY42" s="199"/>
-      <c r="AZ42" s="199"/>
-      <c r="BA42" s="200"/>
-      <c r="BB42" s="201"/>
-      <c r="BC42" s="199"/>
-      <c r="BD42" s="199"/>
-      <c r="BE42" s="199"/>
-      <c r="BF42" s="199"/>
-      <c r="BG42" s="199"/>
-      <c r="BH42" s="199"/>
-      <c r="BI42" s="199"/>
-      <c r="BJ42" s="199"/>
-      <c r="BK42" s="199"/>
-      <c r="BL42" s="199"/>
-      <c r="BM42" s="199"/>
-      <c r="BN42" s="199"/>
-      <c r="BO42" s="199"/>
-      <c r="BP42" s="200"/>
+      <c r="AR42" s="201"/>
+      <c r="AS42" s="201"/>
+      <c r="AT42" s="201"/>
+      <c r="AU42" s="201"/>
+      <c r="AV42" s="201"/>
+      <c r="AW42" s="201"/>
+      <c r="AX42" s="201"/>
+      <c r="AY42" s="201"/>
+      <c r="AZ42" s="201"/>
+      <c r="BA42" s="202"/>
+      <c r="BB42" s="203"/>
+      <c r="BC42" s="201"/>
+      <c r="BD42" s="201"/>
+      <c r="BE42" s="201"/>
+      <c r="BF42" s="201"/>
+      <c r="BG42" s="201"/>
+      <c r="BH42" s="201"/>
+      <c r="BI42" s="201"/>
+      <c r="BJ42" s="201"/>
+      <c r="BK42" s="201"/>
+      <c r="BL42" s="201"/>
+      <c r="BM42" s="201"/>
+      <c r="BN42" s="201"/>
+      <c r="BO42" s="201"/>
+      <c r="BP42" s="202"/>
       <c r="BQ42" s="30"/>
       <c r="BR42" s="30"/>
     </row>
-    <row r="43" ht="29.25" customHeight="1">
+    <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="30"/>
       <c r="C43" s="61"/>
-      <c r="D43" s="202"/>
-      <c r="E43" s="202"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="204" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="205"/>
-      <c r="I43" s="206"/>
-      <c r="J43" s="207"/>
-      <c r="K43" s="208"/>
-      <c r="L43" s="208"/>
-      <c r="M43" s="208"/>
-      <c r="N43" s="208"/>
-      <c r="O43" s="208"/>
-      <c r="P43" s="208"/>
-      <c r="Q43" s="208"/>
-      <c r="R43" s="208"/>
-      <c r="S43" s="208"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="193" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="64"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
       <c r="T43" s="107"/>
       <c r="U43" s="107"/>
       <c r="V43" s="107"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="209" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y43" s="120"/>
+      <c r="W43" s="197" t="s">
+        <v>90</v>
+      </c>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="107"/>
       <c r="Z43" s="107"/>
-      <c r="AA43" s="208"/>
-      <c r="AB43" s="208"/>
-      <c r="AC43" s="208"/>
-      <c r="AD43" s="208"/>
-      <c r="AE43" s="208"/>
-      <c r="AF43" s="208"/>
-      <c r="AG43" s="208"/>
-      <c r="AH43" s="208"/>
-      <c r="AI43" s="208"/>
-      <c r="AJ43" s="208"/>
-      <c r="AK43" s="208"/>
-      <c r="AL43" s="210"/>
-      <c r="AM43" s="211"/>
-      <c r="AN43" s="208"/>
-      <c r="AO43" s="212"/>
-      <c r="AP43" s="213"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107"/>
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="107"/>
+      <c r="AJ43" s="107"/>
+      <c r="AK43" s="107"/>
+      <c r="AL43" s="107"/>
+      <c r="AM43" s="107"/>
+      <c r="AN43" s="107"/>
+      <c r="AO43" s="158"/>
+      <c r="AP43" s="158"/>
       <c r="AQ43" s="89"/>
-      <c r="AR43" s="214"/>
-      <c r="AS43" s="214"/>
-      <c r="AT43" s="214"/>
-      <c r="AU43" s="214"/>
-      <c r="AV43" s="214"/>
-      <c r="AW43" s="214"/>
-      <c r="AX43" s="214"/>
-      <c r="AY43" s="214"/>
-      <c r="AZ43" s="214"/>
-      <c r="BA43" s="215"/>
-      <c r="BB43" s="216"/>
-      <c r="BC43" s="214"/>
-      <c r="BD43" s="214"/>
-      <c r="BE43" s="214"/>
-      <c r="BF43" s="214"/>
-      <c r="BG43" s="214"/>
-      <c r="BH43" s="214"/>
-      <c r="BI43" s="214"/>
-      <c r="BJ43" s="214"/>
-      <c r="BK43" s="214"/>
-      <c r="BL43" s="214"/>
-      <c r="BM43" s="214"/>
-      <c r="BN43" s="214"/>
-      <c r="BO43" s="214"/>
-      <c r="BP43" s="215"/>
+      <c r="AR43" s="201"/>
+      <c r="AS43" s="201"/>
+      <c r="AT43" s="201"/>
+      <c r="AU43" s="201"/>
+      <c r="AV43" s="201"/>
+      <c r="AW43" s="201"/>
+      <c r="AX43" s="201"/>
+      <c r="AY43" s="201"/>
+      <c r="AZ43" s="201"/>
+      <c r="BA43" s="202"/>
+      <c r="BB43" s="203"/>
+      <c r="BC43" s="201"/>
+      <c r="BD43" s="201"/>
+      <c r="BE43" s="201"/>
+      <c r="BF43" s="201"/>
+      <c r="BG43" s="201"/>
+      <c r="BH43" s="201"/>
+      <c r="BI43" s="201"/>
+      <c r="BJ43" s="201"/>
+      <c r="BK43" s="201"/>
+      <c r="BL43" s="201"/>
+      <c r="BM43" s="201"/>
+      <c r="BN43" s="201"/>
+      <c r="BO43" s="201"/>
+      <c r="BP43" s="202"/>
       <c r="BQ43" s="30"/>
       <c r="BR43" s="30"/>
     </row>
-    <row r="44" ht="21.0" customHeight="1">
+    <row r="44" ht="29.25" customHeight="1">
       <c r="A44" s="30"/>
-      <c r="B44" s="217">
-        <v>4.0</v>
-      </c>
       <c r="C44" s="61"/>
-      <c r="D44" s="218"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="220"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="222"/>
-      <c r="M44" s="221"/>
-      <c r="N44" s="221"/>
-      <c r="O44" s="221"/>
-      <c r="P44" s="221"/>
-      <c r="Q44" s="221"/>
-      <c r="R44" s="221"/>
-      <c r="S44" s="221"/>
-      <c r="T44" s="223"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="224"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="225"/>
-      <c r="Z44" s="221"/>
-      <c r="AA44" s="226" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB44" s="227"/>
-      <c r="AC44" s="227"/>
-      <c r="AD44" s="227"/>
-      <c r="AE44" s="227"/>
-      <c r="AF44" s="227"/>
-      <c r="AG44" s="227"/>
-      <c r="AH44" s="227"/>
-      <c r="AI44" s="227"/>
-      <c r="AJ44" s="227"/>
-      <c r="AK44" s="227"/>
-      <c r="AL44" s="227"/>
-      <c r="AM44" s="228"/>
-      <c r="AN44" s="221"/>
-      <c r="AO44" s="229"/>
-      <c r="AP44" s="230"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="207"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="210"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="210"/>
+      <c r="P44" s="210"/>
+      <c r="Q44" s="210"/>
+      <c r="R44" s="210"/>
+      <c r="S44" s="210"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="211" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="210"/>
+      <c r="AB44" s="210"/>
+      <c r="AC44" s="210"/>
+      <c r="AD44" s="210"/>
+      <c r="AE44" s="210"/>
+      <c r="AF44" s="210"/>
+      <c r="AG44" s="210"/>
+      <c r="AH44" s="210"/>
+      <c r="AI44" s="210"/>
+      <c r="AJ44" s="210"/>
+      <c r="AK44" s="210"/>
+      <c r="AL44" s="212"/>
+      <c r="AM44" s="213"/>
+      <c r="AN44" s="210"/>
+      <c r="AO44" s="214"/>
+      <c r="AP44" s="215"/>
       <c r="AQ44" s="89"/>
-      <c r="AR44" s="214"/>
-      <c r="AS44" s="214"/>
-      <c r="AT44" s="214"/>
-      <c r="AU44" s="214"/>
-      <c r="AV44" s="214"/>
-      <c r="AW44" s="214"/>
-      <c r="AX44" s="214"/>
-      <c r="AY44" s="214"/>
-      <c r="AZ44" s="214"/>
-      <c r="BA44" s="215"/>
-      <c r="BB44" s="216"/>
-      <c r="BC44" s="214"/>
-      <c r="BD44" s="214"/>
-      <c r="BE44" s="214"/>
-      <c r="BF44" s="214"/>
-      <c r="BG44" s="214"/>
-      <c r="BH44" s="214"/>
-      <c r="BI44" s="214"/>
-      <c r="BJ44" s="214"/>
-      <c r="BK44" s="214"/>
-      <c r="BL44" s="214"/>
-      <c r="BM44" s="214"/>
-      <c r="BN44" s="214"/>
-      <c r="BO44" s="214"/>
-      <c r="BP44" s="215"/>
+      <c r="AR44" s="216"/>
+      <c r="AS44" s="216"/>
+      <c r="AT44" s="216"/>
+      <c r="AU44" s="216"/>
+      <c r="AV44" s="216"/>
+      <c r="AW44" s="216"/>
+      <c r="AX44" s="216"/>
+      <c r="AY44" s="216"/>
+      <c r="AZ44" s="216"/>
+      <c r="BA44" s="217"/>
+      <c r="BB44" s="218"/>
+      <c r="BC44" s="216"/>
+      <c r="BD44" s="216"/>
+      <c r="BE44" s="216"/>
+      <c r="BF44" s="216"/>
+      <c r="BG44" s="216"/>
+      <c r="BH44" s="216"/>
+      <c r="BI44" s="216"/>
+      <c r="BJ44" s="216"/>
+      <c r="BK44" s="216"/>
+      <c r="BL44" s="216"/>
+      <c r="BM44" s="216"/>
+      <c r="BN44" s="216"/>
+      <c r="BO44" s="216"/>
+      <c r="BP44" s="217"/>
       <c r="BQ44" s="30"/>
       <c r="BR44" s="30"/>
     </row>
-    <row r="45" ht="25.5" customHeight="1">
+    <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="30"/>
+      <c r="B45" s="219">
+        <v>4.0</v>
+      </c>
       <c r="C45" s="61"/>
+      <c r="D45" s="220" t="s">
+        <v>93</v>
+      </c>
       <c r="F45" s="64"/>
-      <c r="G45" s="218" t="s">
+      <c r="G45" s="221" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="64"/>
+      <c r="I45" s="222"/>
+      <c r="J45" s="223"/>
+      <c r="K45" s="224"/>
+      <c r="L45" s="225"/>
+      <c r="M45" s="224"/>
+      <c r="N45" s="224"/>
+      <c r="O45" s="224"/>
+      <c r="P45" s="224"/>
+      <c r="Q45" s="224"/>
+      <c r="R45" s="224"/>
+      <c r="S45" s="224"/>
+      <c r="T45" s="226"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="227"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="228"/>
+      <c r="Z45" s="224"/>
+      <c r="AA45" s="229" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="64"/>
-      <c r="I45" s="219"/>
-      <c r="J45" s="221"/>
-      <c r="K45" s="221"/>
-      <c r="L45" s="221"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="221"/>
-      <c r="O45" s="221"/>
-      <c r="P45" s="220"/>
-      <c r="Q45" s="220"/>
-      <c r="R45" s="220"/>
-      <c r="S45" s="221"/>
-      <c r="T45" s="221"/>
-      <c r="U45" s="221"/>
-      <c r="V45" s="221"/>
-      <c r="W45" s="224"/>
-      <c r="X45" s="221"/>
-      <c r="Y45" s="221"/>
-      <c r="Z45" s="221"/>
-      <c r="AA45" s="221"/>
-      <c r="AB45" s="226" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC45" s="227"/>
-      <c r="AD45" s="231"/>
-      <c r="AE45" s="220"/>
-      <c r="AF45" s="221"/>
-      <c r="AG45" s="221"/>
-      <c r="AH45" s="221"/>
-      <c r="AI45" s="221"/>
-      <c r="AJ45" s="221"/>
-      <c r="AK45" s="221"/>
-      <c r="AL45" s="232"/>
-      <c r="AM45" s="221"/>
-      <c r="AN45" s="221"/>
-      <c r="AO45" s="221"/>
-      <c r="AP45" s="221"/>
+      <c r="AB45" s="230"/>
+      <c r="AC45" s="230"/>
+      <c r="AD45" s="230"/>
+      <c r="AE45" s="230"/>
+      <c r="AF45" s="230"/>
+      <c r="AG45" s="230"/>
+      <c r="AH45" s="230"/>
+      <c r="AI45" s="230"/>
+      <c r="AJ45" s="230"/>
+      <c r="AK45" s="230"/>
+      <c r="AL45" s="230"/>
+      <c r="AM45" s="231"/>
+      <c r="AN45" s="224"/>
+      <c r="AO45" s="232"/>
+      <c r="AP45" s="233"/>
       <c r="AQ45" s="89"/>
-      <c r="AR45" s="233"/>
-      <c r="AS45" s="233"/>
-      <c r="AT45" s="233"/>
-      <c r="AU45" s="233"/>
-      <c r="AV45" s="233"/>
-      <c r="AW45" s="233"/>
-      <c r="AX45" s="233"/>
-      <c r="AY45" s="233"/>
-      <c r="AZ45" s="233"/>
-      <c r="BA45" s="234"/>
-      <c r="BB45" s="235"/>
-      <c r="BC45" s="233"/>
-      <c r="BD45" s="233"/>
-      <c r="BE45" s="233"/>
-      <c r="BF45" s="233"/>
-      <c r="BG45" s="233"/>
-      <c r="BH45" s="233"/>
-      <c r="BI45" s="233"/>
-      <c r="BJ45" s="233"/>
-      <c r="BK45" s="233"/>
-      <c r="BL45" s="233"/>
-      <c r="BM45" s="233"/>
-      <c r="BN45" s="233"/>
-      <c r="BO45" s="233"/>
-      <c r="BP45" s="234"/>
+      <c r="AR45" s="216"/>
+      <c r="AS45" s="216"/>
+      <c r="AT45" s="216"/>
+      <c r="AU45" s="216"/>
+      <c r="AV45" s="216"/>
+      <c r="AW45" s="216"/>
+      <c r="AX45" s="216"/>
+      <c r="AY45" s="216"/>
+      <c r="AZ45" s="216"/>
+      <c r="BA45" s="217"/>
+      <c r="BB45" s="218"/>
+      <c r="BC45" s="216"/>
+      <c r="BD45" s="216"/>
+      <c r="BE45" s="216"/>
+      <c r="BF45" s="216"/>
+      <c r="BG45" s="216"/>
+      <c r="BH45" s="216"/>
+      <c r="BI45" s="216"/>
+      <c r="BJ45" s="216"/>
+      <c r="BK45" s="216"/>
+      <c r="BL45" s="216"/>
+      <c r="BM45" s="216"/>
+      <c r="BN45" s="216"/>
+      <c r="BO45" s="216"/>
+      <c r="BP45" s="217"/>
       <c r="BQ45" s="30"/>
       <c r="BR45" s="30"/>
     </row>
-    <row r="46" ht="21.0" customHeight="1">
+    <row r="46" ht="25.5" customHeight="1">
       <c r="A46" s="30"/>
       <c r="C46" s="61"/>
       <c r="F46" s="64"/>
-      <c r="G46" s="218" t="s">
+      <c r="G46" s="221" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="64"/>
+      <c r="I46" s="222"/>
+      <c r="J46" s="224"/>
+      <c r="K46" s="224"/>
+      <c r="L46" s="224"/>
+      <c r="M46" s="224"/>
+      <c r="N46" s="224"/>
+      <c r="O46" s="224"/>
+      <c r="P46" s="223"/>
+      <c r="Q46" s="223"/>
+      <c r="R46" s="223"/>
+      <c r="S46" s="224"/>
+      <c r="T46" s="224"/>
+      <c r="U46" s="224"/>
+      <c r="V46" s="224"/>
+      <c r="W46" s="227"/>
+      <c r="X46" s="224"/>
+      <c r="Y46" s="224"/>
+      <c r="Z46" s="224"/>
+      <c r="AA46" s="224"/>
+      <c r="AB46" s="229" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="64"/>
-      <c r="I46" s="219"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="222"/>
-      <c r="L46" s="222"/>
-      <c r="N46" s="222"/>
-      <c r="O46" s="222"/>
-      <c r="P46" s="222"/>
-      <c r="Q46" s="222"/>
-      <c r="R46" s="222"/>
-      <c r="S46" s="222"/>
-      <c r="T46" s="222"/>
-      <c r="U46" s="222"/>
-      <c r="V46" s="222"/>
-      <c r="W46" s="224"/>
-      <c r="X46" s="237" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="66"/>
-      <c r="AC46" s="222"/>
-      <c r="AD46" s="222"/>
-      <c r="AE46" s="222"/>
-      <c r="AF46" s="222"/>
-      <c r="AG46" s="222"/>
-      <c r="AH46" s="222"/>
-      <c r="AI46" s="222"/>
-      <c r="AJ46" s="222"/>
-      <c r="AK46" s="222"/>
-      <c r="AL46" s="224"/>
-      <c r="AM46" s="238"/>
-      <c r="AN46" s="222"/>
-      <c r="AO46" s="239"/>
-      <c r="AP46" s="240"/>
+      <c r="AC46" s="230"/>
+      <c r="AD46" s="234"/>
+      <c r="AE46" s="223"/>
+      <c r="AF46" s="224"/>
+      <c r="AG46" s="224"/>
+      <c r="AH46" s="224"/>
+      <c r="AI46" s="224"/>
+      <c r="AJ46" s="224"/>
+      <c r="AK46" s="224"/>
+      <c r="AL46" s="235"/>
+      <c r="AM46" s="224"/>
+      <c r="AN46" s="224"/>
+      <c r="AO46" s="224"/>
+      <c r="AP46" s="224"/>
       <c r="AQ46" s="89"/>
-      <c r="AR46" s="241"/>
-      <c r="AS46" s="241"/>
-      <c r="AT46" s="241"/>
-      <c r="AU46" s="241"/>
-      <c r="AV46" s="241"/>
-      <c r="AW46" s="241"/>
-      <c r="AX46" s="241"/>
-      <c r="AY46" s="241"/>
-      <c r="AZ46" s="241"/>
-      <c r="BA46" s="242"/>
-      <c r="BB46" s="243"/>
-      <c r="BC46" s="241"/>
-      <c r="BD46" s="241"/>
-      <c r="BE46" s="241"/>
-      <c r="BF46" s="241"/>
-      <c r="BG46" s="241"/>
-      <c r="BH46" s="241"/>
-      <c r="BI46" s="241"/>
-      <c r="BJ46" s="241"/>
-      <c r="BK46" s="241"/>
-      <c r="BL46" s="241"/>
-      <c r="BM46" s="241"/>
-      <c r="BN46" s="241"/>
-      <c r="BO46" s="241"/>
-      <c r="BP46" s="242"/>
+      <c r="AR46" s="236"/>
+      <c r="AS46" s="236"/>
+      <c r="AT46" s="236"/>
+      <c r="AU46" s="236"/>
+      <c r="AV46" s="236"/>
+      <c r="AW46" s="236"/>
+      <c r="AX46" s="236"/>
+      <c r="AY46" s="236"/>
+      <c r="AZ46" s="236"/>
+      <c r="BA46" s="237"/>
+      <c r="BB46" s="238"/>
+      <c r="BC46" s="236"/>
+      <c r="BD46" s="236"/>
+      <c r="BE46" s="236"/>
+      <c r="BF46" s="236"/>
+      <c r="BG46" s="236"/>
+      <c r="BH46" s="236"/>
+      <c r="BI46" s="236"/>
+      <c r="BJ46" s="236"/>
+      <c r="BK46" s="236"/>
+      <c r="BL46" s="236"/>
+      <c r="BM46" s="236"/>
+      <c r="BN46" s="236"/>
+      <c r="BO46" s="236"/>
+      <c r="BP46" s="237"/>
       <c r="BQ46" s="30"/>
       <c r="BR46" s="30"/>
     </row>
-    <row r="47" ht="27.75" customHeight="1">
+    <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="30"/>
       <c r="C47" s="61"/>
       <c r="F47" s="64"/>
-      <c r="G47" s="218" t="s">
+      <c r="G47" s="221" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="64"/>
+      <c r="I47" s="222"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="225"/>
+      <c r="L47" s="225"/>
+      <c r="N47" s="225"/>
+      <c r="O47" s="225"/>
+      <c r="P47" s="225"/>
+      <c r="Q47" s="225"/>
+      <c r="R47" s="225"/>
+      <c r="S47" s="225"/>
+      <c r="T47" s="225"/>
+      <c r="U47" s="225"/>
+      <c r="V47" s="225"/>
+      <c r="W47" s="227"/>
+      <c r="X47" s="240" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="64"/>
-      <c r="I47" s="219"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="222"/>
-      <c r="L47" s="222"/>
-      <c r="N47" s="222"/>
-      <c r="O47" s="222"/>
-      <c r="P47" s="222"/>
-      <c r="Q47" s="222"/>
-      <c r="R47" s="222"/>
-      <c r="S47" s="222"/>
-      <c r="T47" s="222"/>
-      <c r="U47" s="222"/>
-      <c r="V47" s="222"/>
-      <c r="W47" s="224"/>
-      <c r="X47" s="238"/>
-      <c r="Y47" s="222"/>
-      <c r="Z47" s="222"/>
-      <c r="AA47" s="222"/>
-      <c r="AB47" s="244" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="222"/>
-      <c r="AE47" s="222"/>
-      <c r="AF47" s="222"/>
-      <c r="AG47" s="222"/>
-      <c r="AH47" s="222"/>
-      <c r="AI47" s="222"/>
-      <c r="AJ47" s="222"/>
-      <c r="AK47" s="222"/>
-      <c r="AL47" s="224"/>
-      <c r="AM47" s="238"/>
-      <c r="AN47" s="222"/>
-      <c r="AO47" s="239"/>
-      <c r="AP47" s="240"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="79"/>
+      <c r="AA47" s="79"/>
+      <c r="AB47" s="66"/>
+      <c r="AC47" s="225"/>
+      <c r="AD47" s="225"/>
+      <c r="AE47" s="225"/>
+      <c r="AF47" s="225"/>
+      <c r="AG47" s="225"/>
+      <c r="AH47" s="225"/>
+      <c r="AI47" s="225"/>
+      <c r="AJ47" s="225"/>
+      <c r="AK47" s="225"/>
+      <c r="AL47" s="227"/>
+      <c r="AM47" s="241"/>
+      <c r="AN47" s="225"/>
+      <c r="AO47" s="242"/>
+      <c r="AP47" s="243"/>
       <c r="AQ47" s="89"/>
-      <c r="AR47" s="241"/>
-      <c r="AS47" s="241"/>
-      <c r="AT47" s="241"/>
-      <c r="AU47" s="241"/>
-      <c r="AV47" s="241"/>
-      <c r="AW47" s="241"/>
-      <c r="AX47" s="241"/>
-      <c r="AY47" s="241"/>
-      <c r="AZ47" s="241"/>
-      <c r="BA47" s="242"/>
-      <c r="BB47" s="243"/>
-      <c r="BC47" s="241"/>
-      <c r="BD47" s="241"/>
-      <c r="BE47" s="241"/>
-      <c r="BF47" s="241"/>
-      <c r="BG47" s="241"/>
-      <c r="BH47" s="241"/>
-      <c r="BI47" s="241"/>
-      <c r="BJ47" s="241"/>
-      <c r="BK47" s="241"/>
-      <c r="BL47" s="241"/>
-      <c r="BM47" s="241"/>
-      <c r="BN47" s="241"/>
-      <c r="BO47" s="241"/>
-      <c r="BP47" s="242"/>
+      <c r="AR47" s="244"/>
+      <c r="AS47" s="244"/>
+      <c r="AT47" s="244"/>
+      <c r="AU47" s="244"/>
+      <c r="AV47" s="244"/>
+      <c r="AW47" s="244"/>
+      <c r="AX47" s="244"/>
+      <c r="AY47" s="244"/>
+      <c r="AZ47" s="244"/>
+      <c r="BA47" s="245"/>
+      <c r="BB47" s="246"/>
+      <c r="BC47" s="244"/>
+      <c r="BD47" s="244"/>
+      <c r="BE47" s="244"/>
+      <c r="BF47" s="244"/>
+      <c r="BG47" s="244"/>
+      <c r="BH47" s="244"/>
+      <c r="BI47" s="244"/>
+      <c r="BJ47" s="244"/>
+      <c r="BK47" s="244"/>
+      <c r="BL47" s="244"/>
+      <c r="BM47" s="244"/>
+      <c r="BN47" s="244"/>
+      <c r="BO47" s="244"/>
+      <c r="BP47" s="245"/>
       <c r="BQ47" s="30"/>
       <c r="BR47" s="30"/>
     </row>
-    <row r="48" ht="21.0" customHeight="1">
+    <row r="48" ht="34.5" customHeight="1">
       <c r="A48" s="30"/>
       <c r="C48" s="61"/>
       <c r="F48" s="64"/>
-      <c r="G48" s="218" t="s">
+      <c r="G48" s="221" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="64"/>
+      <c r="I48" s="247"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="224"/>
+      <c r="M48" s="224"/>
+      <c r="N48" s="224"/>
+      <c r="O48" s="224"/>
+      <c r="P48" s="224"/>
+      <c r="Q48" s="224"/>
+      <c r="R48" s="224"/>
+      <c r="S48" s="224"/>
+      <c r="T48" s="224"/>
+      <c r="U48" s="224"/>
+      <c r="V48" s="224"/>
+      <c r="W48" s="235"/>
+      <c r="X48" s="224"/>
+      <c r="Y48" s="226"/>
+      <c r="Z48" s="228"/>
+      <c r="AA48" s="248" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="64"/>
-      <c r="I48" s="219"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="222"/>
-      <c r="L48" s="222"/>
-      <c r="N48" s="222"/>
-      <c r="O48" s="222"/>
-      <c r="P48" s="222"/>
-      <c r="Q48" s="222"/>
-      <c r="R48" s="222"/>
-      <c r="S48" s="222"/>
-      <c r="T48" s="222"/>
-      <c r="U48" s="222"/>
-      <c r="V48" s="222"/>
-      <c r="W48" s="224"/>
-      <c r="X48" s="245"/>
-      <c r="Y48" s="222"/>
-      <c r="Z48" s="222"/>
-      <c r="AA48" s="222"/>
-      <c r="AB48" s="222"/>
-      <c r="AC48" s="222"/>
-      <c r="AD48" s="222"/>
-      <c r="AE48" s="222"/>
-      <c r="AF48" s="222"/>
-      <c r="AG48" s="222"/>
-      <c r="AH48" s="222"/>
-      <c r="AI48" s="222"/>
-      <c r="AJ48" s="222"/>
-      <c r="AK48" s="222"/>
-      <c r="AL48" s="224"/>
-      <c r="AM48" s="245"/>
-      <c r="AN48" s="222"/>
-      <c r="AO48" s="239"/>
-      <c r="AP48" s="246"/>
+      <c r="AB48" s="249"/>
+      <c r="AC48" s="224"/>
+      <c r="AD48" s="224"/>
+      <c r="AE48" s="224"/>
+      <c r="AF48" s="224"/>
+      <c r="AG48" s="224"/>
+      <c r="AH48" s="224"/>
+      <c r="AI48" s="224"/>
+      <c r="AJ48" s="224"/>
+      <c r="AK48" s="224"/>
+      <c r="AL48" s="235"/>
+      <c r="AM48" s="224"/>
+      <c r="AN48" s="224"/>
+      <c r="AO48" s="224"/>
+      <c r="AP48" s="224"/>
       <c r="AQ48" s="89"/>
-      <c r="AR48" s="199"/>
-      <c r="AS48" s="199"/>
-      <c r="AT48" s="199"/>
-      <c r="AU48" s="199"/>
-      <c r="AV48" s="199"/>
-      <c r="AW48" s="199"/>
-      <c r="AX48" s="199"/>
-      <c r="AY48" s="199"/>
-      <c r="AZ48" s="199"/>
-      <c r="BA48" s="200"/>
-      <c r="BB48" s="201"/>
-      <c r="BC48" s="199"/>
-      <c r="BD48" s="199"/>
-      <c r="BE48" s="199"/>
-      <c r="BF48" s="199"/>
-      <c r="BG48" s="199"/>
-      <c r="BH48" s="199"/>
-      <c r="BI48" s="199"/>
-      <c r="BJ48" s="199"/>
-      <c r="BK48" s="199"/>
-      <c r="BL48" s="199"/>
-      <c r="BM48" s="199"/>
-      <c r="BN48" s="199"/>
-      <c r="BO48" s="199"/>
-      <c r="BP48" s="200"/>
+      <c r="AR48" s="244"/>
+      <c r="AS48" s="244"/>
+      <c r="AT48" s="244"/>
+      <c r="AU48" s="244"/>
+      <c r="AV48" s="244"/>
+      <c r="AW48" s="244"/>
+      <c r="AX48" s="244"/>
+      <c r="AY48" s="244"/>
+      <c r="AZ48" s="244"/>
+      <c r="BA48" s="245"/>
+      <c r="BB48" s="246"/>
+      <c r="BC48" s="244"/>
+      <c r="BD48" s="244"/>
+      <c r="BE48" s="244"/>
+      <c r="BF48" s="244"/>
+      <c r="BG48" s="244"/>
+      <c r="BH48" s="244"/>
+      <c r="BI48" s="244"/>
+      <c r="BJ48" s="244"/>
+      <c r="BK48" s="244"/>
+      <c r="BL48" s="244"/>
+      <c r="BM48" s="244"/>
+      <c r="BN48" s="244"/>
+      <c r="BO48" s="244"/>
+      <c r="BP48" s="245"/>
       <c r="BQ48" s="30"/>
       <c r="BR48" s="30"/>
     </row>
-    <row r="49" ht="31.5" customHeight="1">
+    <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="30"/>
       <c r="C49" s="61"/>
       <c r="F49" s="64"/>
-      <c r="G49" s="218" t="s">
+      <c r="G49" s="221" t="s">
         <v>102</v>
       </c>
       <c r="H49" s="64"/>
       <c r="I49" s="247"/>
-      <c r="J49" s="220"/>
-      <c r="K49" s="221"/>
-      <c r="L49" s="221"/>
-      <c r="M49" s="221"/>
-      <c r="N49" s="221"/>
-      <c r="O49" s="221"/>
-      <c r="P49" s="221"/>
-      <c r="Q49" s="221"/>
-      <c r="R49" s="221"/>
-      <c r="S49" s="221"/>
-      <c r="T49" s="221"/>
-      <c r="U49" s="221"/>
-      <c r="V49" s="221"/>
-      <c r="W49" s="232"/>
-      <c r="X49" s="228"/>
-      <c r="Y49" s="221"/>
-      <c r="Z49" s="221"/>
-      <c r="AA49" s="248" t="s">
+      <c r="J49" s="223"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="224"/>
+      <c r="M49" s="224"/>
+      <c r="N49" s="224"/>
+      <c r="O49" s="224"/>
+      <c r="P49" s="224"/>
+      <c r="Q49" s="224"/>
+      <c r="R49" s="224"/>
+      <c r="S49" s="224"/>
+      <c r="T49" s="224"/>
+      <c r="U49" s="224"/>
+      <c r="V49" s="224"/>
+      <c r="W49" s="235"/>
+      <c r="X49" s="224"/>
+      <c r="Y49" s="224"/>
+      <c r="Z49" s="224"/>
+      <c r="AA49" s="224"/>
+      <c r="AB49" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="AB49" s="227"/>
-      <c r="AC49" s="227"/>
-      <c r="AD49" s="222"/>
-      <c r="AE49" s="222"/>
-      <c r="AF49" s="222"/>
-      <c r="AG49" s="222"/>
-      <c r="AH49" s="222"/>
-      <c r="AI49" s="222"/>
-      <c r="AJ49" s="222"/>
-      <c r="AK49" s="222"/>
-      <c r="AL49" s="224"/>
-      <c r="AM49" s="245"/>
-      <c r="AN49" s="222"/>
-      <c r="AO49" s="239"/>
-      <c r="AP49" s="246"/>
+      <c r="AC49" s="234"/>
+      <c r="AD49" s="224"/>
+      <c r="AE49" s="224"/>
+      <c r="AF49" s="224"/>
+      <c r="AG49" s="224"/>
+      <c r="AH49" s="224"/>
+      <c r="AI49" s="224"/>
+      <c r="AJ49" s="224"/>
+      <c r="AK49" s="224"/>
+      <c r="AL49" s="227"/>
+      <c r="AM49" s="250"/>
+      <c r="AN49" s="225"/>
+      <c r="AO49" s="242"/>
+      <c r="AP49" s="251"/>
       <c r="AQ49" s="89"/>
-      <c r="AR49" s="214"/>
-      <c r="AS49" s="214"/>
-      <c r="AT49" s="214"/>
-      <c r="AU49" s="214"/>
-      <c r="AV49" s="214"/>
-      <c r="AW49" s="214"/>
-      <c r="AX49" s="214"/>
-      <c r="AY49" s="214"/>
-      <c r="AZ49" s="214"/>
-      <c r="BA49" s="215"/>
-      <c r="BB49" s="216"/>
-      <c r="BC49" s="214"/>
-      <c r="BD49" s="214"/>
-      <c r="BE49" s="214"/>
-      <c r="BF49" s="214"/>
-      <c r="BG49" s="214"/>
-      <c r="BH49" s="214"/>
-      <c r="BI49" s="214"/>
-      <c r="BJ49" s="214"/>
-      <c r="BK49" s="214"/>
-      <c r="BL49" s="214"/>
-      <c r="BM49" s="214"/>
-      <c r="BN49" s="214"/>
-      <c r="BO49" s="214"/>
-      <c r="BP49" s="215"/>
+      <c r="AR49" s="244"/>
+      <c r="AS49" s="244"/>
+      <c r="AT49" s="244"/>
+      <c r="AU49" s="244"/>
+      <c r="AV49" s="244"/>
+      <c r="AW49" s="244"/>
+      <c r="AX49" s="244"/>
+      <c r="AY49" s="244"/>
+      <c r="AZ49" s="244"/>
+      <c r="BA49" s="245"/>
+      <c r="BB49" s="246"/>
+      <c r="BC49" s="244"/>
+      <c r="BD49" s="244"/>
+      <c r="BE49" s="244"/>
+      <c r="BF49" s="244"/>
+      <c r="BG49" s="244"/>
+      <c r="BH49" s="244"/>
+      <c r="BI49" s="244"/>
+      <c r="BJ49" s="244"/>
+      <c r="BK49" s="244"/>
+      <c r="BL49" s="244"/>
+      <c r="BM49" s="244"/>
+      <c r="BN49" s="244"/>
+      <c r="BO49" s="244"/>
+      <c r="BP49" s="245"/>
       <c r="BQ49" s="30"/>
       <c r="BR49" s="30"/>
     </row>
-    <row r="50" ht="21.0" customHeight="1">
+    <row r="50" ht="36.0" customHeight="1">
       <c r="A50" s="30"/>
       <c r="C50" s="61"/>
       <c r="F50" s="64"/>
-      <c r="G50" s="218" t="s">
+      <c r="G50" s="221" t="s">
         <v>104</v>
       </c>
       <c r="H50" s="64"/>
       <c r="I50" s="247"/>
-      <c r="J50" s="220"/>
-      <c r="K50" s="221"/>
-      <c r="L50" s="221"/>
-      <c r="M50" s="221"/>
-      <c r="N50" s="221"/>
-      <c r="O50" s="221"/>
-      <c r="P50" s="221"/>
-      <c r="Q50" s="221"/>
-      <c r="R50" s="221"/>
-      <c r="S50" s="221"/>
-      <c r="T50" s="221"/>
-      <c r="U50" s="221"/>
-      <c r="V50" s="221"/>
-      <c r="W50" s="232"/>
-      <c r="X50" s="228"/>
-      <c r="Y50" s="221"/>
-      <c r="Z50" s="221"/>
-      <c r="AA50" s="221"/>
-      <c r="AB50" s="221"/>
-      <c r="AC50" s="221"/>
-      <c r="AD50" s="221"/>
-      <c r="AE50" s="221"/>
-      <c r="AF50" s="221"/>
-      <c r="AG50" s="221"/>
-      <c r="AH50" s="221"/>
-      <c r="AI50" s="221"/>
-      <c r="AJ50" s="221"/>
-      <c r="AK50" s="221"/>
-      <c r="AL50" s="232"/>
-      <c r="AM50" s="228"/>
-      <c r="AN50" s="221"/>
-      <c r="AO50" s="229"/>
-      <c r="AP50" s="230"/>
+      <c r="J50" s="223"/>
+      <c r="K50" s="224"/>
+      <c r="L50" s="224"/>
+      <c r="M50" s="224"/>
+      <c r="N50" s="224"/>
+      <c r="O50" s="224"/>
+      <c r="P50" s="224"/>
+      <c r="Q50" s="224"/>
+      <c r="R50" s="224"/>
+      <c r="S50" s="224"/>
+      <c r="T50" s="224"/>
+      <c r="U50" s="224"/>
+      <c r="V50" s="224"/>
+      <c r="W50" s="235"/>
+      <c r="X50" s="224"/>
+      <c r="Y50" s="224"/>
+      <c r="Z50" s="224"/>
+      <c r="AA50" s="224"/>
+      <c r="AB50" s="229" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC50" s="234"/>
+      <c r="AD50" s="224"/>
+      <c r="AE50" s="224"/>
+      <c r="AF50" s="224"/>
+      <c r="AG50" s="224"/>
+      <c r="AH50" s="224"/>
+      <c r="AI50" s="224"/>
+      <c r="AJ50" s="224"/>
+      <c r="AK50" s="224"/>
+      <c r="AL50" s="235"/>
+      <c r="AM50" s="250"/>
+      <c r="AN50" s="225"/>
+      <c r="AO50" s="242"/>
+      <c r="AP50" s="251"/>
       <c r="AQ50" s="89"/>
-      <c r="AR50" s="214"/>
-      <c r="AS50" s="214"/>
-      <c r="AT50" s="214"/>
-      <c r="AU50" s="214"/>
-      <c r="AV50" s="214"/>
-      <c r="AW50" s="214"/>
-      <c r="AX50" s="214"/>
-      <c r="AY50" s="214"/>
-      <c r="AZ50" s="214"/>
-      <c r="BA50" s="215"/>
-      <c r="BB50" s="216"/>
-      <c r="BC50" s="214"/>
-      <c r="BD50" s="214"/>
-      <c r="BE50" s="214"/>
-      <c r="BF50" s="214"/>
-      <c r="BG50" s="214"/>
-      <c r="BH50" s="214"/>
-      <c r="BI50" s="214"/>
-      <c r="BJ50" s="214"/>
-      <c r="BK50" s="214"/>
-      <c r="BL50" s="214"/>
-      <c r="BM50" s="214"/>
-      <c r="BN50" s="214"/>
-      <c r="BO50" s="214"/>
-      <c r="BP50" s="215"/>
+      <c r="AR50" s="244"/>
+      <c r="AS50" s="244"/>
+      <c r="AT50" s="244"/>
+      <c r="AU50" s="244"/>
+      <c r="AV50" s="244"/>
+      <c r="AW50" s="244"/>
+      <c r="AX50" s="244"/>
+      <c r="AY50" s="244"/>
+      <c r="AZ50" s="244"/>
+      <c r="BA50" s="245"/>
+      <c r="BB50" s="246"/>
+      <c r="BC50" s="244"/>
+      <c r="BD50" s="244"/>
+      <c r="BE50" s="244"/>
+      <c r="BF50" s="244"/>
+      <c r="BG50" s="244"/>
+      <c r="BH50" s="244"/>
+      <c r="BI50" s="244"/>
+      <c r="BJ50" s="244"/>
+      <c r="BK50" s="244"/>
+      <c r="BL50" s="244"/>
+      <c r="BM50" s="244"/>
+      <c r="BN50" s="244"/>
+      <c r="BO50" s="244"/>
+      <c r="BP50" s="245"/>
       <c r="BQ50" s="30"/>
       <c r="BR50" s="30"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="30"/>
       <c r="C51" s="61"/>
-      <c r="D51" s="249"/>
-      <c r="E51" s="249"/>
-      <c r="F51" s="250"/>
-      <c r="G51" s="251"/>
-      <c r="H51" s="250"/>
-      <c r="I51" s="252"/>
-      <c r="J51" s="253"/>
-      <c r="K51" s="254"/>
-      <c r="L51" s="254"/>
-      <c r="M51" s="254"/>
-      <c r="N51" s="254"/>
-      <c r="O51" s="254"/>
-      <c r="P51" s="254"/>
-      <c r="Q51" s="254"/>
-      <c r="R51" s="254"/>
-      <c r="S51" s="254"/>
-      <c r="T51" s="254"/>
-      <c r="U51" s="254"/>
-      <c r="V51" s="254"/>
-      <c r="W51" s="255"/>
-      <c r="X51" s="256"/>
-      <c r="Y51" s="254"/>
-      <c r="Z51" s="254"/>
-      <c r="AA51" s="254"/>
-      <c r="AB51" s="254"/>
-      <c r="AC51" s="254"/>
-      <c r="AD51" s="254"/>
-      <c r="AE51" s="254"/>
-      <c r="AF51" s="254"/>
-      <c r="AG51" s="254"/>
-      <c r="AH51" s="254"/>
-      <c r="AI51" s="254"/>
-      <c r="AJ51" s="254"/>
-      <c r="AK51" s="254"/>
-      <c r="AL51" s="255"/>
-      <c r="AM51" s="256"/>
-      <c r="AN51" s="254"/>
-      <c r="AO51" s="257"/>
-      <c r="AP51" s="258"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="221"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="247"/>
+      <c r="J51" s="223"/>
+      <c r="K51" s="224"/>
+      <c r="L51" s="224"/>
+      <c r="M51" s="224"/>
+      <c r="N51" s="224"/>
+      <c r="O51" s="224"/>
+      <c r="P51" s="224"/>
+      <c r="Q51" s="224"/>
+      <c r="R51" s="224"/>
+      <c r="S51" s="224"/>
+      <c r="T51" s="224"/>
+      <c r="U51" s="224"/>
+      <c r="V51" s="224"/>
+      <c r="W51" s="235"/>
+      <c r="X51" s="224"/>
+      <c r="Y51" s="224"/>
+      <c r="Z51" s="224"/>
+      <c r="AA51" s="224"/>
+      <c r="AB51" s="224"/>
+      <c r="AC51" s="224"/>
+      <c r="AD51" s="224"/>
+      <c r="AE51" s="224"/>
+      <c r="AF51" s="224"/>
+      <c r="AG51" s="224"/>
+      <c r="AH51" s="224"/>
+      <c r="AI51" s="224"/>
+      <c r="AJ51" s="224"/>
+      <c r="AK51" s="224"/>
+      <c r="AL51" s="235"/>
+      <c r="AM51" s="250"/>
+      <c r="AN51" s="225"/>
+      <c r="AO51" s="242"/>
+      <c r="AP51" s="251"/>
       <c r="AQ51" s="89"/>
-      <c r="AR51" s="259"/>
-      <c r="AS51" s="259"/>
-      <c r="AT51" s="259"/>
-      <c r="AU51" s="259"/>
-      <c r="AV51" s="259"/>
-      <c r="AW51" s="259"/>
-      <c r="AX51" s="259"/>
-      <c r="AY51" s="259"/>
-      <c r="AZ51" s="259"/>
-      <c r="BA51" s="260"/>
-      <c r="BB51" s="261"/>
-      <c r="BC51" s="259"/>
-      <c r="BD51" s="259"/>
-      <c r="BE51" s="259"/>
-      <c r="BF51" s="259"/>
-      <c r="BG51" s="259"/>
-      <c r="BH51" s="259"/>
-      <c r="BI51" s="259"/>
-      <c r="BJ51" s="259"/>
-      <c r="BK51" s="259"/>
-      <c r="BL51" s="259"/>
-      <c r="BM51" s="259"/>
-      <c r="BN51" s="259"/>
-      <c r="BO51" s="259"/>
-      <c r="BP51" s="260"/>
+      <c r="AR51" s="244"/>
+      <c r="AS51" s="244"/>
+      <c r="AT51" s="244"/>
+      <c r="AU51" s="244"/>
+      <c r="AV51" s="244"/>
+      <c r="AW51" s="244"/>
+      <c r="AX51" s="244"/>
+      <c r="AY51" s="244"/>
+      <c r="AZ51" s="244"/>
+      <c r="BA51" s="245"/>
+      <c r="BB51" s="246"/>
+      <c r="BC51" s="244"/>
+      <c r="BD51" s="244"/>
+      <c r="BE51" s="244"/>
+      <c r="BF51" s="244"/>
+      <c r="BG51" s="244"/>
+      <c r="BH51" s="244"/>
+      <c r="BI51" s="244"/>
+      <c r="BJ51" s="244"/>
+      <c r="BK51" s="244"/>
+      <c r="BL51" s="244"/>
+      <c r="BM51" s="244"/>
+      <c r="BN51" s="244"/>
+      <c r="BO51" s="244"/>
+      <c r="BP51" s="245"/>
       <c r="BQ51" s="30"/>
       <c r="BR51" s="30"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="30"/>
-      <c r="B52" s="262">
-        <v>5.0</v>
-      </c>
       <c r="C52" s="61"/>
-      <c r="D52" s="263" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="264"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="221" t="s">
+        <v>106</v>
+      </c>
       <c r="H52" s="64"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="222"/>
-      <c r="L52" s="222"/>
-      <c r="M52" s="222"/>
-      <c r="N52" s="222"/>
-      <c r="O52" s="222"/>
-      <c r="P52" s="222"/>
-      <c r="Q52" s="222"/>
-      <c r="R52" s="222"/>
-      <c r="S52" s="222"/>
-      <c r="T52" s="222"/>
-      <c r="U52" s="222"/>
-      <c r="V52" s="222"/>
-      <c r="W52" s="224"/>
-      <c r="X52" s="245"/>
-      <c r="Y52" s="222"/>
-      <c r="Z52" s="222"/>
-      <c r="AA52" s="222"/>
-      <c r="AB52" s="222"/>
-      <c r="AC52" s="222"/>
-      <c r="AD52" s="222"/>
-      <c r="AE52" s="222"/>
-      <c r="AF52" s="222"/>
-      <c r="AG52" s="222"/>
-      <c r="AH52" s="222"/>
-      <c r="AI52" s="222"/>
-      <c r="AJ52" s="222"/>
-      <c r="AK52" s="222"/>
-      <c r="AL52" s="224"/>
-      <c r="AM52" s="245"/>
-      <c r="AN52" s="222"/>
-      <c r="AO52" s="239"/>
-      <c r="AP52" s="246"/>
+      <c r="I52" s="247"/>
+      <c r="J52" s="223"/>
+      <c r="K52" s="224"/>
+      <c r="L52" s="224"/>
+      <c r="M52" s="224"/>
+      <c r="N52" s="224"/>
+      <c r="O52" s="224"/>
+      <c r="P52" s="224"/>
+      <c r="Q52" s="224"/>
+      <c r="R52" s="224"/>
+      <c r="S52" s="224"/>
+      <c r="T52" s="224"/>
+      <c r="U52" s="224"/>
+      <c r="V52" s="224"/>
+      <c r="W52" s="235"/>
+      <c r="X52" s="224"/>
+      <c r="Y52" s="224"/>
+      <c r="Z52" s="224"/>
+      <c r="AA52" s="224"/>
+      <c r="AB52" s="252"/>
+      <c r="AC52" s="224"/>
+      <c r="AD52" s="224"/>
+      <c r="AE52" s="224"/>
+      <c r="AF52" s="224"/>
+      <c r="AG52" s="224"/>
+      <c r="AH52" s="224"/>
+      <c r="AI52" s="224"/>
+      <c r="AJ52" s="224"/>
+      <c r="AK52" s="224"/>
+      <c r="AL52" s="235"/>
+      <c r="AM52" s="250"/>
+      <c r="AN52" s="225"/>
+      <c r="AO52" s="242"/>
+      <c r="AP52" s="251"/>
       <c r="AQ52" s="89"/>
-      <c r="AR52" s="199"/>
-      <c r="AS52" s="199"/>
-      <c r="AT52" s="199"/>
-      <c r="AU52" s="199"/>
-      <c r="AV52" s="199"/>
-      <c r="AW52" s="199"/>
-      <c r="AX52" s="199"/>
-      <c r="AY52" s="199"/>
-      <c r="AZ52" s="199"/>
-      <c r="BA52" s="200"/>
-      <c r="BB52" s="201"/>
-      <c r="BC52" s="199"/>
-      <c r="BD52" s="199"/>
-      <c r="BE52" s="199"/>
-      <c r="BF52" s="199"/>
-      <c r="BG52" s="199"/>
-      <c r="BH52" s="199"/>
-      <c r="BI52" s="199"/>
-      <c r="BJ52" s="199"/>
-      <c r="BK52" s="199"/>
-      <c r="BL52" s="199"/>
-      <c r="BM52" s="199"/>
-      <c r="BN52" s="199"/>
-      <c r="BO52" s="199"/>
-      <c r="BP52" s="200"/>
+      <c r="AR52" s="244"/>
+      <c r="AS52" s="244"/>
+      <c r="AT52" s="244"/>
+      <c r="AU52" s="244"/>
+      <c r="AV52" s="244"/>
+      <c r="AW52" s="244"/>
+      <c r="AX52" s="244"/>
+      <c r="AY52" s="244"/>
+      <c r="AZ52" s="244"/>
+      <c r="BA52" s="245"/>
+      <c r="BB52" s="246"/>
+      <c r="BC52" s="244"/>
+      <c r="BD52" s="244"/>
+      <c r="BE52" s="244"/>
+      <c r="BF52" s="244"/>
+      <c r="BG52" s="244"/>
+      <c r="BH52" s="244"/>
+      <c r="BI52" s="244"/>
+      <c r="BJ52" s="244"/>
+      <c r="BK52" s="244"/>
+      <c r="BL52" s="244"/>
+      <c r="BM52" s="244"/>
+      <c r="BN52" s="244"/>
+      <c r="BO52" s="244"/>
+      <c r="BP52" s="245"/>
       <c r="BQ52" s="30"/>
       <c r="BR52" s="30"/>
     </row>
-    <row r="53" ht="21.0" customHeight="1">
+    <row r="53" ht="27.75" customHeight="1">
       <c r="A53" s="30"/>
       <c r="C53" s="61"/>
-      <c r="G53" s="264"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="221" t="s">
+        <v>107</v>
+      </c>
       <c r="H53" s="64"/>
-      <c r="I53" s="247"/>
-      <c r="J53" s="220"/>
-      <c r="K53" s="221"/>
-      <c r="L53" s="221"/>
-      <c r="M53" s="221"/>
-      <c r="N53" s="221"/>
-      <c r="O53" s="221"/>
-      <c r="P53" s="221"/>
-      <c r="Q53" s="221"/>
-      <c r="R53" s="221"/>
-      <c r="S53" s="221"/>
-      <c r="T53" s="221"/>
-      <c r="U53" s="221"/>
-      <c r="V53" s="221"/>
-      <c r="W53" s="232"/>
-      <c r="X53" s="228"/>
-      <c r="Y53" s="221"/>
-      <c r="Z53" s="221"/>
-      <c r="AA53" s="221"/>
-      <c r="AB53" s="221"/>
-      <c r="AC53" s="221"/>
-      <c r="AD53" s="221"/>
-      <c r="AE53" s="221"/>
-      <c r="AF53" s="221"/>
-      <c r="AG53" s="221"/>
-      <c r="AH53" s="221"/>
-      <c r="AI53" s="221"/>
-      <c r="AJ53" s="221"/>
-      <c r="AK53" s="221"/>
-      <c r="AL53" s="232"/>
-      <c r="AM53" s="228"/>
-      <c r="AN53" s="221"/>
-      <c r="AO53" s="229"/>
-      <c r="AP53" s="230"/>
+      <c r="I53" s="222"/>
+      <c r="J53" s="239"/>
+      <c r="K53" s="225"/>
+      <c r="L53" s="225"/>
+      <c r="N53" s="225"/>
+      <c r="O53" s="225"/>
+      <c r="P53" s="225"/>
+      <c r="Q53" s="225"/>
+      <c r="R53" s="225"/>
+      <c r="S53" s="225"/>
+      <c r="T53" s="225"/>
+      <c r="U53" s="225"/>
+      <c r="V53" s="225"/>
+      <c r="W53" s="227"/>
+      <c r="X53" s="224"/>
+      <c r="Y53" s="224"/>
+      <c r="Z53" s="224"/>
+      <c r="AA53" s="225"/>
+      <c r="AB53" s="253" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC53" s="66"/>
+      <c r="AD53" s="225"/>
+      <c r="AE53" s="225"/>
+      <c r="AF53" s="225"/>
+      <c r="AG53" s="225"/>
+      <c r="AH53" s="225"/>
+      <c r="AI53" s="225"/>
+      <c r="AJ53" s="225"/>
+      <c r="AK53" s="225"/>
+      <c r="AL53" s="227"/>
+      <c r="AM53" s="250"/>
+      <c r="AN53" s="225"/>
+      <c r="AO53" s="242"/>
+      <c r="AP53" s="251"/>
       <c r="AQ53" s="89"/>
-      <c r="AR53" s="214"/>
-      <c r="AS53" s="214"/>
-      <c r="AT53" s="214"/>
-      <c r="AU53" s="214"/>
-      <c r="AV53" s="214"/>
-      <c r="AW53" s="214"/>
-      <c r="AX53" s="214"/>
-      <c r="AY53" s="214"/>
-      <c r="AZ53" s="214"/>
-      <c r="BA53" s="215"/>
-      <c r="BB53" s="216"/>
-      <c r="BC53" s="214"/>
-      <c r="BD53" s="214"/>
-      <c r="BE53" s="214"/>
-      <c r="BF53" s="214"/>
-      <c r="BG53" s="214"/>
-      <c r="BH53" s="214"/>
-      <c r="BI53" s="214"/>
-      <c r="BJ53" s="214"/>
-      <c r="BK53" s="214"/>
-      <c r="BL53" s="214"/>
-      <c r="BM53" s="214"/>
-      <c r="BN53" s="214"/>
-      <c r="BO53" s="214"/>
-      <c r="BP53" s="215"/>
+      <c r="AR53" s="244"/>
+      <c r="AS53" s="244"/>
+      <c r="AT53" s="244"/>
+      <c r="AU53" s="244"/>
+      <c r="AV53" s="244"/>
+      <c r="AW53" s="244"/>
+      <c r="AX53" s="244"/>
+      <c r="AY53" s="244"/>
+      <c r="AZ53" s="244"/>
+      <c r="BA53" s="245"/>
+      <c r="BB53" s="246"/>
+      <c r="BC53" s="244"/>
+      <c r="BD53" s="244"/>
+      <c r="BE53" s="244"/>
+      <c r="BF53" s="244"/>
+      <c r="BG53" s="244"/>
+      <c r="BH53" s="244"/>
+      <c r="BI53" s="244"/>
+      <c r="BJ53" s="244"/>
+      <c r="BK53" s="244"/>
+      <c r="BL53" s="244"/>
+      <c r="BM53" s="244"/>
+      <c r="BN53" s="244"/>
+      <c r="BO53" s="244"/>
+      <c r="BP53" s="245"/>
       <c r="BQ53" s="30"/>
       <c r="BR53" s="30"/>
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="30"/>
       <c r="C54" s="61"/>
-      <c r="G54" s="264"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="221" t="s">
+        <v>109</v>
+      </c>
       <c r="H54" s="64"/>
-      <c r="I54" s="265"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="229"/>
-      <c r="L54" s="229"/>
-      <c r="M54" s="229"/>
-      <c r="N54" s="229"/>
-      <c r="O54" s="229"/>
-      <c r="P54" s="229"/>
-      <c r="Q54" s="229"/>
-      <c r="R54" s="229"/>
-      <c r="S54" s="229"/>
-      <c r="T54" s="229"/>
-      <c r="U54" s="229"/>
-      <c r="V54" s="229"/>
-      <c r="W54" s="267"/>
-      <c r="X54" s="268"/>
-      <c r="Y54" s="229"/>
-      <c r="Z54" s="229"/>
-      <c r="AA54" s="229"/>
-      <c r="AB54" s="229"/>
-      <c r="AC54" s="229"/>
-      <c r="AD54" s="229"/>
-      <c r="AE54" s="229"/>
-      <c r="AF54" s="229"/>
-      <c r="AG54" s="229"/>
-      <c r="AH54" s="229"/>
-      <c r="AI54" s="229"/>
-      <c r="AJ54" s="229"/>
-      <c r="AK54" s="229"/>
-      <c r="AL54" s="267"/>
-      <c r="AM54" s="268"/>
-      <c r="AN54" s="229"/>
-      <c r="AO54" s="229"/>
-      <c r="AP54" s="230"/>
+      <c r="I54" s="222"/>
+      <c r="J54" s="239"/>
+      <c r="K54" s="225"/>
+      <c r="L54" s="225"/>
+      <c r="N54" s="225"/>
+      <c r="O54" s="225"/>
+      <c r="P54" s="225"/>
+      <c r="Q54" s="225"/>
+      <c r="R54" s="225"/>
+      <c r="S54" s="225"/>
+      <c r="T54" s="225"/>
+      <c r="U54" s="225"/>
+      <c r="V54" s="225"/>
+      <c r="W54" s="227"/>
+      <c r="X54" s="250"/>
+      <c r="Y54" s="225"/>
+      <c r="Z54" s="225"/>
+      <c r="AA54" s="225"/>
+      <c r="AB54" s="253" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC54" s="66"/>
+      <c r="AD54" s="225"/>
+      <c r="AE54" s="225"/>
+      <c r="AF54" s="225"/>
+      <c r="AG54" s="225"/>
+      <c r="AH54" s="225"/>
+      <c r="AI54" s="225"/>
+      <c r="AJ54" s="225"/>
+      <c r="AK54" s="225"/>
+      <c r="AL54" s="227"/>
+      <c r="AM54" s="250"/>
+      <c r="AN54" s="225"/>
+      <c r="AO54" s="242"/>
+      <c r="AP54" s="251"/>
       <c r="AQ54" s="89"/>
-      <c r="AR54" s="214"/>
-      <c r="AS54" s="214"/>
-      <c r="AT54" s="214"/>
-      <c r="AU54" s="214"/>
-      <c r="AV54" s="214"/>
-      <c r="AW54" s="214"/>
-      <c r="AX54" s="214"/>
-      <c r="AY54" s="214"/>
-      <c r="AZ54" s="214"/>
-      <c r="BA54" s="215"/>
-      <c r="BB54" s="216"/>
-      <c r="BC54" s="214"/>
-      <c r="BD54" s="214"/>
-      <c r="BE54" s="214"/>
-      <c r="BF54" s="214"/>
-      <c r="BG54" s="214"/>
-      <c r="BH54" s="214"/>
-      <c r="BI54" s="214"/>
-      <c r="BJ54" s="214"/>
-      <c r="BK54" s="214"/>
-      <c r="BL54" s="214"/>
-      <c r="BM54" s="214"/>
-      <c r="BN54" s="214"/>
-      <c r="BO54" s="214"/>
-      <c r="BP54" s="215"/>
+      <c r="AR54" s="201"/>
+      <c r="AS54" s="201"/>
+      <c r="AT54" s="201"/>
+      <c r="AU54" s="201"/>
+      <c r="AV54" s="201"/>
+      <c r="AW54" s="201"/>
+      <c r="AX54" s="201"/>
+      <c r="AY54" s="201"/>
+      <c r="AZ54" s="201"/>
+      <c r="BA54" s="202"/>
+      <c r="BB54" s="203"/>
+      <c r="BC54" s="201"/>
+      <c r="BD54" s="201"/>
+      <c r="BE54" s="201"/>
+      <c r="BF54" s="201"/>
+      <c r="BG54" s="201"/>
+      <c r="BH54" s="201"/>
+      <c r="BI54" s="201"/>
+      <c r="BJ54" s="201"/>
+      <c r="BK54" s="201"/>
+      <c r="BL54" s="201"/>
+      <c r="BM54" s="201"/>
+      <c r="BN54" s="201"/>
+      <c r="BO54" s="201"/>
+      <c r="BP54" s="202"/>
       <c r="BQ54" s="30"/>
       <c r="BR54" s="30"/>
     </row>
-    <row r="55" ht="21.0" customHeight="1">
+    <row r="55" ht="31.5" customHeight="1">
       <c r="A55" s="30"/>
-      <c r="B55" s="269"/>
-      <c r="C55" s="269"/>
-      <c r="D55" s="270"/>
-      <c r="E55" s="270"/>
-      <c r="F55" s="271"/>
-      <c r="G55" s="271"/>
-      <c r="H55" s="272"/>
-      <c r="I55" s="273"/>
-      <c r="J55" s="274"/>
-      <c r="K55" s="275"/>
-      <c r="L55" s="275"/>
-      <c r="M55" s="275"/>
-      <c r="N55" s="275"/>
-      <c r="O55" s="275"/>
-      <c r="P55" s="275"/>
-      <c r="Q55" s="275"/>
-      <c r="R55" s="275"/>
-      <c r="S55" s="275"/>
-      <c r="T55" s="275"/>
-      <c r="U55" s="275"/>
-      <c r="V55" s="275"/>
-      <c r="W55" s="275"/>
-      <c r="X55" s="275"/>
-      <c r="Y55" s="275"/>
-      <c r="Z55" s="275"/>
-      <c r="AA55" s="275"/>
-      <c r="AB55" s="275"/>
-      <c r="AC55" s="275"/>
-      <c r="AD55" s="275"/>
-      <c r="AE55" s="275"/>
-      <c r="AF55" s="275"/>
-      <c r="AG55" s="275"/>
-      <c r="AH55" s="275"/>
-      <c r="AI55" s="275"/>
-      <c r="AJ55" s="275"/>
-      <c r="AK55" s="275"/>
-      <c r="AL55" s="275"/>
-      <c r="AM55" s="275"/>
-      <c r="AN55" s="275"/>
-      <c r="AO55" s="275"/>
-      <c r="AP55" s="275"/>
-      <c r="AQ55" s="275"/>
-      <c r="AR55" s="275"/>
-      <c r="AS55" s="275"/>
-      <c r="AT55" s="275"/>
-      <c r="AU55" s="275"/>
-      <c r="AV55" s="275"/>
-      <c r="AW55" s="275"/>
-      <c r="AX55" s="275"/>
-      <c r="AY55" s="275"/>
-      <c r="AZ55" s="275"/>
-      <c r="BA55" s="275"/>
-      <c r="BB55" s="275"/>
-      <c r="BC55" s="275"/>
-      <c r="BD55" s="275"/>
-      <c r="BE55" s="275"/>
-      <c r="BF55" s="275"/>
-      <c r="BG55" s="275"/>
-      <c r="BH55" s="275"/>
-      <c r="BI55" s="275"/>
-      <c r="BJ55" s="275"/>
-      <c r="BK55" s="275"/>
-      <c r="BL55" s="275"/>
-      <c r="BM55" s="275"/>
-      <c r="BN55" s="275"/>
-      <c r="BO55" s="275"/>
-      <c r="BP55" s="275"/>
+      <c r="C55" s="61"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="221" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="64"/>
+      <c r="I55" s="247"/>
+      <c r="J55" s="223"/>
+      <c r="K55" s="224"/>
+      <c r="L55" s="224"/>
+      <c r="M55" s="224"/>
+      <c r="N55" s="224"/>
+      <c r="O55" s="224"/>
+      <c r="P55" s="224"/>
+      <c r="Q55" s="224"/>
+      <c r="R55" s="224"/>
+      <c r="S55" s="224"/>
+      <c r="T55" s="224"/>
+      <c r="U55" s="224"/>
+      <c r="V55" s="224"/>
+      <c r="W55" s="235"/>
+      <c r="X55" s="231"/>
+      <c r="Y55" s="224"/>
+      <c r="Z55" s="224"/>
+      <c r="AA55" s="254" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB55" s="230"/>
+      <c r="AC55" s="230"/>
+      <c r="AD55" s="225"/>
+      <c r="AE55" s="225"/>
+      <c r="AF55" s="225"/>
+      <c r="AG55" s="225"/>
+      <c r="AH55" s="225"/>
+      <c r="AI55" s="225"/>
+      <c r="AJ55" s="225"/>
+      <c r="AK55" s="225"/>
+      <c r="AL55" s="227"/>
+      <c r="AM55" s="250"/>
+      <c r="AN55" s="225"/>
+      <c r="AO55" s="242"/>
+      <c r="AP55" s="251"/>
+      <c r="AQ55" s="89"/>
+      <c r="AR55" s="216"/>
+      <c r="AS55" s="216"/>
+      <c r="AT55" s="216"/>
+      <c r="AU55" s="216"/>
+      <c r="AV55" s="216"/>
+      <c r="AW55" s="216"/>
+      <c r="AX55" s="216"/>
+      <c r="AY55" s="216"/>
+      <c r="AZ55" s="216"/>
+      <c r="BA55" s="217"/>
+      <c r="BB55" s="218"/>
+      <c r="BC55" s="216"/>
+      <c r="BD55" s="216"/>
+      <c r="BE55" s="216"/>
+      <c r="BF55" s="216"/>
+      <c r="BG55" s="216"/>
+      <c r="BH55" s="216"/>
+      <c r="BI55" s="216"/>
+      <c r="BJ55" s="216"/>
+      <c r="BK55" s="216"/>
+      <c r="BL55" s="216"/>
+      <c r="BM55" s="216"/>
+      <c r="BN55" s="216"/>
+      <c r="BO55" s="216"/>
+      <c r="BP55" s="217"/>
       <c r="BQ55" s="30"/>
       <c r="BR55" s="30"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="30"/>
-      <c r="B56" s="269"/>
-      <c r="C56" s="269"/>
-      <c r="D56" s="270"/>
-      <c r="E56" s="270"/>
-      <c r="F56" s="271"/>
-      <c r="G56" s="271"/>
-      <c r="H56" s="272"/>
-      <c r="I56" s="273"/>
-      <c r="J56" s="274"/>
-      <c r="K56" s="275"/>
-      <c r="L56" s="275"/>
-      <c r="M56" s="275"/>
-      <c r="N56" s="275"/>
-      <c r="O56" s="275"/>
-      <c r="P56" s="275"/>
-      <c r="Q56" s="275"/>
-      <c r="R56" s="275"/>
-      <c r="S56" s="275"/>
-      <c r="T56" s="275"/>
-      <c r="U56" s="275"/>
-      <c r="V56" s="275"/>
-      <c r="W56" s="275"/>
-      <c r="X56" s="275"/>
-      <c r="Y56" s="275"/>
-      <c r="Z56" s="275"/>
-      <c r="AA56" s="275"/>
-      <c r="AB56" s="275"/>
-      <c r="AC56" s="275"/>
-      <c r="AD56" s="275"/>
-      <c r="AE56" s="275"/>
-      <c r="AF56" s="275"/>
-      <c r="AG56" s="275"/>
-      <c r="AH56" s="275"/>
-      <c r="AI56" s="275"/>
-      <c r="AJ56" s="275"/>
-      <c r="AK56" s="275"/>
-      <c r="AL56" s="275"/>
-      <c r="AM56" s="275"/>
-      <c r="AN56" s="275"/>
-      <c r="AO56" s="275"/>
-      <c r="AP56" s="275"/>
-      <c r="AQ56" s="275"/>
-      <c r="AR56" s="275"/>
-      <c r="AS56" s="275"/>
-      <c r="AT56" s="275"/>
-      <c r="AU56" s="275"/>
-      <c r="AV56" s="275"/>
-      <c r="AW56" s="275"/>
-      <c r="AX56" s="275"/>
-      <c r="AY56" s="275"/>
-      <c r="AZ56" s="275"/>
-      <c r="BA56" s="275"/>
-      <c r="BB56" s="275"/>
-      <c r="BC56" s="275"/>
-      <c r="BD56" s="275"/>
-      <c r="BE56" s="275"/>
-      <c r="BF56" s="275"/>
-      <c r="BG56" s="275"/>
-      <c r="BH56" s="275"/>
-      <c r="BI56" s="275"/>
-      <c r="BJ56" s="275"/>
-      <c r="BK56" s="275"/>
-      <c r="BL56" s="275"/>
-      <c r="BM56" s="275"/>
-      <c r="BN56" s="275"/>
-      <c r="BO56" s="275"/>
-      <c r="BP56" s="275"/>
+      <c r="C56" s="61"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="247"/>
+      <c r="J56" s="223"/>
+      <c r="K56" s="224"/>
+      <c r="L56" s="224"/>
+      <c r="M56" s="224"/>
+      <c r="N56" s="224"/>
+      <c r="O56" s="224"/>
+      <c r="P56" s="224"/>
+      <c r="Q56" s="224"/>
+      <c r="R56" s="224"/>
+      <c r="S56" s="224"/>
+      <c r="T56" s="224"/>
+      <c r="U56" s="224"/>
+      <c r="V56" s="224"/>
+      <c r="W56" s="235"/>
+      <c r="X56" s="231"/>
+      <c r="Y56" s="224"/>
+      <c r="Z56" s="224"/>
+      <c r="AA56" s="224"/>
+      <c r="AB56" s="224"/>
+      <c r="AC56" s="224"/>
+      <c r="AD56" s="224"/>
+      <c r="AE56" s="224"/>
+      <c r="AF56" s="224"/>
+      <c r="AG56" s="224"/>
+      <c r="AH56" s="224"/>
+      <c r="AI56" s="224"/>
+      <c r="AJ56" s="224"/>
+      <c r="AK56" s="224"/>
+      <c r="AL56" s="235"/>
+      <c r="AM56" s="231"/>
+      <c r="AN56" s="224"/>
+      <c r="AO56" s="232"/>
+      <c r="AP56" s="233"/>
+      <c r="AQ56" s="89"/>
+      <c r="AR56" s="216"/>
+      <c r="AS56" s="216"/>
+      <c r="AT56" s="216"/>
+      <c r="AU56" s="216"/>
+      <c r="AV56" s="216"/>
+      <c r="AW56" s="216"/>
+      <c r="AX56" s="216"/>
+      <c r="AY56" s="216"/>
+      <c r="AZ56" s="216"/>
+      <c r="BA56" s="217"/>
+      <c r="BB56" s="218"/>
+      <c r="BC56" s="216"/>
+      <c r="BD56" s="216"/>
+      <c r="BE56" s="216"/>
+      <c r="BF56" s="216"/>
+      <c r="BG56" s="216"/>
+      <c r="BH56" s="216"/>
+      <c r="BI56" s="216"/>
+      <c r="BJ56" s="216"/>
+      <c r="BK56" s="216"/>
+      <c r="BL56" s="216"/>
+      <c r="BM56" s="216"/>
+      <c r="BN56" s="216"/>
+      <c r="BO56" s="216"/>
+      <c r="BP56" s="217"/>
       <c r="BQ56" s="30"/>
       <c r="BR56" s="30"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="30"/>
-      <c r="B57" s="269"/>
-      <c r="C57" s="269"/>
-      <c r="D57" s="270"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="271"/>
-      <c r="G57" s="271"/>
-      <c r="H57" s="272"/>
-      <c r="I57" s="273"/>
-      <c r="J57" s="274"/>
-      <c r="K57" s="275"/>
-      <c r="L57" s="275"/>
-      <c r="M57" s="275"/>
-      <c r="N57" s="275"/>
-      <c r="O57" s="275"/>
-      <c r="P57" s="275"/>
-      <c r="Q57" s="275"/>
-      <c r="R57" s="275"/>
-      <c r="S57" s="275"/>
-      <c r="T57" s="275"/>
-      <c r="U57" s="275"/>
-      <c r="V57" s="275"/>
-      <c r="W57" s="275"/>
-      <c r="X57" s="275"/>
-      <c r="Y57" s="275"/>
-      <c r="Z57" s="275"/>
-      <c r="AA57" s="275"/>
-      <c r="AB57" s="275"/>
-      <c r="AC57" s="275"/>
-      <c r="AD57" s="275"/>
-      <c r="AE57" s="275"/>
-      <c r="AF57" s="275"/>
-      <c r="AG57" s="275"/>
-      <c r="AH57" s="275"/>
-      <c r="AI57" s="275"/>
-      <c r="AJ57" s="275"/>
-      <c r="AK57" s="275"/>
-      <c r="AL57" s="275"/>
-      <c r="AM57" s="275"/>
-      <c r="AN57" s="275"/>
-      <c r="AO57" s="275"/>
-      <c r="AP57" s="275"/>
-      <c r="AQ57" s="275"/>
-      <c r="AR57" s="275"/>
-      <c r="AS57" s="275"/>
-      <c r="AT57" s="275"/>
-      <c r="AU57" s="275"/>
-      <c r="AV57" s="275"/>
-      <c r="AW57" s="275"/>
-      <c r="AX57" s="275"/>
-      <c r="AY57" s="275"/>
-      <c r="AZ57" s="275"/>
-      <c r="BA57" s="275"/>
-      <c r="BB57" s="275"/>
-      <c r="BC57" s="275"/>
-      <c r="BD57" s="275"/>
-      <c r="BE57" s="275"/>
-      <c r="BF57" s="275"/>
-      <c r="BG57" s="275"/>
-      <c r="BH57" s="275"/>
-      <c r="BI57" s="275"/>
-      <c r="BJ57" s="275"/>
-      <c r="BK57" s="275"/>
-      <c r="BL57" s="275"/>
-      <c r="BM57" s="275"/>
-      <c r="BN57" s="275"/>
-      <c r="BO57" s="275"/>
-      <c r="BP57" s="275"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="255"/>
+      <c r="E57" s="255"/>
+      <c r="F57" s="256"/>
+      <c r="G57" s="257"/>
+      <c r="H57" s="256"/>
+      <c r="I57" s="258"/>
+      <c r="J57" s="259"/>
+      <c r="K57" s="260"/>
+      <c r="L57" s="260"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="260"/>
+      <c r="O57" s="260"/>
+      <c r="P57" s="260"/>
+      <c r="Q57" s="260"/>
+      <c r="R57" s="260"/>
+      <c r="S57" s="260"/>
+      <c r="T57" s="260"/>
+      <c r="U57" s="260"/>
+      <c r="V57" s="260"/>
+      <c r="W57" s="261"/>
+      <c r="X57" s="262"/>
+      <c r="Y57" s="260"/>
+      <c r="Z57" s="260"/>
+      <c r="AA57" s="260"/>
+      <c r="AB57" s="260"/>
+      <c r="AC57" s="260"/>
+      <c r="AD57" s="260"/>
+      <c r="AE57" s="260"/>
+      <c r="AF57" s="260"/>
+      <c r="AG57" s="260"/>
+      <c r="AH57" s="260"/>
+      <c r="AI57" s="260"/>
+      <c r="AJ57" s="260"/>
+      <c r="AK57" s="260"/>
+      <c r="AL57" s="261"/>
+      <c r="AM57" s="262"/>
+      <c r="AN57" s="260"/>
+      <c r="AO57" s="263"/>
+      <c r="AP57" s="264"/>
+      <c r="AQ57" s="89"/>
+      <c r="AR57" s="265"/>
+      <c r="AS57" s="265"/>
+      <c r="AT57" s="265"/>
+      <c r="AU57" s="265"/>
+      <c r="AV57" s="265"/>
+      <c r="AW57" s="265"/>
+      <c r="AX57" s="265"/>
+      <c r="AY57" s="265"/>
+      <c r="AZ57" s="265"/>
+      <c r="BA57" s="266"/>
+      <c r="BB57" s="267"/>
+      <c r="BC57" s="265"/>
+      <c r="BD57" s="265"/>
+      <c r="BE57" s="265"/>
+      <c r="BF57" s="265"/>
+      <c r="BG57" s="265"/>
+      <c r="BH57" s="265"/>
+      <c r="BI57" s="265"/>
+      <c r="BJ57" s="265"/>
+      <c r="BK57" s="265"/>
+      <c r="BL57" s="265"/>
+      <c r="BM57" s="265"/>
+      <c r="BN57" s="265"/>
+      <c r="BO57" s="265"/>
+      <c r="BP57" s="266"/>
       <c r="BQ57" s="30"/>
       <c r="BR57" s="30"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="276"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="30"/>
-      <c r="AH58" s="30"/>
-      <c r="AI58" s="30"/>
-      <c r="AJ58" s="30"/>
-      <c r="AK58" s="30"/>
-      <c r="AL58" s="30"/>
-      <c r="AM58" s="30"/>
-      <c r="AN58" s="30"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="30"/>
-      <c r="AQ58" s="30"/>
-      <c r="AR58" s="30"/>
-      <c r="AS58" s="30"/>
-      <c r="AT58" s="30"/>
-      <c r="AU58" s="30"/>
-      <c r="AV58" s="30"/>
-      <c r="AW58" s="30"/>
-      <c r="AX58" s="30"/>
-      <c r="AY58" s="30"/>
-      <c r="AZ58" s="30"/>
-      <c r="BA58" s="30"/>
-      <c r="BB58" s="30"/>
-      <c r="BC58" s="30"/>
-      <c r="BD58" s="30"/>
-      <c r="BE58" s="30"/>
-      <c r="BF58" s="30"/>
-      <c r="BG58" s="30"/>
-      <c r="BH58" s="30"/>
-      <c r="BI58" s="30"/>
-      <c r="BJ58" s="30"/>
-      <c r="BK58" s="30"/>
-      <c r="BL58" s="30"/>
-      <c r="BM58" s="30"/>
-      <c r="BN58" s="30"/>
-      <c r="BO58" s="30"/>
-      <c r="BP58" s="30"/>
+      <c r="B58" s="268">
+        <v>5.0</v>
+      </c>
+      <c r="C58" s="61"/>
+      <c r="D58" s="269" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="270"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="222"/>
+      <c r="J58" s="239"/>
+      <c r="K58" s="225"/>
+      <c r="L58" s="225"/>
+      <c r="M58" s="225"/>
+      <c r="N58" s="225"/>
+      <c r="O58" s="225"/>
+      <c r="P58" s="225"/>
+      <c r="Q58" s="225"/>
+      <c r="R58" s="225"/>
+      <c r="S58" s="225"/>
+      <c r="T58" s="225"/>
+      <c r="U58" s="225"/>
+      <c r="V58" s="225"/>
+      <c r="W58" s="227"/>
+      <c r="X58" s="250"/>
+      <c r="Y58" s="225"/>
+      <c r="Z58" s="225"/>
+      <c r="AA58" s="225"/>
+      <c r="AB58" s="225"/>
+      <c r="AC58" s="225"/>
+      <c r="AD58" s="225"/>
+      <c r="AE58" s="225"/>
+      <c r="AF58" s="225"/>
+      <c r="AG58" s="225"/>
+      <c r="AH58" s="225"/>
+      <c r="AI58" s="225"/>
+      <c r="AJ58" s="225"/>
+      <c r="AK58" s="225"/>
+      <c r="AL58" s="227"/>
+      <c r="AM58" s="250"/>
+      <c r="AN58" s="225"/>
+      <c r="AO58" s="242"/>
+      <c r="AP58" s="251"/>
+      <c r="AQ58" s="89"/>
+      <c r="AR58" s="201"/>
+      <c r="AS58" s="201"/>
+      <c r="AT58" s="201"/>
+      <c r="AU58" s="201"/>
+      <c r="AV58" s="201"/>
+      <c r="AW58" s="201"/>
+      <c r="AX58" s="201"/>
+      <c r="AY58" s="201"/>
+      <c r="AZ58" s="201"/>
+      <c r="BA58" s="202"/>
+      <c r="BB58" s="203"/>
+      <c r="BC58" s="201"/>
+      <c r="BD58" s="201"/>
+      <c r="BE58" s="201"/>
+      <c r="BF58" s="201"/>
+      <c r="BG58" s="201"/>
+      <c r="BH58" s="201"/>
+      <c r="BI58" s="201"/>
+      <c r="BJ58" s="201"/>
+      <c r="BK58" s="201"/>
+      <c r="BL58" s="201"/>
+      <c r="BM58" s="201"/>
+      <c r="BN58" s="201"/>
+      <c r="BO58" s="201"/>
+      <c r="BP58" s="202"/>
       <c r="BQ58" s="30"/>
       <c r="BR58" s="30"/>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="276"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="30"/>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="30"/>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="30"/>
-      <c r="AE59" s="30"/>
-      <c r="AF59" s="30"/>
-      <c r="AG59" s="30"/>
-      <c r="AH59" s="30"/>
-      <c r="AI59" s="30"/>
-      <c r="AJ59" s="30"/>
-      <c r="AK59" s="30"/>
-      <c r="AL59" s="30"/>
-      <c r="AM59" s="30"/>
-      <c r="AN59" s="30"/>
-      <c r="AO59" s="30"/>
-      <c r="AP59" s="30"/>
-      <c r="AQ59" s="30"/>
-      <c r="AR59" s="30"/>
-      <c r="AS59" s="30"/>
-      <c r="AT59" s="30"/>
-      <c r="AU59" s="30"/>
-      <c r="AV59" s="30"/>
-      <c r="AW59" s="30"/>
-      <c r="AX59" s="30"/>
-      <c r="AY59" s="30"/>
-      <c r="AZ59" s="30"/>
-      <c r="BA59" s="30"/>
-      <c r="BB59" s="30"/>
-      <c r="BC59" s="30"/>
-      <c r="BD59" s="30"/>
-      <c r="BE59" s="30"/>
-      <c r="BF59" s="30"/>
-      <c r="BG59" s="30"/>
-      <c r="BH59" s="30"/>
-      <c r="BI59" s="30"/>
-      <c r="BJ59" s="30"/>
-      <c r="BK59" s="30"/>
-      <c r="BL59" s="30"/>
-      <c r="BM59" s="30"/>
-      <c r="BN59" s="30"/>
-      <c r="BO59" s="30"/>
-      <c r="BP59" s="30"/>
+      <c r="C59" s="61"/>
+      <c r="G59" s="270"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="247"/>
+      <c r="J59" s="223"/>
+      <c r="K59" s="224"/>
+      <c r="L59" s="224"/>
+      <c r="M59" s="224"/>
+      <c r="N59" s="224"/>
+      <c r="O59" s="224"/>
+      <c r="P59" s="224"/>
+      <c r="Q59" s="224"/>
+      <c r="R59" s="224"/>
+      <c r="S59" s="224"/>
+      <c r="T59" s="224"/>
+      <c r="U59" s="224"/>
+      <c r="V59" s="224"/>
+      <c r="W59" s="235"/>
+      <c r="X59" s="231"/>
+      <c r="Y59" s="224"/>
+      <c r="Z59" s="224"/>
+      <c r="AA59" s="224"/>
+      <c r="AB59" s="224"/>
+      <c r="AC59" s="224"/>
+      <c r="AD59" s="224"/>
+      <c r="AE59" s="224"/>
+      <c r="AF59" s="224"/>
+      <c r="AG59" s="224"/>
+      <c r="AH59" s="224"/>
+      <c r="AI59" s="224"/>
+      <c r="AJ59" s="224"/>
+      <c r="AK59" s="224"/>
+      <c r="AL59" s="235"/>
+      <c r="AM59" s="231"/>
+      <c r="AN59" s="224"/>
+      <c r="AO59" s="232"/>
+      <c r="AP59" s="233"/>
+      <c r="AQ59" s="89"/>
+      <c r="AR59" s="216"/>
+      <c r="AS59" s="216"/>
+      <c r="AT59" s="216"/>
+      <c r="AU59" s="216"/>
+      <c r="AV59" s="216"/>
+      <c r="AW59" s="216"/>
+      <c r="AX59" s="216"/>
+      <c r="AY59" s="216"/>
+      <c r="AZ59" s="216"/>
+      <c r="BA59" s="217"/>
+      <c r="BB59" s="218"/>
+      <c r="BC59" s="216"/>
+      <c r="BD59" s="216"/>
+      <c r="BE59" s="216"/>
+      <c r="BF59" s="216"/>
+      <c r="BG59" s="216"/>
+      <c r="BH59" s="216"/>
+      <c r="BI59" s="216"/>
+      <c r="BJ59" s="216"/>
+      <c r="BK59" s="216"/>
+      <c r="BL59" s="216"/>
+      <c r="BM59" s="216"/>
+      <c r="BN59" s="216"/>
+      <c r="BO59" s="216"/>
+      <c r="BP59" s="217"/>
       <c r="BQ59" s="30"/>
       <c r="BR59" s="30"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="276"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="30"/>
-      <c r="Y60" s="30"/>
-      <c r="Z60" s="30"/>
-      <c r="AA60" s="30"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="30"/>
-      <c r="AE60" s="30"/>
-      <c r="AF60" s="30"/>
-      <c r="AG60" s="30"/>
-      <c r="AH60" s="30"/>
-      <c r="AI60" s="30"/>
-      <c r="AJ60" s="30"/>
-      <c r="AK60" s="30"/>
-      <c r="AL60" s="30"/>
-      <c r="AM60" s="30"/>
-      <c r="AN60" s="30"/>
-      <c r="AO60" s="30"/>
-      <c r="AP60" s="30"/>
-      <c r="AQ60" s="30"/>
-      <c r="AR60" s="30"/>
-      <c r="AS60" s="30"/>
-      <c r="AT60" s="30"/>
-      <c r="AU60" s="30"/>
-      <c r="AV60" s="30"/>
-      <c r="AW60" s="30"/>
-      <c r="AX60" s="30"/>
-      <c r="AY60" s="30"/>
-      <c r="AZ60" s="30"/>
-      <c r="BA60" s="30"/>
-      <c r="BB60" s="30"/>
-      <c r="BC60" s="30"/>
-      <c r="BD60" s="30"/>
-      <c r="BE60" s="30"/>
-      <c r="BF60" s="30"/>
-      <c r="BG60" s="30"/>
-      <c r="BH60" s="30"/>
-      <c r="BI60" s="30"/>
-      <c r="BJ60" s="30"/>
-      <c r="BK60" s="30"/>
-      <c r="BL60" s="30"/>
-      <c r="BM60" s="30"/>
-      <c r="BN60" s="30"/>
-      <c r="BO60" s="30"/>
-      <c r="BP60" s="30"/>
+      <c r="C60" s="61"/>
+      <c r="G60" s="270"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="271"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="232"/>
+      <c r="L60" s="232"/>
+      <c r="M60" s="232"/>
+      <c r="N60" s="232"/>
+      <c r="O60" s="232"/>
+      <c r="P60" s="232"/>
+      <c r="Q60" s="232"/>
+      <c r="R60" s="232"/>
+      <c r="S60" s="232"/>
+      <c r="T60" s="232"/>
+      <c r="U60" s="232"/>
+      <c r="V60" s="232"/>
+      <c r="W60" s="273"/>
+      <c r="X60" s="274"/>
+      <c r="Y60" s="232"/>
+      <c r="Z60" s="232"/>
+      <c r="AA60" s="232"/>
+      <c r="AB60" s="232"/>
+      <c r="AC60" s="232"/>
+      <c r="AD60" s="232"/>
+      <c r="AE60" s="232"/>
+      <c r="AF60" s="232"/>
+      <c r="AG60" s="232"/>
+      <c r="AH60" s="232"/>
+      <c r="AI60" s="232"/>
+      <c r="AJ60" s="232"/>
+      <c r="AK60" s="232"/>
+      <c r="AL60" s="273"/>
+      <c r="AM60" s="274"/>
+      <c r="AN60" s="232"/>
+      <c r="AO60" s="232"/>
+      <c r="AP60" s="233"/>
+      <c r="AQ60" s="89"/>
+      <c r="AR60" s="216"/>
+      <c r="AS60" s="216"/>
+      <c r="AT60" s="216"/>
+      <c r="AU60" s="216"/>
+      <c r="AV60" s="216"/>
+      <c r="AW60" s="216"/>
+      <c r="AX60" s="216"/>
+      <c r="AY60" s="216"/>
+      <c r="AZ60" s="216"/>
+      <c r="BA60" s="217"/>
+      <c r="BB60" s="218"/>
+      <c r="BC60" s="216"/>
+      <c r="BD60" s="216"/>
+      <c r="BE60" s="216"/>
+      <c r="BF60" s="216"/>
+      <c r="BG60" s="216"/>
+      <c r="BH60" s="216"/>
+      <c r="BI60" s="216"/>
+      <c r="BJ60" s="216"/>
+      <c r="BK60" s="216"/>
+      <c r="BL60" s="216"/>
+      <c r="BM60" s="216"/>
+      <c r="BN60" s="216"/>
+      <c r="BO60" s="216"/>
+      <c r="BP60" s="217"/>
       <c r="BQ60" s="30"/>
       <c r="BR60" s="30"/>
     </row>
+    <row r="61" ht="21.0" customHeight="1">
+      <c r="A61" s="30"/>
+      <c r="B61" s="275"/>
+      <c r="C61" s="275"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="276"/>
+      <c r="F61" s="277"/>
+      <c r="G61" s="277"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="279"/>
+      <c r="J61" s="280"/>
+      <c r="K61" s="281"/>
+      <c r="L61" s="281"/>
+      <c r="M61" s="281"/>
+      <c r="N61" s="281"/>
+      <c r="O61" s="281"/>
+      <c r="P61" s="281"/>
+      <c r="Q61" s="281"/>
+      <c r="R61" s="281"/>
+      <c r="S61" s="281"/>
+      <c r="T61" s="281"/>
+      <c r="U61" s="281"/>
+      <c r="V61" s="281"/>
+      <c r="W61" s="281"/>
+      <c r="X61" s="281"/>
+      <c r="Y61" s="281"/>
+      <c r="Z61" s="281"/>
+      <c r="AA61" s="281"/>
+      <c r="AB61" s="281"/>
+      <c r="AC61" s="281"/>
+      <c r="AD61" s="281"/>
+      <c r="AE61" s="281"/>
+      <c r="AF61" s="281"/>
+      <c r="AG61" s="281"/>
+      <c r="AH61" s="281"/>
+      <c r="AI61" s="281"/>
+      <c r="AJ61" s="281"/>
+      <c r="AK61" s="281"/>
+      <c r="AL61" s="281"/>
+      <c r="AM61" s="281"/>
+      <c r="AN61" s="281"/>
+      <c r="AO61" s="281"/>
+      <c r="AP61" s="281"/>
+      <c r="AQ61" s="281"/>
+      <c r="AR61" s="281"/>
+      <c r="AS61" s="281"/>
+      <c r="AT61" s="281"/>
+      <c r="AU61" s="281"/>
+      <c r="AV61" s="281"/>
+      <c r="AW61" s="281"/>
+      <c r="AX61" s="281"/>
+      <c r="AY61" s="281"/>
+      <c r="AZ61" s="281"/>
+      <c r="BA61" s="281"/>
+      <c r="BB61" s="281"/>
+      <c r="BC61" s="281"/>
+      <c r="BD61" s="281"/>
+      <c r="BE61" s="281"/>
+      <c r="BF61" s="281"/>
+      <c r="BG61" s="281"/>
+      <c r="BH61" s="281"/>
+      <c r="BI61" s="281"/>
+      <c r="BJ61" s="281"/>
+      <c r="BK61" s="281"/>
+      <c r="BL61" s="281"/>
+      <c r="BM61" s="281"/>
+      <c r="BN61" s="281"/>
+      <c r="BO61" s="281"/>
+      <c r="BP61" s="281"/>
+      <c r="BQ61" s="30"/>
+      <c r="BR61" s="30"/>
+    </row>
+    <row r="62" ht="21.0" customHeight="1">
+      <c r="A62" s="30"/>
+      <c r="B62" s="275"/>
+      <c r="C62" s="275"/>
+      <c r="D62" s="276"/>
+      <c r="E62" s="276"/>
+      <c r="F62" s="277"/>
+      <c r="G62" s="277"/>
+      <c r="H62" s="278"/>
+      <c r="I62" s="279"/>
+      <c r="J62" s="280"/>
+      <c r="K62" s="281"/>
+      <c r="L62" s="281"/>
+      <c r="M62" s="281"/>
+      <c r="N62" s="281"/>
+      <c r="O62" s="281"/>
+      <c r="P62" s="281"/>
+      <c r="Q62" s="281"/>
+      <c r="R62" s="281"/>
+      <c r="S62" s="281"/>
+      <c r="T62" s="281"/>
+      <c r="U62" s="281"/>
+      <c r="V62" s="281"/>
+      <c r="W62" s="281"/>
+      <c r="X62" s="281"/>
+      <c r="Y62" s="281"/>
+      <c r="Z62" s="281"/>
+      <c r="AA62" s="281"/>
+      <c r="AB62" s="281"/>
+      <c r="AC62" s="281"/>
+      <c r="AD62" s="281"/>
+      <c r="AE62" s="281"/>
+      <c r="AF62" s="281"/>
+      <c r="AG62" s="281"/>
+      <c r="AH62" s="281"/>
+      <c r="AI62" s="281"/>
+      <c r="AJ62" s="281"/>
+      <c r="AK62" s="281"/>
+      <c r="AL62" s="281"/>
+      <c r="AM62" s="281"/>
+      <c r="AN62" s="281"/>
+      <c r="AO62" s="281"/>
+      <c r="AP62" s="281"/>
+      <c r="AQ62" s="281"/>
+      <c r="AR62" s="281"/>
+      <c r="AS62" s="281"/>
+      <c r="AT62" s="281"/>
+      <c r="AU62" s="281"/>
+      <c r="AV62" s="281"/>
+      <c r="AW62" s="281"/>
+      <c r="AX62" s="281"/>
+      <c r="AY62" s="281"/>
+      <c r="AZ62" s="281"/>
+      <c r="BA62" s="281"/>
+      <c r="BB62" s="281"/>
+      <c r="BC62" s="281"/>
+      <c r="BD62" s="281"/>
+      <c r="BE62" s="281"/>
+      <c r="BF62" s="281"/>
+      <c r="BG62" s="281"/>
+      <c r="BH62" s="281"/>
+      <c r="BI62" s="281"/>
+      <c r="BJ62" s="281"/>
+      <c r="BK62" s="281"/>
+      <c r="BL62" s="281"/>
+      <c r="BM62" s="281"/>
+      <c r="BN62" s="281"/>
+      <c r="BO62" s="281"/>
+      <c r="BP62" s="281"/>
+      <c r="BQ62" s="30"/>
+      <c r="BR62" s="30"/>
+    </row>
+    <row r="63" ht="21.0" customHeight="1">
+      <c r="A63" s="30"/>
+      <c r="B63" s="275"/>
+      <c r="C63" s="275"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
+      <c r="F63" s="277"/>
+      <c r="G63" s="277"/>
+      <c r="H63" s="278"/>
+      <c r="I63" s="279"/>
+      <c r="J63" s="280"/>
+      <c r="K63" s="281"/>
+      <c r="L63" s="281"/>
+      <c r="M63" s="281"/>
+      <c r="N63" s="281"/>
+      <c r="O63" s="281"/>
+      <c r="P63" s="281"/>
+      <c r="Q63" s="281"/>
+      <c r="R63" s="281"/>
+      <c r="S63" s="281"/>
+      <c r="T63" s="281"/>
+      <c r="U63" s="281"/>
+      <c r="V63" s="281"/>
+      <c r="W63" s="281"/>
+      <c r="X63" s="281"/>
+      <c r="Y63" s="281"/>
+      <c r="Z63" s="281"/>
+      <c r="AA63" s="281"/>
+      <c r="AB63" s="281"/>
+      <c r="AC63" s="281"/>
+      <c r="AD63" s="281"/>
+      <c r="AE63" s="281"/>
+      <c r="AF63" s="281"/>
+      <c r="AG63" s="281"/>
+      <c r="AH63" s="281"/>
+      <c r="AI63" s="281"/>
+      <c r="AJ63" s="281"/>
+      <c r="AK63" s="281"/>
+      <c r="AL63" s="281"/>
+      <c r="AM63" s="281"/>
+      <c r="AN63" s="281"/>
+      <c r="AO63" s="281"/>
+      <c r="AP63" s="281"/>
+      <c r="AQ63" s="281"/>
+      <c r="AR63" s="281"/>
+      <c r="AS63" s="281"/>
+      <c r="AT63" s="281"/>
+      <c r="AU63" s="281"/>
+      <c r="AV63" s="281"/>
+      <c r="AW63" s="281"/>
+      <c r="AX63" s="281"/>
+      <c r="AY63" s="281"/>
+      <c r="AZ63" s="281"/>
+      <c r="BA63" s="281"/>
+      <c r="BB63" s="281"/>
+      <c r="BC63" s="281"/>
+      <c r="BD63" s="281"/>
+      <c r="BE63" s="281"/>
+      <c r="BF63" s="281"/>
+      <c r="BG63" s="281"/>
+      <c r="BH63" s="281"/>
+      <c r="BI63" s="281"/>
+      <c r="BJ63" s="281"/>
+      <c r="BK63" s="281"/>
+      <c r="BL63" s="281"/>
+      <c r="BM63" s="281"/>
+      <c r="BN63" s="281"/>
+      <c r="BO63" s="281"/>
+      <c r="BP63" s="281"/>
+      <c r="BQ63" s="30"/>
+      <c r="BR63" s="30"/>
+    </row>
+    <row r="64" ht="21.0" customHeight="1">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="282"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
+      <c r="AE64" s="30"/>
+      <c r="AF64" s="30"/>
+      <c r="AG64" s="30"/>
+      <c r="AH64" s="30"/>
+      <c r="AI64" s="30"/>
+      <c r="AJ64" s="30"/>
+      <c r="AK64" s="30"/>
+      <c r="AL64" s="30"/>
+      <c r="AM64" s="30"/>
+      <c r="AN64" s="30"/>
+      <c r="AO64" s="30"/>
+      <c r="AP64" s="30"/>
+      <c r="AQ64" s="30"/>
+      <c r="AR64" s="30"/>
+      <c r="AS64" s="30"/>
+      <c r="AT64" s="30"/>
+      <c r="AU64" s="30"/>
+      <c r="AV64" s="30"/>
+      <c r="AW64" s="30"/>
+      <c r="AX64" s="30"/>
+      <c r="AY64" s="30"/>
+      <c r="AZ64" s="30"/>
+      <c r="BA64" s="30"/>
+      <c r="BB64" s="30"/>
+      <c r="BC64" s="30"/>
+      <c r="BD64" s="30"/>
+      <c r="BE64" s="30"/>
+      <c r="BF64" s="30"/>
+      <c r="BG64" s="30"/>
+      <c r="BH64" s="30"/>
+      <c r="BI64" s="30"/>
+      <c r="BJ64" s="30"/>
+      <c r="BK64" s="30"/>
+      <c r="BL64" s="30"/>
+      <c r="BM64" s="30"/>
+      <c r="BN64" s="30"/>
+      <c r="BO64" s="30"/>
+      <c r="BP64" s="30"/>
+      <c r="BQ64" s="30"/>
+      <c r="BR64" s="30"/>
+    </row>
+    <row r="65" ht="21.0" customHeight="1">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="282"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
+      <c r="AE65" s="30"/>
+      <c r="AF65" s="30"/>
+      <c r="AG65" s="30"/>
+      <c r="AH65" s="30"/>
+      <c r="AI65" s="30"/>
+      <c r="AJ65" s="30"/>
+      <c r="AK65" s="30"/>
+      <c r="AL65" s="30"/>
+      <c r="AM65" s="30"/>
+      <c r="AN65" s="30"/>
+      <c r="AO65" s="30"/>
+      <c r="AP65" s="30"/>
+      <c r="AQ65" s="30"/>
+      <c r="AR65" s="30"/>
+      <c r="AS65" s="30"/>
+      <c r="AT65" s="30"/>
+      <c r="AU65" s="30"/>
+      <c r="AV65" s="30"/>
+      <c r="AW65" s="30"/>
+      <c r="AX65" s="30"/>
+      <c r="AY65" s="30"/>
+      <c r="AZ65" s="30"/>
+      <c r="BA65" s="30"/>
+      <c r="BB65" s="30"/>
+      <c r="BC65" s="30"/>
+      <c r="BD65" s="30"/>
+      <c r="BE65" s="30"/>
+      <c r="BF65" s="30"/>
+      <c r="BG65" s="30"/>
+      <c r="BH65" s="30"/>
+      <c r="BI65" s="30"/>
+      <c r="BJ65" s="30"/>
+      <c r="BK65" s="30"/>
+      <c r="BL65" s="30"/>
+      <c r="BM65" s="30"/>
+      <c r="BN65" s="30"/>
+      <c r="BO65" s="30"/>
+      <c r="BP65" s="30"/>
+      <c r="BQ65" s="30"/>
+      <c r="BR65" s="30"/>
+    </row>
+    <row r="66" ht="21.0" customHeight="1">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="282"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
+      <c r="AE66" s="30"/>
+      <c r="AF66" s="30"/>
+      <c r="AG66" s="30"/>
+      <c r="AH66" s="30"/>
+      <c r="AI66" s="30"/>
+      <c r="AJ66" s="30"/>
+      <c r="AK66" s="30"/>
+      <c r="AL66" s="30"/>
+      <c r="AM66" s="30"/>
+      <c r="AN66" s="30"/>
+      <c r="AO66" s="30"/>
+      <c r="AP66" s="30"/>
+      <c r="AQ66" s="30"/>
+      <c r="AR66" s="30"/>
+      <c r="AS66" s="30"/>
+      <c r="AT66" s="30"/>
+      <c r="AU66" s="30"/>
+      <c r="AV66" s="30"/>
+      <c r="AW66" s="30"/>
+      <c r="AX66" s="30"/>
+      <c r="AY66" s="30"/>
+      <c r="AZ66" s="30"/>
+      <c r="BA66" s="30"/>
+      <c r="BB66" s="30"/>
+      <c r="BC66" s="30"/>
+      <c r="BD66" s="30"/>
+      <c r="BE66" s="30"/>
+      <c r="BF66" s="30"/>
+      <c r="BG66" s="30"/>
+      <c r="BH66" s="30"/>
+      <c r="BI66" s="30"/>
+      <c r="BJ66" s="30"/>
+      <c r="BK66" s="30"/>
+      <c r="BL66" s="30"/>
+      <c r="BM66" s="30"/>
+      <c r="BN66" s="30"/>
+      <c r="BO66" s="30"/>
+      <c r="BP66" s="30"/>
+      <c r="BQ66" s="30"/>
+      <c r="BR66" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="135">
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:H21"/>
@@ -6956,6 +7443,8 @@
     <mergeCell ref="Z35:AA35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="T41:U41"/>
     <mergeCell ref="U27:W27"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="D29:F29"/>
@@ -6963,37 +7452,45 @@
     <mergeCell ref="W29:X29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="D40:F44"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:F43"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="G44:H44"/>
     <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D44:F51"/>
-    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="AB54:AC54"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D45:F57"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="O39:T39"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="AA44:AL44"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="X46:AB46"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="AA45:AL45"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="X47:AB47"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AA48:AB48"/>
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="AQ11:AQ54"/>
+    <mergeCell ref="AQ11:AQ60"/>
     <mergeCell ref="BB9:BF9"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="AM8:BA8"/>
@@ -7025,11 +7522,11 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="D58:F60"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
